--- a/doc/results/large_w0.xlsx
+++ b/doc/results/large_w0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="exact A2 vs exact A3" sheetId="1" r:id="rId1"/>
@@ -802,7 +802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -7947,7 +7947,7 @@
   <dimension ref="A1:P99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:P99"/>
+      <selection activeCell="F3" sqref="F3:H99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8036,7 +8036,7 @@
         <v>0.18592500000000001</v>
       </c>
       <c r="H3">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J3">
         <v>3.4229699999999998</v>
@@ -8045,7 +8045,7 @@
         <v>0.175981</v>
       </c>
       <c r="L3">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N3">
         <v>3.3454000000000002</v>
@@ -8054,7 +8054,7 @@
         <v>3.4176699999999997E-2</v>
       </c>
       <c r="P3">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -8077,7 +8077,7 @@
         <v>0.241785</v>
       </c>
       <c r="H4">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J4">
         <v>3.3841700000000001</v>
@@ -8086,7 +8086,7 @@
         <v>0.20527699999999999</v>
       </c>
       <c r="L4">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N4">
         <v>3.3509699999999998</v>
@@ -8095,7 +8095,7 @@
         <v>0.12905700000000001</v>
       </c>
       <c r="P4">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -8118,7 +8118,7 @@
         <v>0.21401400000000001</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J5">
         <v>3.2283200000000001</v>
@@ -8127,7 +8127,7 @@
         <v>0.144368</v>
       </c>
       <c r="L5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N5">
         <v>3.2283200000000001</v>
@@ -8136,7 +8136,7 @@
         <v>0.102733</v>
       </c>
       <c r="P5">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -8159,7 +8159,7 @@
         <v>0.189969</v>
       </c>
       <c r="H6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J6">
         <v>3.3386100000000001</v>
@@ -8168,7 +8168,7 @@
         <v>0.23160900000000001</v>
       </c>
       <c r="L6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N6">
         <v>3.3386100000000001</v>
@@ -8177,7 +8177,7 @@
         <v>7.6509800000000003E-2</v>
       </c>
       <c r="P6">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -8200,7 +8200,7 @@
         <v>0.27675100000000002</v>
       </c>
       <c r="H7">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J7">
         <v>3.3903300000000001</v>
@@ -8209,7 +8209,7 @@
         <v>0.27942800000000001</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N7">
         <v>3.3204500000000001</v>
@@ -8218,7 +8218,7 @@
         <v>0.120585</v>
       </c>
       <c r="P7">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -8241,7 +8241,7 @@
         <v>2.2961800000000001E-3</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8">
         <v>2.5</v>
@@ -8250,16 +8250,16 @@
         <v>1.7452399999999999E-3</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N8">
         <v>1.85484</v>
       </c>
       <c r="O8">
-        <v>1.83157E-3</v>
+        <v>1.7572899999999999E-3</v>
       </c>
       <c r="P8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -8282,7 +8282,7 @@
         <v>8.4537000000000001E-2</v>
       </c>
       <c r="H9">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J9">
         <v>2.85398</v>
@@ -8291,7 +8291,7 @@
         <v>0.22655800000000001</v>
       </c>
       <c r="L9">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N9">
         <v>2.85398</v>
@@ -8300,7 +8300,7 @@
         <v>0.12332</v>
       </c>
       <c r="P9">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -8323,7 +8323,7 @@
         <v>0.28950599999999999</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J10">
         <v>3.2887300000000002</v>
@@ -8332,7 +8332,7 @@
         <v>0.263826</v>
       </c>
       <c r="L10">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N10">
         <v>3.2887300000000002</v>
@@ -8341,7 +8341,7 @@
         <v>0.13525899999999999</v>
       </c>
       <c r="P10">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -8364,7 +8364,7 @@
         <v>0.236565</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J11">
         <v>3.2116500000000001</v>
@@ -8373,7 +8373,7 @@
         <v>0.30990099999999998</v>
       </c>
       <c r="L11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N11">
         <v>2.5010599999999998</v>
@@ -8382,7 +8382,7 @@
         <v>8.9610999999999996E-2</v>
       </c>
       <c r="P11">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -8405,7 +8405,7 @@
         <v>0.32640999999999998</v>
       </c>
       <c r="H12">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J12">
         <v>3.2446299999999999</v>
@@ -8414,7 +8414,7 @@
         <v>0.321216</v>
       </c>
       <c r="L12">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N12">
         <v>3.2170399999999999</v>
@@ -8423,7 +8423,7 @@
         <v>6.7244300000000007E-2</v>
       </c>
       <c r="P12">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -8446,7 +8446,7 @@
         <v>0.26858399999999999</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J13">
         <v>3.17747</v>
@@ -8455,7 +8455,7 @@
         <v>0.34578700000000001</v>
       </c>
       <c r="L13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N13">
         <v>3.17747</v>
@@ -8464,7 +8464,7 @@
         <v>0.19032099999999999</v>
       </c>
       <c r="P13">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -8487,7 +8487,7 @@
         <v>0.120827</v>
       </c>
       <c r="H14">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J14">
         <v>2.4452699999999998</v>
@@ -8496,7 +8496,7 @@
         <v>0.31593300000000002</v>
       </c>
       <c r="L14">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N14">
         <v>2.4452699999999998</v>
@@ -8505,7 +8505,7 @@
         <v>0.19491</v>
       </c>
       <c r="P14">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -8528,7 +8528,7 @@
         <v>0.34671099999999999</v>
       </c>
       <c r="H15">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J15">
         <v>2.9108900000000002</v>
@@ -8537,7 +8537,7 @@
         <v>0.34721200000000002</v>
       </c>
       <c r="L15">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N15">
         <v>2.9108900000000002</v>
@@ -8546,7 +8546,7 @@
         <v>0.26114700000000002</v>
       </c>
       <c r="P15">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -8569,7 +8569,7 @@
         <v>0.33030700000000002</v>
       </c>
       <c r="H16">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J16">
         <v>3.0642900000000002</v>
@@ -8578,7 +8578,7 @@
         <v>0.39273000000000002</v>
       </c>
       <c r="L16">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N16">
         <v>2.3698000000000001</v>
@@ -8587,7 +8587,7 @@
         <v>0.26322000000000001</v>
       </c>
       <c r="P16">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -8610,7 +8610,7 @@
         <v>0.46246500000000001</v>
       </c>
       <c r="H17">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J17">
         <v>3.1390199999999999</v>
@@ -8619,7 +8619,7 @@
         <v>0.45342900000000003</v>
       </c>
       <c r="L17">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N17">
         <v>2.43594</v>
@@ -8628,7 +8628,7 @@
         <v>0.25220500000000001</v>
       </c>
       <c r="P17">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -8651,7 +8651,7 @@
         <v>0.46910200000000002</v>
       </c>
       <c r="H18">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J18">
         <v>3.13022</v>
@@ -8660,7 +8660,7 @@
         <v>0.485514</v>
       </c>
       <c r="L18">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N18">
         <v>3.13022</v>
@@ -8669,7 +8669,7 @@
         <v>0.31041999999999997</v>
       </c>
       <c r="P18">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -8692,7 +8692,7 @@
         <v>2.2628800000000001E-3</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J19">
         <v>2.1272700000000002</v>
@@ -8701,16 +8701,16 @@
         <v>2.59524E-3</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N19">
         <v>2.1272700000000002</v>
       </c>
       <c r="O19">
-        <v>3.7349699999999998E-3</v>
+        <v>7.2181499999999996E-3</v>
       </c>
       <c r="P19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -8733,7 +8733,7 @@
         <v>0.514961</v>
       </c>
       <c r="H20">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J20">
         <v>3.09538</v>
@@ -8742,7 +8742,7 @@
         <v>0.18265899999999999</v>
       </c>
       <c r="L20">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N20">
         <v>2.39445</v>
@@ -8751,7 +8751,7 @@
         <v>0.31839000000000001</v>
       </c>
       <c r="P20">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -8774,7 +8774,7 @@
         <v>0.52199499999999999</v>
       </c>
       <c r="H21">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J21">
         <v>3.0763400000000001</v>
@@ -8783,7 +8783,7 @@
         <v>0.26083499999999998</v>
       </c>
       <c r="L21">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N21">
         <v>2.3853599999999999</v>
@@ -8792,7 +8792,7 @@
         <v>0.14451900000000001</v>
       </c>
       <c r="P21">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -8815,7 +8815,7 @@
         <v>0.51623300000000005</v>
       </c>
       <c r="H22">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J22">
         <v>3.00244</v>
@@ -8824,7 +8824,7 @@
         <v>0.24709600000000001</v>
       </c>
       <c r="L22">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N22">
         <v>2.3035100000000002</v>
@@ -8833,7 +8833,7 @@
         <v>0.34161999999999998</v>
       </c>
       <c r="P22">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -8856,7 +8856,7 @@
         <v>0.481931</v>
       </c>
       <c r="H23">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J23">
         <v>2.9308299999999998</v>
@@ -8865,7 +8865,7 @@
         <v>0.42026999999999998</v>
       </c>
       <c r="L23">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N23">
         <v>2.9308299999999998</v>
@@ -8874,7 +8874,7 @@
         <v>0.30898900000000001</v>
       </c>
       <c r="P23">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -8897,7 +8897,7 @@
         <v>0.526613</v>
       </c>
       <c r="H24">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J24">
         <v>2.99438</v>
@@ -8906,7 +8906,7 @@
         <v>0.50763400000000003</v>
       </c>
       <c r="L24">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N24">
         <v>2.99438</v>
@@ -8915,7 +8915,7 @@
         <v>0.36810300000000001</v>
       </c>
       <c r="P24">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -8938,7 +8938,7 @@
         <v>0.58483399999999996</v>
       </c>
       <c r="H25">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J25">
         <v>2.9357500000000001</v>
@@ -8947,7 +8947,7 @@
         <v>0.58359300000000003</v>
       </c>
       <c r="L25">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N25">
         <v>2.9357500000000001</v>
@@ -8956,7 +8956,7 @@
         <v>0.38362600000000002</v>
       </c>
       <c r="P25">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -8979,7 +8979,7 @@
         <v>0.57996499999999995</v>
       </c>
       <c r="H26">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J26">
         <v>3.05538</v>
@@ -8988,7 +8988,7 @@
         <v>0.54398800000000003</v>
       </c>
       <c r="L26">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N26">
         <v>3.05538</v>
@@ -8997,7 +8997,7 @@
         <v>0.43923000000000001</v>
       </c>
       <c r="P26">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -9020,7 +9020,7 @@
         <v>0.69895399999999996</v>
       </c>
       <c r="H27">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J27">
         <v>2.9679199999999999</v>
@@ -9029,7 +9029,7 @@
         <v>0.71166499999999999</v>
       </c>
       <c r="L27">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N27">
         <v>2.28145</v>
@@ -9038,7 +9038,7 @@
         <v>0.50597099999999995</v>
       </c>
       <c r="P27">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -9061,7 +9061,7 @@
         <v>0.61767399999999995</v>
       </c>
       <c r="H28">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J28">
         <v>2.87018</v>
@@ -9070,7 +9070,7 @@
         <v>0.60508799999999996</v>
       </c>
       <c r="L28">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N28">
         <v>2.87018</v>
@@ -9079,7 +9079,7 @@
         <v>0.55430400000000002</v>
       </c>
       <c r="P28">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -9102,7 +9102,7 @@
         <v>0.79346300000000003</v>
       </c>
       <c r="H29">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J29">
         <v>2.9836900000000002</v>
@@ -9111,7 +9111,7 @@
         <v>0.69538599999999995</v>
       </c>
       <c r="L29">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N29">
         <v>2.9836900000000002</v>
@@ -9120,7 +9120,7 @@
         <v>0.55125000000000002</v>
       </c>
       <c r="P29">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -9143,7 +9143,7 @@
         <v>1.4536E-3</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J30">
         <v>1.6994199999999999</v>
@@ -9152,16 +9152,16 @@
         <v>2.1213099999999999E-3</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N30">
         <v>1.6994199999999999</v>
       </c>
       <c r="O30">
-        <v>1.55569E-3</v>
+        <v>1.5234199999999999E-3</v>
       </c>
       <c r="P30">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -9184,7 +9184,7 @@
         <v>0.79869500000000004</v>
       </c>
       <c r="H31">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J31">
         <v>2.9315600000000002</v>
@@ -9193,7 +9193,7 @@
         <v>0.780694</v>
       </c>
       <c r="L31">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N31">
         <v>2.9315600000000002</v>
@@ -9202,7 +9202,7 @@
         <v>0.48830400000000002</v>
       </c>
       <c r="P31">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -9225,7 +9225,7 @@
         <v>0.91038799999999998</v>
       </c>
       <c r="H32">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J32">
         <v>2.91642</v>
@@ -9234,7 +9234,7 @@
         <v>0.90571999999999997</v>
       </c>
       <c r="L32">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N32">
         <v>2.91642</v>
@@ -9243,7 +9243,7 @@
         <v>0.662663</v>
       </c>
       <c r="P32">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
@@ -9266,7 +9266,7 @@
         <v>0.51147699999999996</v>
       </c>
       <c r="H33">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J33">
         <v>2.91222</v>
@@ -9275,7 +9275,7 @@
         <v>0.89571800000000001</v>
       </c>
       <c r="L33">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N33">
         <v>2.2215799999999999</v>
@@ -9284,7 +9284,7 @@
         <v>0.63575599999999999</v>
       </c>
       <c r="P33">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -9307,7 +9307,7 @@
         <v>0.27728799999999998</v>
       </c>
       <c r="H34">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J34">
         <v>2.8101099999999999</v>
@@ -9316,7 +9316,7 @@
         <v>0.76188800000000001</v>
       </c>
       <c r="L34">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N34">
         <v>2.8101099999999999</v>
@@ -9325,7 +9325,7 @@
         <v>0.66099399999999997</v>
       </c>
       <c r="P34">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -9348,7 +9348,7 @@
         <v>0.497139</v>
       </c>
       <c r="H35">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J35">
         <v>2.8966099999999999</v>
@@ -9357,7 +9357,7 @@
         <v>0.959013</v>
       </c>
       <c r="L35">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N35">
         <v>2.8966099999999999</v>
@@ -9366,7 +9366,7 @@
         <v>0.62013499999999999</v>
       </c>
       <c r="P35">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
@@ -9389,7 +9389,7 @@
         <v>0.54588999999999999</v>
       </c>
       <c r="H36">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J36">
         <v>2.84341</v>
@@ -9398,7 +9398,7 @@
         <v>0.59664200000000001</v>
       </c>
       <c r="L36">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N36">
         <v>2.84341</v>
@@ -9407,7 +9407,7 @@
         <v>0.77413799999999999</v>
       </c>
       <c r="P36">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -9430,7 +9430,7 @@
         <v>1.03711</v>
       </c>
       <c r="H37">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J37">
         <v>2.8046600000000002</v>
@@ -9439,7 +9439,7 @@
         <v>0.60212600000000005</v>
       </c>
       <c r="L37">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N37">
         <v>2.8046600000000002</v>
@@ -9448,7 +9448,7 @@
         <v>0.84778900000000001</v>
       </c>
       <c r="P37">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -9471,7 +9471,7 @@
         <v>1.16153</v>
       </c>
       <c r="H38">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J38">
         <v>2.8596699999999999</v>
@@ -9480,7 +9480,7 @@
         <v>1.1775100000000001</v>
       </c>
       <c r="L38">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N38">
         <v>2.8596699999999999</v>
@@ -9489,7 +9489,7 @@
         <v>0.35860799999999998</v>
       </c>
       <c r="P38">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
@@ -9512,7 +9512,7 @@
         <v>1.0106299999999999</v>
       </c>
       <c r="H39">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J39">
         <v>2.1255700000000002</v>
@@ -9521,7 +9521,7 @@
         <v>1.0743</v>
       </c>
       <c r="L39">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N39">
         <v>2.1255700000000002</v>
@@ -9530,7 +9530,7 @@
         <v>0.97206999999999999</v>
       </c>
       <c r="P39">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
@@ -9553,7 +9553,7 @@
         <v>1.0686800000000001</v>
       </c>
       <c r="H40">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J40">
         <v>2.7966899999999999</v>
@@ -9562,7 +9562,7 @@
         <v>0.65689399999999998</v>
       </c>
       <c r="L40">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N40">
         <v>2.7966899999999999</v>
@@ -9571,7 +9571,7 @@
         <v>0.95889899999999995</v>
       </c>
       <c r="P40">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
@@ -9594,7 +9594,7 @@
         <v>2.16796E-3</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J41">
         <v>1.63636</v>
@@ -9603,16 +9603,16 @@
         <v>1.71356E-3</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N41">
         <v>1.63636</v>
       </c>
       <c r="O41">
-        <v>1.66613E-3</v>
+        <v>2.7839100000000001E-3</v>
       </c>
       <c r="P41">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
@@ -9635,7 +9635,7 @@
         <v>1.28684</v>
       </c>
       <c r="H42">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J42">
         <v>2.7885</v>
@@ -9644,7 +9644,7 @@
         <v>1.3269599999999999</v>
       </c>
       <c r="L42">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N42">
         <v>2.1029300000000002</v>
@@ -9653,7 +9653,7 @@
         <v>1.1033299999999999</v>
       </c>
       <c r="P42">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -9676,7 +9676,7 @@
         <v>1.1861699999999999</v>
       </c>
       <c r="H43">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J43">
         <v>2.7507100000000002</v>
@@ -9685,7 +9685,7 @@
         <v>1.11267</v>
       </c>
       <c r="L43">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N43">
         <v>2.7507100000000002</v>
@@ -9694,7 +9694,7 @@
         <v>1.00522</v>
       </c>
       <c r="P43">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
@@ -9717,7 +9717,7 @@
         <v>1.38761</v>
       </c>
       <c r="H44">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J44">
         <v>2.7781199999999999</v>
@@ -9726,7 +9726,7 @@
         <v>1.37354</v>
       </c>
       <c r="L44">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N44">
         <v>2.7781199999999999</v>
@@ -9735,7 +9735,7 @@
         <v>1.1161399999999999</v>
       </c>
       <c r="P44">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
@@ -9758,7 +9758,7 @@
         <v>1.4072199999999999</v>
       </c>
       <c r="H45">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J45">
         <v>2.7761800000000001</v>
@@ -9767,7 +9767,7 @@
         <v>1.41161</v>
       </c>
       <c r="L45">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N45">
         <v>2.7761800000000001</v>
@@ -9776,7 +9776,7 @@
         <v>1.16852</v>
       </c>
       <c r="P45">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
@@ -9799,7 +9799,7 @@
         <v>1.47281</v>
       </c>
       <c r="H46">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J46">
         <v>2.7763</v>
@@ -9808,7 +9808,7 @@
         <v>1.47864</v>
       </c>
       <c r="L46">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N46">
         <v>2.7763</v>
@@ -9817,7 +9817,7 @@
         <v>0.67685099999999998</v>
       </c>
       <c r="P46">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -9840,7 +9840,7 @@
         <v>1.5092699999999999</v>
       </c>
       <c r="H47">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J47">
         <v>2.7649400000000002</v>
@@ -9849,7 +9849,7 @@
         <v>1.3863000000000001</v>
       </c>
       <c r="L47">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N47">
         <v>2.7649400000000002</v>
@@ -9858,7 +9858,7 @@
         <v>0.681226</v>
       </c>
       <c r="P47">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
@@ -9881,7 +9881,7 @@
         <v>1.7163900000000001</v>
       </c>
       <c r="H48">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J48">
         <v>2.7433100000000001</v>
@@ -9890,7 +9890,7 @@
         <v>1.35276</v>
       </c>
       <c r="L48">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N48">
         <v>2.7433100000000001</v>
@@ -9899,7 +9899,7 @@
         <v>0.75592400000000004</v>
       </c>
       <c r="P48">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
@@ -9922,7 +9922,7 @@
         <v>1.67171</v>
       </c>
       <c r="H49">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J49">
         <v>2.7534000000000001</v>
@@ -9931,7 +9931,7 @@
         <v>0.67168899999999998</v>
       </c>
       <c r="L49">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N49">
         <v>2.7534000000000001</v>
@@ -9940,7 +9940,7 @@
         <v>0.78570300000000004</v>
       </c>
       <c r="P49">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
@@ -9963,7 +9963,7 @@
         <v>1.40415</v>
       </c>
       <c r="H50">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J50">
         <v>2.6626300000000001</v>
@@ -9972,7 +9972,7 @@
         <v>1.4147700000000001</v>
       </c>
       <c r="L50">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N50">
         <v>2.6626300000000001</v>
@@ -9981,7 +9981,7 @@
         <v>0.553091</v>
       </c>
       <c r="P50">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
@@ -10004,7 +10004,7 @@
         <v>0.89888999999999997</v>
       </c>
       <c r="H51">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J51">
         <v>2.6647500000000002</v>
@@ -10013,7 +10013,7 @@
         <v>1.6281300000000001</v>
       </c>
       <c r="L51">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N51">
         <v>2.6647500000000002</v>
@@ -10022,7 +10022,7 @@
         <v>1.63208</v>
       </c>
       <c r="P51">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
@@ -10045,7 +10045,7 @@
         <v>2.1272800000000001E-3</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J52">
         <v>1.60372</v>
@@ -10054,16 +10054,16 @@
         <v>1.24726E-3</v>
       </c>
       <c r="L52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N52">
         <v>1.60372</v>
       </c>
       <c r="O52">
-        <v>1.86422E-3</v>
+        <v>1.59293E-3</v>
       </c>
       <c r="P52">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
@@ -10086,7 +10086,7 @@
         <v>1.8347500000000001</v>
       </c>
       <c r="H53">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J53">
         <v>2.7098800000000001</v>
@@ -10095,7 +10095,7 @@
         <v>1.83497</v>
       </c>
       <c r="L53">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N53">
         <v>2.7098800000000001</v>
@@ -10104,7 +10104,7 @@
         <v>1.6395900000000001</v>
       </c>
       <c r="P53">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
@@ -10127,7 +10127,7 @@
         <v>0.95405499999999999</v>
       </c>
       <c r="H54">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J54">
         <v>2.6358999999999999</v>
@@ -10136,7 +10136,7 @@
         <v>1.4973399999999999</v>
       </c>
       <c r="L54">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N54">
         <v>2.6358999999999999</v>
@@ -10145,7 +10145,7 @@
         <v>1.76146</v>
       </c>
       <c r="P54">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
@@ -10168,7 +10168,7 @@
         <v>1.7650399999999999</v>
       </c>
       <c r="H55">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J55">
         <v>2.6710600000000002</v>
@@ -10177,7 +10177,7 @@
         <v>1.77413</v>
       </c>
       <c r="L55">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N55">
         <v>2.6710600000000002</v>
@@ -10186,7 +10186,7 @@
         <v>1.5071000000000001</v>
       </c>
       <c r="P55">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
@@ -10209,7 +10209,7 @@
         <v>2.0758299999999998</v>
       </c>
       <c r="H56">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J56">
         <v>2.6402100000000002</v>
@@ -10218,7 +10218,7 @@
         <v>2.1238600000000001</v>
       </c>
       <c r="L56">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N56">
         <v>2.6402100000000002</v>
@@ -10227,7 +10227,7 @@
         <v>1.66723</v>
       </c>
       <c r="P56">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
@@ -10250,7 +10250,7 @@
         <v>1.9261900000000001</v>
       </c>
       <c r="H57">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J57">
         <v>2.6431900000000002</v>
@@ -10259,7 +10259,7 @@
         <v>1.81782</v>
       </c>
       <c r="L57">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N57">
         <v>2.6431900000000002</v>
@@ -10268,7 +10268,7 @@
         <v>1.8614900000000001</v>
       </c>
       <c r="P57">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
@@ -10291,7 +10291,7 @@
         <v>2.15178</v>
       </c>
       <c r="H58">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J58">
         <v>2.8381799999999999</v>
@@ -10300,7 +10300,7 @@
         <v>1.19323</v>
       </c>
       <c r="L58">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N58">
         <v>2.8381799999999999</v>
@@ -10309,7 +10309,7 @@
         <v>1.76542</v>
       </c>
       <c r="P58">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
@@ -10332,7 +10332,7 @@
         <v>1.8160400000000001E-3</v>
       </c>
       <c r="H59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J59">
         <v>2.0475699999999999</v>
@@ -10341,16 +10341,16 @@
         <v>1.9435100000000001E-3</v>
       </c>
       <c r="L59">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N59">
         <v>1.92347</v>
       </c>
       <c r="O59">
-        <v>1.7872000000000001E-3</v>
+        <v>2.9223600000000001E-3</v>
       </c>
       <c r="P59">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
@@ -10373,7 +10373,7 @@
         <v>1.9305800000000001E-3</v>
       </c>
       <c r="H60">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J60">
         <v>2.3043900000000002</v>
@@ -10382,16 +10382,16 @@
         <v>3.0780400000000002E-3</v>
       </c>
       <c r="L60">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N60">
         <v>2.3043900000000002</v>
       </c>
       <c r="O60">
-        <v>2.5294699999999998E-3</v>
+        <v>2.6246400000000001E-3</v>
       </c>
       <c r="P60">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
@@ -10414,7 +10414,7 @@
         <v>2.0640400000000001E-3</v>
       </c>
       <c r="H61">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J61">
         <v>3.3115700000000001</v>
@@ -10423,16 +10423,16 @@
         <v>3.3195299999999998E-3</v>
       </c>
       <c r="L61">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N61">
         <v>3.3115700000000001</v>
       </c>
       <c r="O61">
-        <v>2.6598500000000001E-3</v>
+        <v>2.7674499999999999E-3</v>
       </c>
       <c r="P61">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
@@ -10455,7 +10455,7 @@
         <v>3.5082400000000001E-3</v>
       </c>
       <c r="H62">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J62">
         <v>3.9419400000000002</v>
@@ -10464,16 +10464,16 @@
         <v>2.6512800000000002E-3</v>
       </c>
       <c r="L62">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N62">
         <v>3.9419400000000002</v>
       </c>
       <c r="O62">
-        <v>2.1299800000000001E-3</v>
+        <v>3.0726299999999998E-3</v>
       </c>
       <c r="P62">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
@@ -10496,7 +10496,7 @@
         <v>3.7772399999999999E-3</v>
       </c>
       <c r="H63">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J63">
         <v>5.60886</v>
@@ -10505,16 +10505,16 @@
         <v>3.15191E-3</v>
       </c>
       <c r="L63">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N63">
         <v>4.7527699999999999</v>
       </c>
       <c r="O63">
-        <v>2.89398E-3</v>
+        <v>2.1570700000000001E-3</v>
       </c>
       <c r="P63">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
@@ -10537,7 +10537,7 @@
         <v>5.2768900000000002E-3</v>
       </c>
       <c r="H64">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J64">
         <v>6.38504</v>
@@ -10546,16 +10546,16 @@
         <v>2.8195799999999999E-3</v>
       </c>
       <c r="L64">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N64">
         <v>5.9833800000000004</v>
       </c>
       <c r="O64">
-        <v>6.4976000000000001E-3</v>
+        <v>6.0959899999999999E-3</v>
       </c>
       <c r="P64">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
@@ -10578,7 +10578,7 @@
         <v>4.1012100000000001E-3</v>
       </c>
       <c r="H65">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J65">
         <v>6.5730399999999998</v>
@@ -10587,16 +10587,16 @@
         <v>2.4620200000000001E-3</v>
       </c>
       <c r="L65">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N65">
         <v>5.87608</v>
       </c>
       <c r="O65">
-        <v>2.85791E-3</v>
+        <v>2.2736599999999998E-3</v>
       </c>
       <c r="P65">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
@@ -10619,7 +10619,7 @@
         <v>2.8758E-3</v>
       </c>
       <c r="H66">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J66">
         <v>10.3415</v>
@@ -10628,16 +10628,16 @@
         <v>3.2600099999999998E-3</v>
       </c>
       <c r="L66">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="N66">
         <v>10.3415</v>
       </c>
       <c r="O66">
-        <v>1.66964E-3</v>
+        <v>3.5002700000000002E-3</v>
       </c>
       <c r="P66">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
@@ -10660,7 +10660,7 @@
         <v>3.1735600000000002E-3</v>
       </c>
       <c r="H67">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J67">
         <v>10.7835</v>
@@ -10669,16 +10669,16 @@
         <v>6.3492599999999998E-3</v>
       </c>
       <c r="L67">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N67">
         <v>10.7835</v>
       </c>
       <c r="O67">
-        <v>2.3938900000000001E-3</v>
+        <v>2.6389999999999999E-3</v>
       </c>
       <c r="P67">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
@@ -10701,7 +10701,7 @@
         <v>3.27729E-3</v>
       </c>
       <c r="H68">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J68">
         <v>5.9787800000000004</v>
@@ -10710,16 +10710,16 @@
         <v>4.1884499999999998E-3</v>
       </c>
       <c r="L68">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N68">
         <v>5.1209899999999999</v>
       </c>
       <c r="O68">
-        <v>3.7484300000000001E-3</v>
+        <v>2.61992E-3</v>
       </c>
       <c r="P68">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
@@ -10742,7 +10742,7 @@
         <v>3.6250000000000002E-3</v>
       </c>
       <c r="H69">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J69">
         <v>5.1755000000000004</v>
@@ -10751,16 +10751,16 @@
         <v>7.7659000000000001E-3</v>
       </c>
       <c r="L69">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N69">
         <v>4.4884199999999996</v>
       </c>
       <c r="O69">
-        <v>2.8561799999999998E-3</v>
+        <v>2.7305400000000001E-3</v>
       </c>
       <c r="P69">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
@@ -10783,7 +10783,7 @@
         <v>6.9717299999999998E-3</v>
       </c>
       <c r="H70">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J70">
         <v>6.5787100000000001</v>
@@ -10792,16 +10792,16 @@
         <v>7.3498699999999997E-3</v>
       </c>
       <c r="L70">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="N70">
         <v>5.68736</v>
       </c>
       <c r="O70">
-        <v>3.47803E-3</v>
+        <v>4.0369500000000001E-3</v>
       </c>
       <c r="P70">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
@@ -10824,7 +10824,7 @@
         <v>5.4555200000000002E-3</v>
       </c>
       <c r="H71">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J71">
         <v>6.0944900000000004</v>
@@ -10833,16 +10833,16 @@
         <v>1.1313699999999999E-2</v>
       </c>
       <c r="L71">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="N71">
         <v>5.3659999999999997</v>
       </c>
       <c r="O71">
-        <v>4.0249400000000003E-3</v>
+        <v>5.9601000000000003E-3</v>
       </c>
       <c r="P71">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
@@ -10865,7 +10865,7 @@
         <v>4.1327600000000001E-3</v>
       </c>
       <c r="H72">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J72">
         <v>5.7626400000000002</v>
@@ -10874,16 +10874,16 @@
         <v>1.3763900000000001E-2</v>
       </c>
       <c r="L72">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N72">
         <v>5.04962</v>
       </c>
       <c r="O72">
-        <v>3.64212E-3</v>
+        <v>4.37157E-3</v>
       </c>
       <c r="P72">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
@@ -10906,7 +10906,7 @@
         <v>5.9966500000000001E-3</v>
       </c>
       <c r="H73">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J73">
         <v>4.4408899999999996</v>
@@ -10915,16 +10915,16 @@
         <v>1.59101E-2</v>
       </c>
       <c r="L73">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N73">
         <v>4.4408899999999996</v>
       </c>
       <c r="O73">
-        <v>6.7020500000000002E-3</v>
+        <v>6.2368199999999997E-3</v>
       </c>
       <c r="P73">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
@@ -10947,7 +10947,7 @@
         <v>8.3739999999999995E-3</v>
       </c>
       <c r="H74">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J74">
         <v>5.7700699999999996</v>
@@ -10956,16 +10956,16 @@
         <v>1.25571E-2</v>
       </c>
       <c r="L74">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N74">
         <v>4.6351899999999997</v>
       </c>
       <c r="O74">
-        <v>4.8664099999999998E-3</v>
+        <v>7.0248799999999998E-3</v>
       </c>
       <c r="P74">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
@@ -10988,7 +10988,7 @@
         <v>9.2311600000000004E-3</v>
       </c>
       <c r="H75">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J75">
         <v>5.4692999999999996</v>
@@ -10997,16 +10997,16 @@
         <v>1.4260800000000001E-2</v>
       </c>
       <c r="L75">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N75">
         <v>5.3741099999999999</v>
       </c>
       <c r="O75">
-        <v>3.8450099999999998E-3</v>
+        <v>8.9197100000000008E-3</v>
       </c>
       <c r="P75">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
@@ -11029,7 +11029,7 @@
         <v>9.5444199999999996E-3</v>
       </c>
       <c r="H76">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J76">
         <v>5.4311199999999999</v>
@@ -11038,16 +11038,16 @@
         <v>1.5591900000000001E-2</v>
       </c>
       <c r="L76">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="N76">
         <v>4.9535</v>
       </c>
       <c r="O76">
-        <v>5.6640199999999996E-3</v>
+        <v>5.7404500000000002E-3</v>
       </c>
       <c r="P76">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
@@ -11070,7 +11070,7 @@
         <v>7.3166500000000001E-3</v>
       </c>
       <c r="H77">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J77">
         <v>4.7918200000000004</v>
@@ -11079,16 +11079,16 @@
         <v>2.1022699999999998E-2</v>
       </c>
       <c r="L77">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N77">
         <v>4.7918200000000004</v>
       </c>
       <c r="O77">
-        <v>1.10142E-2</v>
+        <v>4.7070999999999997E-3</v>
       </c>
       <c r="P77">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
@@ -11111,7 +11111,7 @@
         <v>1.8823599999999999E-2</v>
       </c>
       <c r="H78">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J78">
         <v>5.2346500000000002</v>
@@ -11120,16 +11120,16 @@
         <v>3.2884999999999998E-2</v>
       </c>
       <c r="L78">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N78">
         <v>4.0146600000000001</v>
       </c>
       <c r="O78">
-        <v>6.3677200000000003E-3</v>
+        <v>9.02647E-3</v>
       </c>
       <c r="P78">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
@@ -11152,7 +11152,7 @@
         <v>2.0035600000000001E-2</v>
       </c>
       <c r="H79">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J79">
         <v>4.6367399999999996</v>
@@ -11161,16 +11161,16 @@
         <v>3.6283299999999997E-2</v>
       </c>
       <c r="L79">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N79">
         <v>4.6367399999999996</v>
       </c>
       <c r="O79">
-        <v>1.0532E-2</v>
+        <v>7.0902200000000004E-3</v>
       </c>
       <c r="P79">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
@@ -11193,7 +11193,7 @@
         <v>1.73946E-2</v>
       </c>
       <c r="H80">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J80">
         <v>5.0016499999999997</v>
@@ -11202,16 +11202,16 @@
         <v>5.0196200000000003E-2</v>
       </c>
       <c r="L80">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N80">
         <v>3.8192499999999998</v>
       </c>
       <c r="O80">
-        <v>1.44247E-2</v>
+        <v>1.6926500000000001E-2</v>
       </c>
       <c r="P80">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
@@ -11234,7 +11234,7 @@
         <v>2.8784799999999999E-2</v>
       </c>
       <c r="H81">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J81">
         <v>4.6495300000000004</v>
@@ -11243,16 +11243,16 @@
         <v>5.1562999999999998E-2</v>
       </c>
       <c r="L81">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N81">
         <v>3.8978000000000002</v>
       </c>
       <c r="O81">
-        <v>1.7140699999999998E-2</v>
+        <v>1.3278999999999999E-2</v>
       </c>
       <c r="P81">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
@@ -11275,7 +11275,7 @@
         <v>2.7567299999999999E-2</v>
       </c>
       <c r="H82">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J82">
         <v>4.5807799999999999</v>
@@ -11284,7 +11284,7 @@
         <v>4.4835800000000002E-2</v>
       </c>
       <c r="L82">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N82">
         <v>3.7448299999999999</v>
@@ -11293,7 +11293,7 @@
         <v>1.17217E-2</v>
       </c>
       <c r="P82">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
@@ -11316,7 +11316,7 @@
         <v>4.0094400000000002E-2</v>
       </c>
       <c r="H83">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J83">
         <v>4.4602399999999998</v>
@@ -11325,7 +11325,7 @@
         <v>5.6384499999999997E-2</v>
       </c>
       <c r="L83">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N83">
         <v>3.5847600000000002</v>
@@ -11334,7 +11334,7 @@
         <v>2.3931500000000001E-2</v>
       </c>
       <c r="P83">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
@@ -11357,7 +11357,7 @@
         <v>3.2037499999999997E-2</v>
       </c>
       <c r="H84">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J84">
         <v>4.3487499999999999</v>
@@ -11366,7 +11366,7 @@
         <v>5.9808500000000001E-2</v>
       </c>
       <c r="L84">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N84">
         <v>3.4631500000000002</v>
@@ -11375,7 +11375,7 @@
         <v>2.54734E-2</v>
       </c>
       <c r="P84">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
@@ -11398,7 +11398,7 @@
         <v>3.7815099999999997E-2</v>
       </c>
       <c r="H85">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J85">
         <v>4.1647999999999996</v>
@@ -11407,7 +11407,7 @@
         <v>6.2755400000000003E-2</v>
       </c>
       <c r="L85">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N85">
         <v>3.4255499999999999</v>
@@ -11416,7 +11416,7 @@
         <v>1.8331799999999999E-2</v>
       </c>
       <c r="P85">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
@@ -11439,7 +11439,7 @@
         <v>6.3403600000000004E-2</v>
       </c>
       <c r="H86">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J86">
         <v>4.05063</v>
@@ -11448,7 +11448,7 @@
         <v>7.8757800000000003E-2</v>
       </c>
       <c r="L86">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N86">
         <v>4.05063</v>
@@ -11457,7 +11457,7 @@
         <v>3.4610399999999999E-2</v>
       </c>
       <c r="P86">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
@@ -11480,7 +11480,7 @@
         <v>6.3732300000000006E-2</v>
       </c>
       <c r="H87">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J87">
         <v>3.3418600000000001</v>
@@ -11489,7 +11489,7 @@
         <v>6.2523099999999998E-2</v>
       </c>
       <c r="L87">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N87">
         <v>3.3418600000000001</v>
@@ -11498,7 +11498,7 @@
         <v>1.8189E-2</v>
       </c>
       <c r="P87">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
@@ -11521,7 +11521,7 @@
         <v>5.1645499999999997E-2</v>
       </c>
       <c r="H88">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J88">
         <v>2.9671500000000002</v>
@@ -11530,7 +11530,7 @@
         <v>4.3373299999999997E-2</v>
       </c>
       <c r="L88">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N88">
         <v>2.86313</v>
@@ -11539,7 +11539,7 @@
         <v>1.98195E-2</v>
       </c>
       <c r="P88">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
@@ -11562,7 +11562,7 @@
         <v>6.9807900000000006E-2</v>
       </c>
       <c r="H89">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J89">
         <v>3.2846700000000002</v>
@@ -11571,7 +11571,7 @@
         <v>8.5832599999999995E-2</v>
       </c>
       <c r="L89">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N89">
         <v>3.1802299999999999</v>
@@ -11580,7 +11580,7 @@
         <v>3.3124899999999999E-2</v>
       </c>
       <c r="P89">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
@@ -11603,7 +11603,7 @@
         <v>7.8809000000000004E-2</v>
       </c>
       <c r="H90">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J90">
         <v>3.9322300000000001</v>
@@ -11612,7 +11612,7 @@
         <v>4.0626099999999998E-2</v>
       </c>
       <c r="L90">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N90">
         <v>3.0905999999999998</v>
@@ -11621,7 +11621,7 @@
         <v>4.3538399999999998E-2</v>
       </c>
       <c r="P90">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
@@ -11644,7 +11644,7 @@
         <v>9.987E-2</v>
       </c>
       <c r="H91">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J91">
         <v>3.7942200000000001</v>
@@ -11653,7 +11653,7 @@
         <v>0.102976</v>
       </c>
       <c r="L91">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N91">
         <v>3.0707</v>
@@ -11662,7 +11662,7 @@
         <v>5.2884800000000003E-2</v>
       </c>
       <c r="P91">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.3">
@@ -11685,7 +11685,7 @@
         <v>0.10947900000000001</v>
       </c>
       <c r="H92">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J92">
         <v>3.6806199999999998</v>
@@ -11694,7 +11694,7 @@
         <v>9.9025299999999997E-2</v>
       </c>
       <c r="L92">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N92">
         <v>3.6806199999999998</v>
@@ -11703,7 +11703,7 @@
         <v>4.92497E-2</v>
       </c>
       <c r="P92">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
@@ -11726,7 +11726,7 @@
         <v>9.7989099999999996E-2</v>
       </c>
       <c r="H93">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J93">
         <v>3.72973</v>
@@ -11735,7 +11735,7 @@
         <v>0.114302</v>
       </c>
       <c r="L93">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N93">
         <v>3.01037</v>
@@ -11744,7 +11744,7 @@
         <v>4.385E-2</v>
       </c>
       <c r="P93">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.3">
@@ -11767,7 +11767,7 @@
         <v>1.12984E-3</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J94">
         <v>1.88235</v>
@@ -11776,16 +11776,16 @@
         <v>1.60855E-3</v>
       </c>
       <c r="L94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N94">
         <v>1.88235</v>
       </c>
       <c r="O94">
-        <v>1.4318E-3</v>
+        <v>1.4048400000000001E-3</v>
       </c>
       <c r="P94">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
@@ -11808,7 +11808,7 @@
         <v>0.12563099999999999</v>
       </c>
       <c r="H95">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J95">
         <v>3.7226599999999999</v>
@@ -11817,7 +11817,7 @@
         <v>0.120396</v>
       </c>
       <c r="L95">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N95">
         <v>2.90341</v>
@@ -11826,7 +11826,7 @@
         <v>4.6641799999999997E-2</v>
       </c>
       <c r="P95">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
@@ -11849,7 +11849,7 @@
         <v>0.11991499999999999</v>
       </c>
       <c r="H96">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J96">
         <v>3.58751</v>
@@ -11858,7 +11858,7 @@
         <v>0.13680999999999999</v>
       </c>
       <c r="L96">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N96">
         <v>2.8719399999999999</v>
@@ -11867,7 +11867,7 @@
         <v>6.1544599999999998E-2</v>
       </c>
       <c r="P96">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
@@ -11890,7 +11890,7 @@
         <v>0.102116</v>
       </c>
       <c r="H97">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J97">
         <v>3.5382099999999999</v>
@@ -11899,7 +11899,7 @@
         <v>0.117883</v>
       </c>
       <c r="L97">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N97">
         <v>2.8101500000000001</v>
@@ -11908,7 +11908,7 @@
         <v>8.0027899999999999E-2</v>
       </c>
       <c r="P97">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
@@ -11931,7 +11931,7 @@
         <v>0.16400200000000001</v>
       </c>
       <c r="H98">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J98">
         <v>3.6338499999999998</v>
@@ -11940,7 +11940,7 @@
         <v>6.94221E-2</v>
       </c>
       <c r="L98">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N98">
         <v>2.8855900000000001</v>
@@ -11949,7 +11949,7 @@
         <v>7.7921599999999994E-2</v>
       </c>
       <c r="P98">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
@@ -11972,7 +11972,7 @@
         <v>0.17002600000000001</v>
       </c>
       <c r="H99">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J99">
         <v>3.42523</v>
@@ -11981,7 +11981,7 @@
         <v>0.17636199999999999</v>
       </c>
       <c r="L99">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N99">
         <v>3.42523</v>
@@ -11990,7 +11990,7 @@
         <v>8.9195499999999997E-2</v>
       </c>
       <c r="P99">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -12009,7 +12009,7 @@
   <dimension ref="A1:P99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="N3" sqref="N3:P99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12095,28 +12095,28 @@
         <v>3.3561000000000001</v>
       </c>
       <c r="G3">
-        <v>0.127216</v>
+        <v>0.110705</v>
       </c>
       <c r="H3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J3">
         <v>3.3561000000000001</v>
       </c>
       <c r="K3">
-        <v>0.15115700000000001</v>
+        <v>0.14128499999999999</v>
       </c>
       <c r="L3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N3">
         <v>3.1180300000000001</v>
       </c>
       <c r="O3">
-        <v>0.10742500000000001</v>
+        <v>5.6008000000000002E-2</v>
       </c>
       <c r="P3">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -12136,28 +12136,28 @@
         <v>3.3092700000000002</v>
       </c>
       <c r="G4">
-        <v>0.157279</v>
+        <v>0.16405900000000001</v>
       </c>
       <c r="H4">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J4">
         <v>3.3092700000000002</v>
       </c>
       <c r="K4">
-        <v>0.161773</v>
+        <v>0.16305600000000001</v>
       </c>
       <c r="L4">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N4">
         <v>3.1407400000000001</v>
       </c>
       <c r="O4">
-        <v>0.102941</v>
+        <v>0.140597</v>
       </c>
       <c r="P4">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -12177,28 +12177,28 @@
         <v>3.28633</v>
       </c>
       <c r="G5">
-        <v>8.5678900000000002E-2</v>
+        <v>0.17231399999999999</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J5">
         <v>3.28633</v>
       </c>
       <c r="K5">
-        <v>0.14540600000000001</v>
+        <v>0.14832300000000001</v>
       </c>
       <c r="L5">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N5">
         <v>3.11883</v>
       </c>
       <c r="O5">
-        <v>0.13564000000000001</v>
+        <v>0.143264</v>
       </c>
       <c r="P5">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -12218,28 +12218,28 @@
         <v>3.24404</v>
       </c>
       <c r="G6">
-        <v>6.8917800000000001E-2</v>
+        <v>0.18229100000000001</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J6">
         <v>3.24404</v>
       </c>
       <c r="K6">
-        <v>0.16983599999999999</v>
+        <v>0.18607099999999999</v>
       </c>
       <c r="L6">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N6">
         <v>3.0838399999999999</v>
       </c>
       <c r="O6">
-        <v>0.155221</v>
+        <v>0.10641200000000001</v>
       </c>
       <c r="P6">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -12259,28 +12259,28 @@
         <v>3.2227700000000001</v>
       </c>
       <c r="G7">
-        <v>7.3347700000000002E-2</v>
+        <v>0.14715500000000001</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J7">
         <v>3.2227700000000001</v>
       </c>
       <c r="K7">
-        <v>0.15335699999999999</v>
+        <v>0.19697100000000001</v>
       </c>
       <c r="L7">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N7">
         <v>3.0634700000000001</v>
       </c>
       <c r="O7">
-        <v>0.119405</v>
+        <v>0.15675900000000001</v>
       </c>
       <c r="P7">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -12300,28 +12300,28 @@
         <v>1.2096800000000001</v>
       </c>
       <c r="G8">
-        <v>1.68071E-3</v>
+        <v>2.5092299999999999E-3</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>1.2096800000000001</v>
       </c>
       <c r="K8">
-        <v>1.48014E-3</v>
+        <v>2.1342399999999999E-3</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8">
         <v>1.2096800000000001</v>
       </c>
       <c r="O8">
-        <v>0.41763699999999998</v>
+        <v>2.5438800000000001E-3</v>
       </c>
       <c r="P8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -12341,28 +12341,28 @@
         <v>3.18445</v>
       </c>
       <c r="G9">
-        <v>0.16880600000000001</v>
+        <v>0.18892900000000001</v>
       </c>
       <c r="H9">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J9">
         <v>3.18445</v>
       </c>
       <c r="K9">
-        <v>0.205009</v>
+        <v>0.18018200000000001</v>
       </c>
       <c r="L9">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N9">
         <v>3.0318200000000002</v>
       </c>
       <c r="O9">
-        <v>0.178262</v>
+        <v>0.182365</v>
       </c>
       <c r="P9">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -12382,28 +12382,28 @@
         <v>3.1646399999999999</v>
       </c>
       <c r="G10">
-        <v>0.20274500000000001</v>
+        <v>0.21821599999999999</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J10">
         <v>3.1646399999999999</v>
       </c>
       <c r="K10">
-        <v>0.206848</v>
+        <v>0.19483400000000001</v>
       </c>
       <c r="L10">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N10">
         <v>3.0128300000000001</v>
       </c>
       <c r="O10">
-        <v>0.18806999999999999</v>
+        <v>0.15711700000000001</v>
       </c>
       <c r="P10">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -12423,28 +12423,28 @@
         <v>3.12981</v>
       </c>
       <c r="G11">
-        <v>0.20349500000000001</v>
+        <v>0.23408200000000001</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J11">
         <v>3.12981</v>
       </c>
       <c r="K11">
-        <v>0.22029399999999999</v>
+        <v>0.19815199999999999</v>
       </c>
       <c r="L11">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N11">
         <v>2.9841000000000002</v>
       </c>
       <c r="O11">
-        <v>7.2064299999999998E-2</v>
+        <v>7.20692E-2</v>
       </c>
       <c r="P11">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -12464,28 +12464,28 @@
         <v>3.1118100000000002</v>
       </c>
       <c r="G12">
-        <v>0.24723000000000001</v>
+        <v>0.12939700000000001</v>
       </c>
       <c r="H12">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J12">
         <v>3.1118100000000002</v>
       </c>
       <c r="K12">
-        <v>0.241867</v>
+        <v>0.18411</v>
       </c>
       <c r="L12">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N12">
         <v>2.9668100000000002</v>
       </c>
       <c r="O12">
-        <v>0.206592</v>
+        <v>0.19826099999999999</v>
       </c>
       <c r="P12">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -12505,28 +12505,28 @@
         <v>3.0800299999999998</v>
       </c>
       <c r="G13">
-        <v>0.25337500000000002</v>
+        <v>0.23344100000000001</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J13">
         <v>3.0800299999999998</v>
       </c>
       <c r="K13">
-        <v>0.25638699999999998</v>
+        <v>0.212342</v>
       </c>
       <c r="L13">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N13">
         <v>2.9406400000000001</v>
       </c>
       <c r="O13">
-        <v>0.21518399999999999</v>
+        <v>0.224215</v>
       </c>
       <c r="P13">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -12546,28 +12546,28 @@
         <v>3.0649299999999999</v>
       </c>
       <c r="G14">
-        <v>0.26975900000000003</v>
+        <v>9.7538200000000005E-2</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J14">
         <v>3.0649299999999999</v>
       </c>
       <c r="K14">
-        <v>0.206869</v>
+        <v>0.27183800000000002</v>
       </c>
       <c r="L14">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N14">
         <v>2.9262299999999999</v>
       </c>
       <c r="O14">
-        <v>0.23631099999999999</v>
+        <v>0.22969100000000001</v>
       </c>
       <c r="P14">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -12587,28 +12587,28 @@
         <v>3.0358000000000001</v>
       </c>
       <c r="G15">
-        <v>0.25734400000000002</v>
+        <v>0.26991199999999999</v>
       </c>
       <c r="H15">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J15">
         <v>3.0358000000000001</v>
       </c>
       <c r="K15">
-        <v>0.10380399999999999</v>
+        <v>0.29218</v>
       </c>
       <c r="L15">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N15">
         <v>3.0358000000000001</v>
       </c>
       <c r="O15">
-        <v>0.25195099999999998</v>
+        <v>0.27104200000000001</v>
       </c>
       <c r="P15">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -12628,28 +12628,28 @@
         <v>3.0194299999999998</v>
       </c>
       <c r="G16">
-        <v>0.28278300000000001</v>
+        <v>0.241783</v>
       </c>
       <c r="H16">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J16">
         <v>3.0194299999999998</v>
       </c>
       <c r="K16">
-        <v>0.24387800000000001</v>
+        <v>0.30340499999999998</v>
       </c>
       <c r="L16">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N16">
         <v>3.0194299999999998</v>
       </c>
       <c r="O16">
-        <v>0.30488599999999999</v>
+        <v>0.17743</v>
       </c>
       <c r="P16">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -12669,28 +12669,28 @@
         <v>2.99274</v>
       </c>
       <c r="G17">
-        <v>0.31615100000000002</v>
+        <v>0.31821899999999997</v>
       </c>
       <c r="H17">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J17">
         <v>2.99274</v>
       </c>
       <c r="K17">
-        <v>0.31855299999999998</v>
+        <v>0.323216</v>
       </c>
       <c r="L17">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N17">
         <v>2.99274</v>
       </c>
       <c r="O17">
-        <v>0.29622999999999999</v>
+        <v>0.28573100000000001</v>
       </c>
       <c r="P17">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -12710,28 +12710,28 @@
         <v>2.9773200000000002</v>
       </c>
       <c r="G18">
-        <v>0.30918600000000002</v>
+        <v>0.34145399999999998</v>
       </c>
       <c r="H18">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J18">
         <v>2.9773200000000002</v>
       </c>
       <c r="K18">
-        <v>0.33343299999999998</v>
+        <v>0.268428</v>
       </c>
       <c r="L18">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N18">
         <v>2.9773200000000002</v>
       </c>
       <c r="O18">
-        <v>0.17835100000000001</v>
+        <v>0.33966000000000002</v>
       </c>
       <c r="P18">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -12751,28 +12751,28 @@
         <v>2.0181800000000001</v>
       </c>
       <c r="G19">
-        <v>2.0902899999999999E-3</v>
+        <v>2.3004200000000001E-3</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J19">
         <v>2.0181800000000001</v>
       </c>
       <c r="K19">
-        <v>1.3134900000000001E-3</v>
+        <v>2.5748199999999998E-3</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N19">
         <v>2.0181800000000001</v>
       </c>
       <c r="O19">
-        <v>2.5937099999999999E-3</v>
+        <v>1.60749E-3</v>
       </c>
       <c r="P19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -12792,28 +12792,28 @@
         <v>2.9527999999999999</v>
       </c>
       <c r="G20">
-        <v>0.352439</v>
+        <v>0.32044099999999998</v>
       </c>
       <c r="H20">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J20">
         <v>2.9527999999999999</v>
       </c>
       <c r="K20">
-        <v>0.34160400000000002</v>
+        <v>0.12652099999999999</v>
       </c>
       <c r="L20">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N20">
         <v>2.9527999999999999</v>
       </c>
       <c r="O20">
-        <v>0.35075499999999998</v>
+        <v>0.34526400000000002</v>
       </c>
       <c r="P20">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -12833,28 +12833,28 @@
         <v>2.93824</v>
       </c>
       <c r="G21">
-        <v>0.37287799999999999</v>
+        <v>0.36812400000000001</v>
       </c>
       <c r="H21">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J21">
         <v>2.93824</v>
       </c>
       <c r="K21">
-        <v>0.35556399999999999</v>
+        <v>0.37422899999999998</v>
       </c>
       <c r="L21">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N21">
         <v>2.93824</v>
       </c>
       <c r="O21">
-        <v>0.13212299999999999</v>
+        <v>0.34313300000000002</v>
       </c>
       <c r="P21">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -12874,28 +12874,28 @@
         <v>2.9156599999999999</v>
       </c>
       <c r="G22">
-        <v>0.17061399999999999</v>
+        <v>0.197987</v>
       </c>
       <c r="H22">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J22">
         <v>2.9156599999999999</v>
       </c>
       <c r="K22">
-        <v>0.38428400000000001</v>
+        <v>0.38897900000000002</v>
       </c>
       <c r="L22">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N22">
         <v>2.9156599999999999</v>
       </c>
       <c r="O22">
-        <v>0.327629</v>
+        <v>0.37454700000000002</v>
       </c>
       <c r="P22">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -12915,28 +12915,28 @@
         <v>2.9018799999999998</v>
       </c>
       <c r="G23">
-        <v>0.37767099999999998</v>
+        <v>0.41192200000000001</v>
       </c>
       <c r="H23">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J23">
         <v>2.9018799999999998</v>
       </c>
       <c r="K23">
-        <v>0.40883999999999998</v>
+        <v>0.36907400000000001</v>
       </c>
       <c r="L23">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N23">
         <v>2.9018799999999998</v>
       </c>
       <c r="O23">
-        <v>0.40569100000000002</v>
+        <v>0.40806799999999999</v>
       </c>
       <c r="P23">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -12956,28 +12956,28 @@
         <v>2.88104</v>
       </c>
       <c r="G24">
-        <v>0.39497399999999999</v>
+        <v>0.43022199999999999</v>
       </c>
       <c r="H24">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J24">
         <v>2.88104</v>
       </c>
       <c r="K24">
-        <v>0.42734800000000001</v>
+        <v>0.42948700000000001</v>
       </c>
       <c r="L24">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N24">
         <v>2.88104</v>
       </c>
       <c r="O24">
-        <v>0.431975</v>
+        <v>0.42682799999999999</v>
       </c>
       <c r="P24">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -12997,28 +12997,28 @@
         <v>2.8699300000000001</v>
       </c>
       <c r="G25">
-        <v>0.44420300000000001</v>
+        <v>0.447187</v>
       </c>
       <c r="H25">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J25">
         <v>2.8699300000000001</v>
       </c>
       <c r="K25">
-        <v>0.38965699999999998</v>
+        <v>0.41853800000000002</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N25">
         <v>2.8699300000000001</v>
       </c>
       <c r="O25">
-        <v>0.443465</v>
+        <v>0.25071199999999999</v>
       </c>
       <c r="P25">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -13038,28 +13038,28 @@
         <v>2.8506200000000002</v>
       </c>
       <c r="G26">
-        <v>0.41448200000000002</v>
+        <v>0.41934500000000002</v>
       </c>
       <c r="H26">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J26">
         <v>2.8506200000000002</v>
       </c>
       <c r="K26">
-        <v>0.30868299999999999</v>
+        <v>0.45600200000000002</v>
       </c>
       <c r="L26">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N26">
         <v>2.8506200000000002</v>
       </c>
       <c r="O26">
-        <v>0.47661100000000001</v>
+        <v>0.47788399999999998</v>
       </c>
       <c r="P26">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -13079,28 +13079,28 @@
         <v>2.83813</v>
       </c>
       <c r="G27">
-        <v>0.48206399999999999</v>
+        <v>0.49289300000000003</v>
       </c>
       <c r="H27">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J27">
         <v>2.83813</v>
       </c>
       <c r="K27">
-        <v>0.48508400000000002</v>
+        <v>0.49423800000000001</v>
       </c>
       <c r="L27">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N27">
         <v>2.83813</v>
       </c>
       <c r="O27">
-        <v>0.34679599999999999</v>
+        <v>0.17533599999999999</v>
       </c>
       <c r="P27">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -13120,28 +13120,28 @@
         <v>2.8202400000000001</v>
       </c>
       <c r="G28">
-        <v>0.50570400000000004</v>
+        <v>0.49641600000000002</v>
       </c>
       <c r="H28">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J28">
         <v>2.8202400000000001</v>
       </c>
       <c r="K28">
-        <v>0.51158899999999996</v>
+        <v>0.51144199999999995</v>
       </c>
       <c r="L28">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N28">
         <v>2.8202400000000001</v>
       </c>
       <c r="O28">
-        <v>0.514575</v>
+        <v>0.50759500000000002</v>
       </c>
       <c r="P28">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -13161,28 +13161,28 @@
         <v>2.8083499999999999</v>
       </c>
       <c r="G29">
-        <v>0.48400799999999999</v>
+        <v>0.50719899999999996</v>
       </c>
       <c r="H29">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J29">
         <v>2.8083499999999999</v>
       </c>
       <c r="K29">
-        <v>0.19098300000000001</v>
+        <v>0.54027899999999995</v>
       </c>
       <c r="L29">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N29">
         <v>2.8083499999999999</v>
       </c>
       <c r="O29">
-        <v>0.38938699999999998</v>
+        <v>0.546373</v>
       </c>
       <c r="P29">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -13202,28 +13202,28 @@
         <v>1.9421999999999999</v>
       </c>
       <c r="G30">
-        <v>1.3542199999999999E-3</v>
+        <v>1.2515499999999999E-3</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J30">
         <v>1.9421999999999999</v>
       </c>
       <c r="K30">
-        <v>1.57515E-3</v>
+        <v>2.3202299999999999E-3</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N30">
         <v>1.9421999999999999</v>
       </c>
       <c r="O30">
-        <v>0.29074899999999998</v>
+        <v>1.7308899999999999E-3</v>
       </c>
       <c r="P30">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -13243,28 +13243,28 @@
         <v>2.79176</v>
       </c>
       <c r="G31">
-        <v>0.216696</v>
+        <v>0.56091100000000005</v>
       </c>
       <c r="H31">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J31">
         <v>2.79176</v>
       </c>
       <c r="K31">
-        <v>0.55977500000000002</v>
+        <v>0.56296900000000005</v>
       </c>
       <c r="L31">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N31">
         <v>2.79176</v>
       </c>
       <c r="O31">
-        <v>0.56614200000000003</v>
+        <v>0.520069</v>
       </c>
       <c r="P31">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -13284,28 +13284,28 @@
         <v>2.7804199999999999</v>
       </c>
       <c r="G32">
-        <v>0.58903300000000003</v>
+        <v>0.53996</v>
       </c>
       <c r="H32">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J32">
         <v>2.7804199999999999</v>
       </c>
       <c r="K32">
-        <v>0.58960500000000005</v>
+        <v>0.59551699999999996</v>
       </c>
       <c r="L32">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N32">
         <v>2.7804199999999999</v>
       </c>
       <c r="O32">
-        <v>0.57889800000000002</v>
+        <v>0.589785</v>
       </c>
       <c r="P32">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
@@ -13325,28 +13325,28 @@
         <v>2.7649900000000001</v>
       </c>
       <c r="G33">
-        <v>0.45255299999999998</v>
+        <v>0.225606</v>
       </c>
       <c r="H33">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J33">
         <v>2.7649900000000001</v>
       </c>
       <c r="K33">
-        <v>0.62724500000000005</v>
+        <v>0.50659299999999996</v>
       </c>
       <c r="L33">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N33">
         <v>2.7649900000000001</v>
       </c>
       <c r="O33">
-        <v>0.61436500000000005</v>
+        <v>0.58821999999999997</v>
       </c>
       <c r="P33">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -13366,28 +13366,28 @@
         <v>2.7543899999999999</v>
       </c>
       <c r="G34">
-        <v>0.648011</v>
+        <v>0.64308100000000001</v>
       </c>
       <c r="H34">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J34">
         <v>2.7543899999999999</v>
       </c>
       <c r="K34">
-        <v>0.65186200000000005</v>
+        <v>0.63009199999999999</v>
       </c>
       <c r="L34">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N34">
         <v>2.7543899999999999</v>
       </c>
       <c r="O34">
-        <v>0.656223</v>
+        <v>0.50832500000000003</v>
       </c>
       <c r="P34">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -13407,28 +13407,28 @@
         <v>2.7400199999999999</v>
       </c>
       <c r="G35">
-        <v>0.70222200000000001</v>
+        <v>0.68166400000000005</v>
       </c>
       <c r="H35">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J35">
         <v>2.7400199999999999</v>
       </c>
       <c r="K35">
-        <v>0.66863700000000004</v>
+        <v>0.68084</v>
       </c>
       <c r="L35">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N35">
         <v>2.7400199999999999</v>
       </c>
       <c r="O35">
-        <v>0.623367</v>
+        <v>0.67626299999999995</v>
       </c>
       <c r="P35">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
@@ -13448,28 +13448,28 @@
         <v>2.7309199999999998</v>
       </c>
       <c r="G36">
-        <v>0.70373200000000002</v>
+        <v>0.61875599999999997</v>
       </c>
       <c r="H36">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J36">
         <v>2.7309199999999998</v>
       </c>
       <c r="K36">
-        <v>0.71050999999999997</v>
+        <v>0.26331199999999999</v>
       </c>
       <c r="L36">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N36">
         <v>2.7309199999999998</v>
       </c>
       <c r="O36">
-        <v>0.71406499999999995</v>
+        <v>0.63961199999999996</v>
       </c>
       <c r="P36">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -13489,28 +13489,28 @@
         <v>2.7174999999999998</v>
       </c>
       <c r="G37">
-        <v>0.71122300000000005</v>
+        <v>0.72956500000000002</v>
       </c>
       <c r="H37">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J37">
         <v>2.7174999999999998</v>
       </c>
       <c r="K37">
-        <v>0.73930300000000004</v>
+        <v>0.73493200000000003</v>
       </c>
       <c r="L37">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N37">
         <v>2.7174999999999998</v>
       </c>
       <c r="O37">
-        <v>0.70198700000000003</v>
+        <v>0.74879600000000002</v>
       </c>
       <c r="P37">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -13530,28 +13530,28 @@
         <v>2.7075200000000001</v>
       </c>
       <c r="G38">
-        <v>0.77472200000000002</v>
+        <v>0.51669100000000001</v>
       </c>
       <c r="H38">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J38">
         <v>2.7075200000000001</v>
       </c>
       <c r="K38">
-        <v>0.76024099999999994</v>
+        <v>0.77875799999999995</v>
       </c>
       <c r="L38">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N38">
         <v>2.7075200000000001</v>
       </c>
       <c r="O38">
-        <v>0.77415900000000004</v>
+        <v>0.71123199999999998</v>
       </c>
       <c r="P38">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
@@ -13571,28 +13571,28 @@
         <v>2.6949999999999998</v>
       </c>
       <c r="G39">
-        <v>0.738672</v>
+        <v>0.82374899999999995</v>
       </c>
       <c r="H39">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J39">
         <v>2.6949999999999998</v>
       </c>
       <c r="K39">
-        <v>0.79444800000000004</v>
+        <v>0.80113999999999996</v>
       </c>
       <c r="L39">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N39">
         <v>2.6949999999999998</v>
       </c>
       <c r="O39">
-        <v>0.84575</v>
+        <v>0.79769299999999999</v>
       </c>
       <c r="P39">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
@@ -13612,28 +13612,28 @@
         <v>2.6854300000000002</v>
       </c>
       <c r="G40">
-        <v>0.82220499999999996</v>
+        <v>0.83378699999999994</v>
       </c>
       <c r="H40">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J40">
         <v>2.6854300000000002</v>
       </c>
       <c r="K40">
-        <v>0.83134699999999995</v>
+        <v>0.83213099999999995</v>
       </c>
       <c r="L40">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N40">
         <v>2.6854300000000002</v>
       </c>
       <c r="O40">
-        <v>0.76251400000000003</v>
+        <v>0.90297300000000003</v>
       </c>
       <c r="P40">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
@@ -13653,28 +13653,28 @@
         <v>1.9697</v>
       </c>
       <c r="G41">
-        <v>2.52762E-3</v>
+        <v>1.76066E-3</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J41">
         <v>1.9697</v>
       </c>
       <c r="K41">
-        <v>1.50866E-3</v>
+        <v>2.4675999999999999E-3</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N41">
         <v>1.9697</v>
       </c>
       <c r="O41">
-        <v>2.8086700000000001E-3</v>
+        <v>2.7218899999999998E-3</v>
       </c>
       <c r="P41">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
@@ -13694,28 +13694,28 @@
         <v>2.6737299999999999</v>
       </c>
       <c r="G42">
-        <v>0.86784700000000004</v>
+        <v>0.86868199999999995</v>
       </c>
       <c r="H42">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J42">
         <v>2.6737299999999999</v>
       </c>
       <c r="K42">
-        <v>0.89322000000000001</v>
+        <v>0.84925899999999999</v>
       </c>
       <c r="L42">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N42">
         <v>2.6737299999999999</v>
       </c>
       <c r="O42">
-        <v>0.84481200000000001</v>
+        <v>0.83073799999999998</v>
       </c>
       <c r="P42">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -13735,28 +13735,28 @@
         <v>2.66452</v>
       </c>
       <c r="G43">
-        <v>0.34852499999999997</v>
+        <v>0.91266499999999995</v>
       </c>
       <c r="H43">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J43">
         <v>2.66452</v>
       </c>
       <c r="K43">
-        <v>0.70646500000000001</v>
+        <v>0.92752000000000001</v>
       </c>
       <c r="L43">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N43">
         <v>2.66452</v>
       </c>
       <c r="O43">
-        <v>0.90673300000000001</v>
+        <v>0.91357100000000002</v>
       </c>
       <c r="P43">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
@@ -13776,28 +13776,28 @@
         <v>2.6535799999999998</v>
       </c>
       <c r="G44">
-        <v>0.95454600000000001</v>
+        <v>0.95994900000000005</v>
       </c>
       <c r="H44">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J44">
         <v>2.6535799999999998</v>
       </c>
       <c r="K44">
-        <v>0.95308499999999996</v>
+        <v>0.98033700000000001</v>
       </c>
       <c r="L44">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N44">
         <v>2.6535799999999998</v>
       </c>
       <c r="O44">
-        <v>0.96886300000000003</v>
+        <v>0.98323099999999997</v>
       </c>
       <c r="P44">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
@@ -13817,28 +13817,28 @@
         <v>2.64472</v>
       </c>
       <c r="G45">
-        <v>0.99637600000000004</v>
+        <v>0.89533300000000005</v>
       </c>
       <c r="H45">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J45">
         <v>2.64472</v>
       </c>
       <c r="K45">
-        <v>0.99765499999999996</v>
+        <v>0.98032200000000003</v>
       </c>
       <c r="L45">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N45">
         <v>2.64472</v>
       </c>
       <c r="O45">
-        <v>1.0457399999999999</v>
+        <v>1.00424</v>
       </c>
       <c r="P45">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
@@ -13858,28 +13858,28 @@
         <v>2.6344699999999999</v>
       </c>
       <c r="G46">
-        <v>1.0407200000000001</v>
+        <v>0.91394200000000003</v>
       </c>
       <c r="H46">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J46">
         <v>2.6344699999999999</v>
       </c>
       <c r="K46">
-        <v>1.0140899999999999</v>
+        <v>1.0058800000000001</v>
       </c>
       <c r="L46">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N46">
         <v>2.6344699999999999</v>
       </c>
       <c r="O46">
-        <v>0.94891300000000001</v>
+        <v>1.0189699999999999</v>
       </c>
       <c r="P46">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -13899,28 +13899,28 @@
         <v>2.6271</v>
       </c>
       <c r="G47">
-        <v>1.1088</v>
+        <v>1.06717</v>
       </c>
       <c r="H47">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J47">
         <v>2.6271</v>
       </c>
       <c r="K47">
-        <v>0.582897</v>
+        <v>1.0793299999999999</v>
       </c>
       <c r="L47">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N47">
         <v>2.6271</v>
       </c>
       <c r="O47">
-        <v>0.41001399999999999</v>
+        <v>0.41109600000000002</v>
       </c>
       <c r="P47">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
@@ -13940,28 +13940,28 @@
         <v>2.6174599999999999</v>
       </c>
       <c r="G48">
-        <v>1.09287</v>
+        <v>1.15672</v>
       </c>
       <c r="H48">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J48">
         <v>2.6174599999999999</v>
       </c>
       <c r="K48">
-        <v>0.59803399999999995</v>
+        <v>1.1036900000000001</v>
       </c>
       <c r="L48">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N48">
         <v>2.6174599999999999</v>
       </c>
       <c r="O48">
-        <v>1.1026899999999999</v>
+        <v>1.1302099999999999</v>
       </c>
       <c r="P48">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
@@ -13981,28 +13981,28 @@
         <v>2.60921</v>
       </c>
       <c r="G49">
-        <v>1.1483000000000001</v>
+        <v>0.44184000000000001</v>
       </c>
       <c r="H49">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J49">
         <v>2.60921</v>
       </c>
       <c r="K49">
-        <v>0.57984400000000003</v>
+        <v>1.0760700000000001</v>
       </c>
       <c r="L49">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N49">
         <v>2.60921</v>
       </c>
       <c r="O49">
-        <v>1.1301399999999999</v>
+        <v>1.131</v>
       </c>
       <c r="P49">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
@@ -14022,28 +14022,28 @@
         <v>2.6001599999999998</v>
       </c>
       <c r="G50">
-        <v>1.2206699999999999</v>
+        <v>1.18187</v>
       </c>
       <c r="H50">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J50">
         <v>2.6001599999999998</v>
       </c>
       <c r="K50">
-        <v>0.64456999999999998</v>
+        <v>1.1180000000000001</v>
       </c>
       <c r="L50">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N50">
         <v>2.6001599999999998</v>
       </c>
       <c r="O50">
-        <v>1.0896300000000001</v>
+        <v>1.1815500000000001</v>
       </c>
       <c r="P50">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
@@ -14063,28 +14063,28 @@
         <v>2.59219</v>
       </c>
       <c r="G51">
-        <v>0.99516899999999997</v>
+        <v>1.2313400000000001</v>
       </c>
       <c r="H51">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J51">
         <v>2.59219</v>
       </c>
       <c r="K51">
-        <v>0.48273899999999997</v>
+        <v>1.22702</v>
       </c>
       <c r="L51">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N51">
         <v>2.59219</v>
       </c>
       <c r="O51">
-        <v>1.1745000000000001</v>
+        <v>1.2440100000000001</v>
       </c>
       <c r="P51">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
@@ -14104,28 +14104,28 @@
         <v>1.91489</v>
       </c>
       <c r="G52">
-        <v>1.9172099999999999E-3</v>
+        <v>2.5857499999999999E-3</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J52">
         <v>1.91489</v>
       </c>
       <c r="K52">
-        <v>1.3364200000000001E-3</v>
+        <v>2.81854E-3</v>
       </c>
       <c r="L52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N52">
         <v>1.91489</v>
       </c>
       <c r="O52">
-        <v>0.28369100000000003</v>
+        <v>2.6190499999999999E-3</v>
       </c>
       <c r="P52">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
@@ -14145,28 +14145,28 @@
         <v>2.5836899999999998</v>
       </c>
       <c r="G53">
-        <v>1.2769999999999999</v>
+        <v>1.2650300000000001</v>
       </c>
       <c r="H53">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J53">
         <v>2.5836899999999998</v>
       </c>
       <c r="K53">
-        <v>1.28833</v>
+        <v>1.3591500000000001</v>
       </c>
       <c r="L53">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N53">
         <v>2.5836899999999998</v>
       </c>
       <c r="O53">
-        <v>1.3079700000000001</v>
+        <v>1.26156</v>
       </c>
       <c r="P53">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
@@ -14186,28 +14186,28 @@
         <v>2.57599</v>
       </c>
       <c r="G54">
-        <v>1.22641</v>
+        <v>1.28678</v>
       </c>
       <c r="H54">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J54">
         <v>2.57599</v>
       </c>
       <c r="K54">
-        <v>1.2976300000000001</v>
+        <v>0.51671599999999995</v>
       </c>
       <c r="L54">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N54">
         <v>2.57599</v>
       </c>
       <c r="O54">
-        <v>1.3229500000000001</v>
+        <v>1.3188599999999999</v>
       </c>
       <c r="P54">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
@@ -14227,28 +14227,28 @@
         <v>2.5680000000000001</v>
       </c>
       <c r="G55">
-        <v>1.2341</v>
+        <v>1.3543799999999999</v>
       </c>
       <c r="H55">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J55">
         <v>2.5680000000000001</v>
       </c>
       <c r="K55">
-        <v>1.3601799999999999</v>
+        <v>1.1552899999999999</v>
       </c>
       <c r="L55">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N55">
         <v>2.5680000000000001</v>
       </c>
       <c r="O55">
-        <v>1.2343299999999999</v>
+        <v>1.2973399999999999</v>
       </c>
       <c r="P55">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
@@ -14268,28 +14268,28 @@
         <v>2.5606800000000001</v>
       </c>
       <c r="G56">
-        <v>1.4151</v>
+        <v>1.3562799999999999</v>
       </c>
       <c r="H56">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J56">
         <v>2.5606800000000001</v>
       </c>
       <c r="K56">
-        <v>1.4172400000000001</v>
+        <v>0.76567600000000002</v>
       </c>
       <c r="L56">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N56">
         <v>2.5606800000000001</v>
       </c>
       <c r="O56">
-        <v>0.57974700000000001</v>
+        <v>1.1855599999999999</v>
       </c>
       <c r="P56">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
@@ -14309,28 +14309,28 @@
         <v>2.5531600000000001</v>
       </c>
       <c r="G57">
-        <v>1.3575999999999999</v>
+        <v>1.4681599999999999</v>
       </c>
       <c r="H57">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J57">
         <v>2.5531600000000001</v>
       </c>
       <c r="K57">
-        <v>1.4485399999999999</v>
+        <v>0.73385199999999995</v>
       </c>
       <c r="L57">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N57">
         <v>2.5531600000000001</v>
       </c>
       <c r="O57">
-        <v>1.4122300000000001</v>
+        <v>1.28783</v>
       </c>
       <c r="P57">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
@@ -14350,28 +14350,28 @@
         <v>2.7678799999999999</v>
       </c>
       <c r="G58">
-        <v>1.6754500000000001</v>
+        <v>1.4678</v>
       </c>
       <c r="H58">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J58">
         <v>2.7678799999999999</v>
       </c>
       <c r="K58">
-        <v>1.6312500000000001</v>
+        <v>1.5100199999999999</v>
       </c>
       <c r="L58">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N58">
         <v>2.7678799999999999</v>
       </c>
       <c r="O58">
-        <v>1.67655</v>
+        <v>1.5823400000000001</v>
       </c>
       <c r="P58">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
@@ -14391,28 +14391,28 @@
         <v>2.3164400000000001</v>
       </c>
       <c r="G59">
-        <v>1.6653499999999999E-3</v>
+        <v>2.80233E-3</v>
       </c>
       <c r="H59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J59">
         <v>2.3371300000000002</v>
       </c>
       <c r="K59">
-        <v>1.4130799999999999E-3</v>
+        <v>2.3694499999999999E-3</v>
       </c>
       <c r="L59">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N59">
         <v>2.3164400000000001</v>
       </c>
       <c r="O59">
-        <v>1.65672E-3</v>
+        <v>1.8863E-3</v>
       </c>
       <c r="P59">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
@@ -14432,28 +14432,28 @@
         <v>2.58013</v>
       </c>
       <c r="G60">
-        <v>3.08925E-3</v>
+        <v>1.7843100000000001E-3</v>
       </c>
       <c r="H60">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J60">
         <v>2.58013</v>
       </c>
       <c r="K60">
-        <v>3.1622999999999998E-3</v>
+        <v>1.0181400000000001E-3</v>
       </c>
       <c r="L60">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N60">
         <v>2.4816500000000001</v>
       </c>
       <c r="O60">
-        <v>0.321488</v>
+        <v>2.2969499999999999E-3</v>
       </c>
       <c r="P60">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
@@ -14473,28 +14473,28 @@
         <v>2.47478</v>
       </c>
       <c r="G61">
-        <v>1.6368699999999999E-3</v>
+        <v>3.1244599999999999E-3</v>
       </c>
       <c r="H61">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J61">
         <v>2.47478</v>
       </c>
       <c r="K61">
-        <v>2.9218199999999999E-3</v>
+        <v>2.9771400000000001E-3</v>
       </c>
       <c r="L61">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N61">
         <v>2.3323399999999999</v>
       </c>
       <c r="O61">
-        <v>0.38717299999999999</v>
+        <v>2.2281100000000002E-3</v>
       </c>
       <c r="P61">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
@@ -14514,28 +14514,28 @@
         <v>2.9354800000000001</v>
       </c>
       <c r="G62">
-        <v>1.9321900000000001E-3</v>
+        <v>3.1721399999999999E-3</v>
       </c>
       <c r="H62">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J62">
         <v>2.9354800000000001</v>
       </c>
       <c r="K62">
-        <v>1.61754E-3</v>
+        <v>1.7967599999999999E-3</v>
       </c>
       <c r="L62">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N62">
         <v>2.9354800000000001</v>
       </c>
       <c r="O62">
-        <v>0.71229600000000004</v>
+        <v>2.9552699999999999E-3</v>
       </c>
       <c r="P62">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
@@ -14555,28 +14555,28 @@
         <v>3.7048000000000001</v>
       </c>
       <c r="G63">
-        <v>2.7913199999999999E-3</v>
+        <v>3.0166500000000001E-3</v>
       </c>
       <c r="H63">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J63">
         <v>4.0885600000000002</v>
       </c>
       <c r="K63">
-        <v>2.0887499999999999E-3</v>
+        <v>2.1277900000000001E-3</v>
       </c>
       <c r="L63">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N63">
         <v>3.7048000000000001</v>
       </c>
       <c r="O63">
-        <v>3.56858E-3</v>
+        <v>3.2855200000000001E-3</v>
       </c>
       <c r="P63">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
@@ -14596,28 +14596,28 @@
         <v>5.0553999999999997</v>
       </c>
       <c r="G64">
-        <v>3.6448000000000001E-3</v>
+        <v>2.5900099999999998E-3</v>
       </c>
       <c r="H64">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J64">
         <v>5.4986100000000002</v>
       </c>
       <c r="K64">
-        <v>2.7817499999999999E-3</v>
+        <v>3.60918E-3</v>
       </c>
       <c r="L64">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N64">
         <v>4.6675899999999997</v>
       </c>
       <c r="O64">
-        <v>0.30006100000000002</v>
+        <v>2.5343399999999999E-3</v>
       </c>
       <c r="P64">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
@@ -14637,28 +14637,28 @@
         <v>5.7198599999999997</v>
       </c>
       <c r="G65">
-        <v>4.1789899999999996E-3</v>
+        <v>4.2881300000000002E-3</v>
       </c>
       <c r="H65">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J65">
         <v>5.8280099999999999</v>
       </c>
       <c r="K65">
-        <v>3.22178E-3</v>
+        <v>4.9089800000000003E-3</v>
       </c>
       <c r="L65">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N65">
         <v>5.4554999999999998</v>
       </c>
       <c r="O65">
-        <v>0.49313099999999999</v>
+        <v>3.57494E-3</v>
       </c>
       <c r="P65">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
@@ -14678,28 +14678,28 @@
         <v>10.2517</v>
       </c>
       <c r="G66">
-        <v>2.8024399999999998E-3</v>
+        <v>3.6794200000000001E-3</v>
       </c>
       <c r="H66">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J66">
         <v>10.453799999999999</v>
       </c>
       <c r="K66">
-        <v>3.1574200000000002E-3</v>
+        <v>3.4912099999999998E-3</v>
       </c>
       <c r="L66">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N66">
         <v>9.7800499999999992</v>
       </c>
       <c r="O66">
-        <v>0.47087499999999999</v>
+        <v>3.2734999999999999E-3</v>
       </c>
       <c r="P66">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
@@ -14719,28 +14719,28 @@
         <v>10.7738</v>
       </c>
       <c r="G67">
-        <v>2.8959699999999999E-3</v>
+        <v>3.0904499999999998E-3</v>
       </c>
       <c r="H67">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J67">
         <v>10.9582</v>
       </c>
       <c r="K67">
-        <v>4.2082899999999999E-3</v>
+        <v>4.4273400000000001E-3</v>
       </c>
       <c r="L67">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N67">
         <v>10.317600000000001</v>
       </c>
       <c r="O67">
-        <v>0.47253699999999998</v>
+        <v>3.2096899999999999E-3</v>
       </c>
       <c r="P67">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
@@ -14760,28 +14760,28 @@
         <v>5.0008999999999997</v>
       </c>
       <c r="G68">
-        <v>3.5256200000000001E-3</v>
+        <v>3.3284899999999999E-3</v>
       </c>
       <c r="H68">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J68">
         <v>6.8966099999999999</v>
       </c>
       <c r="K68">
-        <v>4.6396199999999997E-3</v>
+        <v>5.5596400000000002E-3</v>
       </c>
       <c r="L68">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N68">
         <v>5.0008999999999997</v>
       </c>
       <c r="O68">
-        <v>0.43396899999999999</v>
+        <v>1.8302800000000001E-3</v>
       </c>
       <c r="P68">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
@@ -14801,28 +14801,28 @@
         <v>4.8319599999999996</v>
       </c>
       <c r="G69">
-        <v>3.4869699999999998E-3</v>
+        <v>3.86806E-3</v>
       </c>
       <c r="H69">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J69">
         <v>5.7281599999999999</v>
       </c>
       <c r="K69">
-        <v>4.8746500000000003E-3</v>
+        <v>5.35171E-3</v>
       </c>
       <c r="L69">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N69">
         <v>4.8319599999999996</v>
       </c>
       <c r="O69">
-        <v>0.40250999999999998</v>
+        <v>3.10166E-3</v>
       </c>
       <c r="P69">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
@@ -14842,28 +14842,28 @@
         <v>6.0266099999999998</v>
       </c>
       <c r="G70">
-        <v>4.5702700000000004E-3</v>
+        <v>5.0077200000000002E-3</v>
       </c>
       <c r="H70">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J70">
         <v>6.8248300000000004</v>
       </c>
       <c r="K70">
-        <v>8.8024799999999997E-3</v>
+        <v>5.6257800000000004E-3</v>
       </c>
       <c r="L70">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N70">
         <v>6.0266099999999998</v>
       </c>
       <c r="O70">
-        <v>5.7106800000000001E-3</v>
+        <v>4.0609399999999999E-3</v>
       </c>
       <c r="P70">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
@@ -14883,28 +14883,28 @@
         <v>4.5368199999999996</v>
       </c>
       <c r="G71">
-        <v>3.7351099999999998E-3</v>
+        <v>6.7279599999999998E-3</v>
       </c>
       <c r="H71">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J71">
         <v>6.0530400000000002</v>
       </c>
       <c r="K71">
-        <v>6.29854E-3</v>
+        <v>1.03424E-2</v>
       </c>
       <c r="L71">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N71">
         <v>4.3591300000000004</v>
       </c>
       <c r="O71">
-        <v>5.9561500000000003E-3</v>
+        <v>6.4091599999999997E-3</v>
       </c>
       <c r="P71">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
@@ -14924,28 +14924,28 @@
         <v>5.0176999999999996</v>
       </c>
       <c r="G72">
-        <v>8.6658499999999992E-3</v>
+        <v>5.7728800000000002E-3</v>
       </c>
       <c r="H72">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J72">
         <v>5.7307100000000002</v>
       </c>
       <c r="K72">
-        <v>1.30337E-2</v>
+        <v>7.0786800000000004E-3</v>
       </c>
       <c r="L72">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N72">
         <v>4.8580699999999997</v>
       </c>
       <c r="O72">
-        <v>5.0359100000000002E-3</v>
+        <v>4.4235000000000003E-3</v>
       </c>
       <c r="P72">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
@@ -14965,28 +14965,28 @@
         <v>4.8921799999999998</v>
       </c>
       <c r="G73">
-        <v>6.5879199999999997E-3</v>
+        <v>4.70631E-3</v>
       </c>
       <c r="H73">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J73">
         <v>5.6459299999999999</v>
       </c>
       <c r="K73">
-        <v>1.3838899999999999E-2</v>
+        <v>7.5648900000000003E-3</v>
       </c>
       <c r="L73">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N73">
         <v>4.7337499999999997</v>
       </c>
       <c r="O73">
-        <v>0.46627099999999999</v>
+        <v>4.6071699999999998E-3</v>
       </c>
       <c r="P73">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
@@ -15006,28 +15006,28 @@
         <v>4.7047600000000003</v>
       </c>
       <c r="G74">
-        <v>8.9238900000000003E-3</v>
+        <v>7.6319200000000004E-3</v>
       </c>
       <c r="H74">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J74">
         <v>5.31351</v>
       </c>
       <c r="K74">
-        <v>9.0931799999999993E-3</v>
+        <v>9.1678799999999998E-3</v>
       </c>
       <c r="L74">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N74">
         <v>4.7047600000000003</v>
       </c>
       <c r="O74">
-        <v>0.479877</v>
+        <v>5.4194600000000001E-3</v>
       </c>
       <c r="P74">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
@@ -15047,28 +15047,28 @@
         <v>4.7990199999999996</v>
       </c>
       <c r="G75">
-        <v>1.50817E-2</v>
+        <v>9.1928500000000007E-3</v>
       </c>
       <c r="H75">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J75">
         <v>5.2511599999999996</v>
       </c>
       <c r="K75">
-        <v>1.30895E-2</v>
+        <v>1.7286699999999999E-2</v>
       </c>
       <c r="L75">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N75">
         <v>4.6562400000000004</v>
       </c>
       <c r="O75">
-        <v>0.26348899999999997</v>
+        <v>8.8739600000000002E-3</v>
       </c>
       <c r="P75">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
@@ -15088,28 +15088,28 @@
         <v>4.6133699999999997</v>
       </c>
       <c r="G76">
-        <v>1.19919E-2</v>
+        <v>1.6176599999999999E-2</v>
       </c>
       <c r="H76">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J76">
         <v>5.0258599999999998</v>
       </c>
       <c r="K76">
-        <v>2.0048900000000001E-2</v>
+        <v>1.9185500000000001E-2</v>
       </c>
       <c r="L76">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N76">
         <v>4.4831099999999999</v>
       </c>
       <c r="O76">
-        <v>6.5400099999999997E-3</v>
+        <v>6.4968200000000004E-3</v>
       </c>
       <c r="P76">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
@@ -15129,28 +15129,28 @@
         <v>4.5687100000000003</v>
       </c>
       <c r="G77">
-        <v>1.78059E-2</v>
+        <v>1.02982E-2</v>
       </c>
       <c r="H77">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J77">
         <v>4.9716399999999998</v>
       </c>
       <c r="K77">
-        <v>8.7111900000000006E-3</v>
+        <v>2.25484E-2</v>
       </c>
       <c r="L77">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N77">
         <v>4.4388399999999999</v>
       </c>
       <c r="O77">
-        <v>0.71123800000000004</v>
+        <v>1.0837400000000001E-2</v>
       </c>
       <c r="P77">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
@@ -15170,28 +15170,28 @@
         <v>4.3662799999999997</v>
       </c>
       <c r="G78">
-        <v>1.9541099999999999E-2</v>
+        <v>1.6431999999999999E-2</v>
       </c>
       <c r="H78">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J78">
         <v>4.7362500000000001</v>
       </c>
       <c r="K78">
-        <v>1.5988700000000002E-2</v>
+        <v>1.6763500000000001E-2</v>
       </c>
       <c r="L78">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N78">
         <v>4.2470299999999996</v>
       </c>
       <c r="O78">
-        <v>5.7394300000000002E-3</v>
+        <v>1.43857E-2</v>
       </c>
       <c r="P78">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
@@ -15211,28 +15211,28 @@
         <v>4.3478300000000001</v>
       </c>
       <c r="G79">
-        <v>2.4683400000000001E-2</v>
+        <v>1.37162E-2</v>
       </c>
       <c r="H79">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J79">
         <v>4.7103799999999998</v>
       </c>
       <c r="K79">
-        <v>2.2007200000000001E-2</v>
+        <v>1.5842599999999998E-2</v>
       </c>
       <c r="L79">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N79">
         <v>4.2317</v>
       </c>
       <c r="O79">
-        <v>8.4395500000000005E-3</v>
+        <v>1.0519799999999999E-2</v>
       </c>
       <c r="P79">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
@@ -15252,28 +15252,28 @@
         <v>4.5438599999999996</v>
       </c>
       <c r="G80">
-        <v>2.7473999999999998E-2</v>
+        <v>2.6847599999999999E-2</v>
       </c>
       <c r="H80">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J80">
         <v>4.5438599999999996</v>
       </c>
       <c r="K80">
-        <v>2.6768699999999999E-2</v>
+        <v>2.9068699999999999E-2</v>
       </c>
       <c r="L80">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N80">
         <v>4.1017700000000001</v>
       </c>
       <c r="O80">
-        <v>1.1132E-2</v>
+        <v>1.7197299999999999E-2</v>
       </c>
       <c r="P80">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
@@ -15293,28 +15293,28 @@
         <v>4.4762399999999998</v>
       </c>
       <c r="G81">
-        <v>2.9505699999999999E-2</v>
+        <v>3.6689699999999999E-2</v>
       </c>
       <c r="H81">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J81">
         <v>4.4762399999999998</v>
       </c>
       <c r="K81">
-        <v>2.46386E-2</v>
+        <v>1.34313E-2</v>
       </c>
       <c r="L81">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N81">
         <v>4.0393600000000003</v>
       </c>
       <c r="O81">
-        <v>2.0459600000000001E-2</v>
+        <v>1.91354E-2</v>
       </c>
       <c r="P81">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
@@ -15334,28 +15334,28 @@
         <v>4.33385</v>
       </c>
       <c r="G82">
-        <v>3.5222799999999999E-2</v>
+        <v>4.1010999999999999E-2</v>
       </c>
       <c r="H82">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J82">
         <v>4.33385</v>
       </c>
       <c r="K82">
-        <v>2.4476299999999999E-2</v>
+        <v>3.6202999999999999E-2</v>
       </c>
       <c r="L82">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N82">
         <v>3.9283299999999999</v>
       </c>
       <c r="O82">
-        <v>1.7631899999999999E-2</v>
+        <v>2.47567E-2</v>
       </c>
       <c r="P82">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
@@ -15375,28 +15375,28 @@
         <v>4.2774900000000002</v>
       </c>
       <c r="G83">
-        <v>3.7413599999999998E-2</v>
+        <v>4.21792E-2</v>
       </c>
       <c r="H83">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J83">
         <v>4.2774900000000002</v>
       </c>
       <c r="K83">
-        <v>3.9576300000000002E-2</v>
+        <v>4.2193700000000001E-2</v>
       </c>
       <c r="L83">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N83">
         <v>3.87588</v>
       </c>
       <c r="O83">
-        <v>1.45045E-2</v>
+        <v>2.1294400000000002E-2</v>
       </c>
       <c r="P83">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
@@ -15416,28 +15416,28 @@
         <v>4.1545899999999998</v>
       </c>
       <c r="G84">
-        <v>4.8507500000000002E-2</v>
+        <v>4.6907900000000002E-2</v>
       </c>
       <c r="H84">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J84">
         <v>4.1545899999999998</v>
       </c>
       <c r="K84">
-        <v>4.86153E-2</v>
+        <v>2.9469499999999999E-2</v>
       </c>
       <c r="L84">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N84">
         <v>3.7801399999999998</v>
       </c>
       <c r="O84">
-        <v>3.0765799999999999E-2</v>
+        <v>1.18307E-2</v>
       </c>
       <c r="P84">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
@@ -15457,28 +15457,28 @@
         <v>4.1069300000000002</v>
       </c>
       <c r="G85">
-        <v>4.51697E-2</v>
+        <v>2.55307E-2</v>
       </c>
       <c r="H85">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J85">
         <v>4.1069300000000002</v>
       </c>
       <c r="K85">
-        <v>3.85794E-2</v>
+        <v>3.6197399999999998E-2</v>
       </c>
       <c r="L85">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N85">
         <v>3.7354400000000001</v>
       </c>
       <c r="O85">
-        <v>3.3621900000000003E-2</v>
+        <v>3.2837199999999997E-2</v>
       </c>
       <c r="P85">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
@@ -15498,28 +15498,28 @@
         <v>3.9999500000000001</v>
       </c>
       <c r="G86">
-        <v>3.8850900000000001E-2</v>
+        <v>2.9772099999999999E-2</v>
       </c>
       <c r="H86">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J86">
         <v>3.9999500000000001</v>
       </c>
       <c r="K86">
-        <v>4.1325199999999999E-2</v>
+        <v>4.2954399999999997E-2</v>
       </c>
       <c r="L86">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N86">
         <v>3.6522100000000002</v>
       </c>
       <c r="O86">
-        <v>1.7621999999999999E-2</v>
+        <v>3.6824299999999997E-2</v>
       </c>
       <c r="P86">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
@@ -15539,28 +15539,28 @@
         <v>3.9583300000000001</v>
       </c>
       <c r="G87">
-        <v>5.11408E-2</v>
+        <v>6.3357200000000002E-2</v>
       </c>
       <c r="H87">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J87">
         <v>3.9583300000000001</v>
       </c>
       <c r="K87">
-        <v>6.26443E-2</v>
+        <v>5.2503500000000002E-2</v>
       </c>
       <c r="L87">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N87">
         <v>3.6129099999999998</v>
       </c>
       <c r="O87">
-        <v>2.0361500000000001E-2</v>
+        <v>3.9409300000000001E-2</v>
       </c>
       <c r="P87">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
@@ -15580,28 +15580,28 @@
         <v>3.8645999999999998</v>
       </c>
       <c r="G88">
-        <v>5.1618900000000002E-2</v>
+        <v>6.3767000000000004E-2</v>
       </c>
       <c r="H88">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J88">
         <v>3.8645999999999998</v>
       </c>
       <c r="K88">
-        <v>6.4103900000000005E-2</v>
+        <v>5.23898E-2</v>
       </c>
       <c r="L88">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N88">
         <v>3.5400900000000002</v>
       </c>
       <c r="O88">
-        <v>2.0194500000000001E-2</v>
+        <v>2.1683299999999999E-2</v>
       </c>
       <c r="P88">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
@@ -15621,28 +15621,28 @@
         <v>3.8304</v>
       </c>
       <c r="G89">
-        <v>6.3813300000000003E-2</v>
+        <v>7.1262900000000004E-2</v>
       </c>
       <c r="H89">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J89">
         <v>3.8304</v>
       </c>
       <c r="K89">
-        <v>3.7650000000000003E-2</v>
+        <v>6.0797799999999999E-2</v>
       </c>
       <c r="L89">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N89">
         <v>3.5097299999999998</v>
       </c>
       <c r="O89">
-        <v>2.8625600000000001E-2</v>
+        <v>2.1797500000000001E-2</v>
       </c>
       <c r="P89">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
@@ -15662,28 +15662,28 @@
         <v>3.7478199999999999</v>
       </c>
       <c r="G90">
-        <v>4.1316899999999997E-2</v>
+        <v>7.4693700000000002E-2</v>
       </c>
       <c r="H90">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J90">
         <v>3.7478199999999999</v>
       </c>
       <c r="K90">
-        <v>8.0695100000000006E-2</v>
+        <v>8.1350800000000001E-2</v>
       </c>
       <c r="L90">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N90">
         <v>3.4455499999999999</v>
       </c>
       <c r="O90">
-        <v>5.5771800000000003E-2</v>
+        <v>6.0492999999999998E-2</v>
       </c>
       <c r="P90">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
@@ -15703,28 +15703,28 @@
         <v>3.71251</v>
       </c>
       <c r="G91">
-        <v>3.1844600000000001E-2</v>
+        <v>5.1153999999999998E-2</v>
       </c>
       <c r="H91">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J91">
         <v>3.71251</v>
       </c>
       <c r="K91">
-        <v>3.0878699999999999E-2</v>
+        <v>7.0053400000000002E-2</v>
       </c>
       <c r="L91">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N91">
         <v>3.4120300000000001</v>
       </c>
       <c r="O91">
-        <v>4.9231200000000003E-2</v>
+        <v>3.26626E-2</v>
       </c>
       <c r="P91">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.3">
@@ -15744,28 +15744,28 @@
         <v>3.63951</v>
       </c>
       <c r="G92">
-        <v>4.8382799999999997E-2</v>
+        <v>9.7046599999999997E-2</v>
       </c>
       <c r="H92">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J92">
         <v>3.63951</v>
       </c>
       <c r="K92">
-        <v>8.8525000000000006E-2</v>
+        <v>7.8032799999999999E-2</v>
       </c>
       <c r="L92">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N92">
         <v>3.3554200000000001</v>
       </c>
       <c r="O92">
-        <v>5.9580399999999999E-2</v>
+        <v>6.6665100000000005E-2</v>
       </c>
       <c r="P92">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
@@ -15785,28 +15785,28 @@
         <v>3.6074600000000001</v>
       </c>
       <c r="G93">
-        <v>9.9950200000000003E-2</v>
+        <v>3.6452100000000001E-2</v>
       </c>
       <c r="H93">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J93">
         <v>3.6074600000000001</v>
       </c>
       <c r="K93">
-        <v>6.7797499999999997E-2</v>
+        <v>8.5025100000000006E-2</v>
       </c>
       <c r="L93">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N93">
         <v>3.3249399999999998</v>
       </c>
       <c r="O93">
-        <v>7.4507000000000004E-2</v>
+        <v>7.5197299999999995E-2</v>
       </c>
       <c r="P93">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.3">
@@ -15826,28 +15826,28 @@
         <v>1.1764699999999999</v>
       </c>
       <c r="G94">
-        <v>2.1023600000000002E-3</v>
+        <v>2.3284400000000002E-3</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94">
         <v>1.1764699999999999</v>
       </c>
       <c r="K94">
-        <v>2.39435E-3</v>
+        <v>1.5102900000000001E-3</v>
       </c>
       <c r="L94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N94">
         <v>1.1764699999999999</v>
       </c>
       <c r="O94">
-        <v>0.285194</v>
+        <v>2.0443599999999998E-3</v>
       </c>
       <c r="P94">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
@@ -15867,28 +15867,28 @@
         <v>3.5426099999999998</v>
       </c>
       <c r="G95">
-        <v>0.10728699999999999</v>
+        <v>9.2975000000000002E-2</v>
       </c>
       <c r="H95">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J95">
         <v>3.5426099999999998</v>
       </c>
       <c r="K95">
-        <v>0.106572</v>
+        <v>0.107437</v>
       </c>
       <c r="L95">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N95">
         <v>3.2747700000000002</v>
       </c>
       <c r="O95">
-        <v>7.4437299999999998E-2</v>
+        <v>8.0061099999999996E-2</v>
       </c>
       <c r="P95">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
@@ -15908,28 +15908,28 @@
         <v>3.5133800000000002</v>
       </c>
       <c r="G96">
-        <v>0.116117</v>
+        <v>9.0158100000000005E-2</v>
       </c>
       <c r="H96">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J96">
         <v>3.5133800000000002</v>
       </c>
       <c r="K96">
-        <v>9.9816799999999997E-2</v>
+        <v>5.7752100000000001E-2</v>
       </c>
       <c r="L96">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N96">
         <v>3.2469199999999998</v>
       </c>
       <c r="O96">
-        <v>8.1003500000000006E-2</v>
+        <v>7.5953099999999996E-2</v>
       </c>
       <c r="P96">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
@@ -15949,28 +15949,28 @@
         <v>3.4554999999999998</v>
       </c>
       <c r="G97">
-        <v>0.12554699999999999</v>
+        <v>0.123129</v>
       </c>
       <c r="H97">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J97">
         <v>3.4554999999999998</v>
       </c>
       <c r="K97">
-        <v>7.0080000000000003E-2</v>
+        <v>0.126307</v>
       </c>
       <c r="L97">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N97">
         <v>3.2022599999999999</v>
       </c>
       <c r="O97">
-        <v>5.5147300000000003E-2</v>
+        <v>9.1875999999999999E-2</v>
       </c>
       <c r="P97">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
@@ -15990,28 +15990,28 @@
         <v>3.4287100000000001</v>
       </c>
       <c r="G98">
-        <v>0.134741</v>
+        <v>0.13295199999999999</v>
       </c>
       <c r="H98">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J98">
         <v>3.4287100000000001</v>
       </c>
       <c r="K98">
-        <v>0.132434</v>
+        <v>4.7866199999999998E-2</v>
       </c>
       <c r="L98">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N98">
         <v>3.1766899999999998</v>
       </c>
       <c r="O98">
-        <v>8.7513199999999999E-2</v>
+        <v>4.7410599999999997E-2</v>
       </c>
       <c r="P98">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
@@ -16031,28 +16031,28 @@
         <v>3.3768400000000001</v>
       </c>
       <c r="G99">
-        <v>0.13136</v>
+        <v>0.1258</v>
       </c>
       <c r="H99">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J99">
         <v>3.3768400000000001</v>
       </c>
       <c r="K99">
-        <v>7.0413299999999998E-2</v>
+        <v>0.12361800000000001</v>
       </c>
       <c r="L99">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N99">
         <v>3.1367699999999998</v>
       </c>
       <c r="O99">
-        <v>9.2043799999999995E-2</v>
+        <v>8.1272200000000003E-2</v>
       </c>
       <c r="P99">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -16070,8 +16070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:P99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16157,28 +16157,28 @@
         <v>3.3561000000000001</v>
       </c>
       <c r="G3">
-        <v>5.4358400000000001E-2</v>
+        <v>0.15051899999999999</v>
       </c>
       <c r="H3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J3">
         <v>3.3561000000000001</v>
       </c>
       <c r="K3">
-        <v>0.15217900000000001</v>
+        <v>0.141981</v>
       </c>
       <c r="L3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N3">
         <v>3.1180300000000001</v>
       </c>
       <c r="O3">
-        <v>8.9120500000000005E-2</v>
+        <v>0.11233899999999999</v>
       </c>
       <c r="P3">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -16198,28 +16198,28 @@
         <v>3.3092700000000002</v>
       </c>
       <c r="G4">
-        <v>0.13955999999999999</v>
+        <v>0.16519</v>
       </c>
       <c r="H4">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J4">
         <v>3.3092700000000002</v>
       </c>
       <c r="K4">
-        <v>0.132603</v>
+        <v>8.1788100000000002E-2</v>
       </c>
       <c r="L4">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N4">
         <v>3.1407400000000001</v>
       </c>
       <c r="O4">
-        <v>0.12947500000000001</v>
+        <v>0.141044</v>
       </c>
       <c r="P4">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -16239,28 +16239,28 @@
         <v>3.28633</v>
       </c>
       <c r="G5">
-        <v>0.153919</v>
+        <v>0.15995799999999999</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J5">
         <v>3.28633</v>
       </c>
       <c r="K5">
-        <v>0.16758600000000001</v>
+        <v>0.15043999999999999</v>
       </c>
       <c r="L5">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N5">
         <v>3.11883</v>
       </c>
       <c r="O5">
-        <v>7.0522000000000001E-2</v>
+        <v>0.12788099999999999</v>
       </c>
       <c r="P5">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -16280,28 +16280,28 @@
         <v>3.24404</v>
       </c>
       <c r="G6">
-        <v>0.18216299999999999</v>
+        <v>0.16919699999999999</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J6">
         <v>3.24404</v>
       </c>
       <c r="K6">
-        <v>9.2379600000000006E-2</v>
+        <v>0.15512100000000001</v>
       </c>
       <c r="L6">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N6">
         <v>3.0838399999999999</v>
       </c>
       <c r="O6">
-        <v>8.04927E-2</v>
+        <v>0.14591799999999999</v>
       </c>
       <c r="P6">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -16321,28 +16321,28 @@
         <v>3.2227700000000001</v>
       </c>
       <c r="G7">
-        <v>7.4934399999999998E-2</v>
+        <v>9.6900799999999995E-2</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J7">
         <v>3.2227700000000001</v>
       </c>
       <c r="K7">
-        <v>7.0138800000000001E-2</v>
+        <v>0.19187499999999999</v>
       </c>
       <c r="L7">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N7">
         <v>3.0634700000000001</v>
       </c>
       <c r="O7">
-        <v>0.16645099999999999</v>
+        <v>0.157078</v>
       </c>
       <c r="P7">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -16362,28 +16362,28 @@
         <v>1.2096800000000001</v>
       </c>
       <c r="G8">
-        <v>1.4877899999999999E-3</v>
+        <v>2.5159599999999998E-3</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>1.2096800000000001</v>
       </c>
       <c r="K8">
-        <v>2.2418999999999998E-3</v>
+        <v>2.13912E-3</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8">
         <v>1.2096800000000001</v>
       </c>
       <c r="O8">
-        <v>1.37487E-3</v>
+        <v>1.7233800000000001E-3</v>
       </c>
       <c r="P8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -16403,28 +16403,28 @@
         <v>3.18445</v>
       </c>
       <c r="G9">
-        <v>0.195766</v>
+        <v>7.5022099999999994E-2</v>
       </c>
       <c r="H9">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J9">
         <v>3.18445</v>
       </c>
       <c r="K9">
-        <v>9.3909199999999998E-2</v>
+        <v>0.17966299999999999</v>
       </c>
       <c r="L9">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N9">
         <v>3.0318200000000002</v>
       </c>
       <c r="O9">
-        <v>0.176256</v>
+        <v>0.177671</v>
       </c>
       <c r="P9">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -16444,28 +16444,28 @@
         <v>3.1646399999999999</v>
       </c>
       <c r="G10">
-        <v>0.20972399999999999</v>
+        <v>0.101342</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J10">
         <v>3.1646399999999999</v>
       </c>
       <c r="K10">
-        <v>0.172899</v>
+        <v>0.216553</v>
       </c>
       <c r="L10">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N10">
         <v>3.0128300000000001</v>
       </c>
       <c r="O10">
-        <v>0.14799100000000001</v>
+        <v>0.16039300000000001</v>
       </c>
       <c r="P10">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -16485,28 +16485,28 @@
         <v>3.12981</v>
       </c>
       <c r="G11">
-        <v>0.22137799999999999</v>
+        <v>0.22828899999999999</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J11">
         <v>3.12981</v>
       </c>
       <c r="K11">
-        <v>0.23056099999999999</v>
+        <v>0.227661</v>
       </c>
       <c r="L11">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N11">
         <v>2.9841000000000002</v>
       </c>
       <c r="O11">
-        <v>0.18318799999999999</v>
+        <v>9.3996800000000005E-2</v>
       </c>
       <c r="P11">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -16526,28 +16526,28 @@
         <v>3.1118100000000002</v>
       </c>
       <c r="G12">
-        <v>0.19957900000000001</v>
+        <v>0.21071699999999999</v>
       </c>
       <c r="H12">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J12">
         <v>3.1118100000000002</v>
       </c>
       <c r="K12">
-        <v>0.243479</v>
+        <v>0.24614</v>
       </c>
       <c r="L12">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N12">
         <v>2.9668100000000002</v>
       </c>
       <c r="O12">
-        <v>0.21224499999999999</v>
+        <v>0.11246200000000001</v>
       </c>
       <c r="P12">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -16567,28 +16567,28 @@
         <v>3.0800299999999998</v>
       </c>
       <c r="G13">
-        <v>0.26715499999999998</v>
+        <v>0.26262200000000002</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J13">
         <v>3.0800299999999998</v>
       </c>
       <c r="K13">
-        <v>0.260766</v>
+        <v>0.259322</v>
       </c>
       <c r="L13">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N13">
         <v>2.9406400000000001</v>
       </c>
       <c r="O13">
-        <v>0.209421</v>
+        <v>0.22303100000000001</v>
       </c>
       <c r="P13">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -16608,28 +16608,28 @@
         <v>3.0649299999999999</v>
       </c>
       <c r="G14">
-        <v>0.25693100000000002</v>
+        <v>0.24324599999999999</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J14">
         <v>3.0649299999999999</v>
       </c>
       <c r="K14">
-        <v>0.25427899999999998</v>
+        <v>0.248201</v>
       </c>
       <c r="L14">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N14">
         <v>2.9262299999999999</v>
       </c>
       <c r="O14">
-        <v>0.17906900000000001</v>
+        <v>0.16220399999999999</v>
       </c>
       <c r="P14">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -16649,28 +16649,28 @@
         <v>3.0358000000000001</v>
       </c>
       <c r="G15">
-        <v>0.28675699999999998</v>
+        <v>0.287657</v>
       </c>
       <c r="H15">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J15">
         <v>3.0358000000000001</v>
       </c>
       <c r="K15">
-        <v>0.28084799999999999</v>
+        <v>0.28526099999999999</v>
       </c>
       <c r="L15">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N15">
         <v>3.0358000000000001</v>
       </c>
       <c r="O15">
-        <v>0.28088999999999997</v>
+        <v>0.26847100000000002</v>
       </c>
       <c r="P15">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -16690,28 +16690,28 @@
         <v>3.0194299999999998</v>
       </c>
       <c r="G16">
-        <v>0.2898</v>
+        <v>0.219472</v>
       </c>
       <c r="H16">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J16">
         <v>3.0194299999999998</v>
       </c>
       <c r="K16">
-        <v>0.28381800000000001</v>
+        <v>0.106503</v>
       </c>
       <c r="L16">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N16">
         <v>3.0194299999999998</v>
       </c>
       <c r="O16">
-        <v>0.10795399999999999</v>
+        <v>0.25916</v>
       </c>
       <c r="P16">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -16731,28 +16731,28 @@
         <v>2.99274</v>
       </c>
       <c r="G17">
-        <v>0.291381</v>
+        <v>0.16938500000000001</v>
       </c>
       <c r="H17">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J17">
         <v>2.99274</v>
       </c>
       <c r="K17">
-        <v>0.31770799999999999</v>
+        <v>0.29985600000000001</v>
       </c>
       <c r="L17">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N17">
         <v>2.99274</v>
       </c>
       <c r="O17">
-        <v>0.30923600000000001</v>
+        <v>0.31924799999999998</v>
       </c>
       <c r="P17">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -16772,28 +16772,28 @@
         <v>2.9773200000000002</v>
       </c>
       <c r="G18">
-        <v>0.31544100000000003</v>
+        <v>0.33459699999999998</v>
       </c>
       <c r="H18">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J18">
         <v>2.9773200000000002</v>
       </c>
       <c r="K18">
-        <v>0.29093799999999997</v>
+        <v>0.32133400000000001</v>
       </c>
       <c r="L18">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N18">
         <v>2.9773200000000002</v>
       </c>
       <c r="O18">
-        <v>0.32999600000000001</v>
+        <v>0.119202</v>
       </c>
       <c r="P18">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -16813,28 +16813,28 @@
         <v>2.0181800000000001</v>
       </c>
       <c r="G19">
-        <v>1.7672899999999999E-3</v>
+        <v>2.5946900000000002E-3</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J19">
         <v>2.0181800000000001</v>
       </c>
       <c r="K19">
-        <v>2.5721699999999999E-3</v>
+        <v>1.7322399999999999E-3</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N19">
         <v>2.0181800000000001</v>
       </c>
       <c r="O19">
-        <v>2.2860799999999998E-3</v>
+        <v>2.6930299999999999E-3</v>
       </c>
       <c r="P19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -16854,28 +16854,28 @@
         <v>2.9527999999999999</v>
       </c>
       <c r="G20">
-        <v>0.18837000000000001</v>
+        <v>0.353238</v>
       </c>
       <c r="H20">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J20">
         <v>2.9527999999999999</v>
       </c>
       <c r="K20">
-        <v>0.35008899999999998</v>
+        <v>0.35214800000000002</v>
       </c>
       <c r="L20">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N20">
         <v>2.9527999999999999</v>
       </c>
       <c r="O20">
-        <v>0.21482799999999999</v>
+        <v>0.362344</v>
       </c>
       <c r="P20">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -16895,28 +16895,28 @@
         <v>2.93824</v>
       </c>
       <c r="G21">
-        <v>0.13098599999999999</v>
+        <v>0.36671199999999998</v>
       </c>
       <c r="H21">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J21">
         <v>2.93824</v>
       </c>
       <c r="K21">
-        <v>0.368091</v>
+        <v>0.366118</v>
       </c>
       <c r="L21">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N21">
         <v>2.93824</v>
       </c>
       <c r="O21">
-        <v>0.358709</v>
+        <v>0.20039299999999999</v>
       </c>
       <c r="P21">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -16936,28 +16936,28 @@
         <v>2.9156599999999999</v>
       </c>
       <c r="G22">
-        <v>0.38694899999999999</v>
+        <v>0.32308399999999998</v>
       </c>
       <c r="H22">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J22">
         <v>2.9156599999999999</v>
       </c>
       <c r="K22">
-        <v>0.35403200000000001</v>
+        <v>0.36376700000000001</v>
       </c>
       <c r="L22">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N22">
         <v>2.9156599999999999</v>
       </c>
       <c r="O22">
-        <v>0.37425599999999998</v>
+        <v>0.19162699999999999</v>
       </c>
       <c r="P22">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -16977,28 +16977,28 @@
         <v>2.9018799999999998</v>
       </c>
       <c r="G23">
-        <v>0.40886299999999998</v>
+        <v>0.40429500000000002</v>
       </c>
       <c r="H23">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J23">
         <v>2.9018799999999998</v>
       </c>
       <c r="K23">
-        <v>0.40706599999999998</v>
+        <v>0.39583699999999999</v>
       </c>
       <c r="L23">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N23">
         <v>2.9018799999999998</v>
       </c>
       <c r="O23">
-        <v>0.38805899999999999</v>
+        <v>0.40395900000000001</v>
       </c>
       <c r="P23">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -17018,28 +17018,28 @@
         <v>2.88104</v>
       </c>
       <c r="G24">
-        <v>0.40341500000000002</v>
+        <v>0.38337700000000002</v>
       </c>
       <c r="H24">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J24">
         <v>2.88104</v>
       </c>
       <c r="K24">
-        <v>0.43327100000000002</v>
+        <v>0.41858400000000001</v>
       </c>
       <c r="L24">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N24">
         <v>2.88104</v>
       </c>
       <c r="O24">
-        <v>0.43076799999999998</v>
+        <v>0.422379</v>
       </c>
       <c r="P24">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -17059,28 +17059,28 @@
         <v>2.8699300000000001</v>
       </c>
       <c r="G25">
-        <v>0.44400299999999998</v>
+        <v>0.44328299999999998</v>
       </c>
       <c r="H25">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J25">
         <v>2.8699300000000001</v>
       </c>
       <c r="K25">
-        <v>0.163771</v>
+        <v>0.42134100000000002</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N25">
         <v>2.8699300000000001</v>
       </c>
       <c r="O25">
-        <v>0.353798</v>
+        <v>0.42996600000000001</v>
       </c>
       <c r="P25">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -17100,28 +17100,28 @@
         <v>2.8506200000000002</v>
       </c>
       <c r="G26">
-        <v>0.47322399999999998</v>
+        <v>0.456843</v>
       </c>
       <c r="H26">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J26">
         <v>2.8506200000000002</v>
       </c>
       <c r="K26">
-        <v>0.32459700000000002</v>
+        <v>0.27537299999999998</v>
       </c>
       <c r="L26">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N26">
         <v>2.8506200000000002</v>
       </c>
       <c r="O26">
-        <v>0.39673000000000003</v>
+        <v>0.41560399999999997</v>
       </c>
       <c r="P26">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -17141,28 +17141,28 @@
         <v>2.83813</v>
       </c>
       <c r="G27">
-        <v>0.498672</v>
+        <v>0.368147</v>
       </c>
       <c r="H27">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J27">
         <v>2.83813</v>
       </c>
       <c r="K27">
-        <v>0.487564</v>
+        <v>0.45813700000000002</v>
       </c>
       <c r="L27">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N27">
         <v>2.83813</v>
       </c>
       <c r="O27">
-        <v>0.48098400000000002</v>
+        <v>0.48528700000000002</v>
       </c>
       <c r="P27">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -17182,28 +17182,28 @@
         <v>2.8202400000000001</v>
       </c>
       <c r="G28">
-        <v>0.47637000000000002</v>
+        <v>0.19131300000000001</v>
       </c>
       <c r="H28">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J28">
         <v>2.8202400000000001</v>
       </c>
       <c r="K28">
-        <v>0.506216</v>
+        <v>0.31993100000000002</v>
       </c>
       <c r="L28">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N28">
         <v>2.8202400000000001</v>
       </c>
       <c r="O28">
-        <v>0.48206900000000003</v>
+        <v>0.25445600000000002</v>
       </c>
       <c r="P28">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -17223,28 +17223,28 @@
         <v>2.8083499999999999</v>
       </c>
       <c r="G29">
-        <v>0.53523799999999999</v>
+        <v>0.437498</v>
       </c>
       <c r="H29">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J29">
         <v>2.8083499999999999</v>
       </c>
       <c r="K29">
-        <v>0.54176299999999999</v>
+        <v>0.53222800000000003</v>
       </c>
       <c r="L29">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N29">
         <v>2.8083499999999999</v>
       </c>
       <c r="O29">
-        <v>0.54095499999999996</v>
+        <v>0.30541800000000002</v>
       </c>
       <c r="P29">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -17264,28 +17264,28 @@
         <v>1.9421999999999999</v>
       </c>
       <c r="G30">
-        <v>1.7007700000000001E-3</v>
+        <v>1.9026E-3</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J30">
         <v>1.9421999999999999</v>
       </c>
       <c r="K30">
-        <v>2.5273700000000001E-3</v>
+        <v>1.9989000000000001E-3</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N30">
         <v>1.9421999999999999</v>
       </c>
       <c r="O30">
-        <v>2.4196899999999999E-3</v>
+        <v>2.6446E-3</v>
       </c>
       <c r="P30">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -17305,28 +17305,28 @@
         <v>2.79176</v>
       </c>
       <c r="G31">
-        <v>0.55940800000000002</v>
+        <v>0.55601800000000001</v>
       </c>
       <c r="H31">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J31">
         <v>2.79176</v>
       </c>
       <c r="K31">
-        <v>0.56846300000000005</v>
+        <v>0.56354199999999999</v>
       </c>
       <c r="L31">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N31">
         <v>2.79176</v>
       </c>
       <c r="O31">
-        <v>0.527779</v>
+        <v>0.56456899999999999</v>
       </c>
       <c r="P31">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -17346,28 +17346,28 @@
         <v>2.7804199999999999</v>
       </c>
       <c r="G32">
-        <v>0.59161399999999997</v>
+        <v>0.58935400000000004</v>
       </c>
       <c r="H32">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J32">
         <v>2.7804199999999999</v>
       </c>
       <c r="K32">
-        <v>0.57922300000000004</v>
+        <v>0.57625099999999996</v>
       </c>
       <c r="L32">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N32">
         <v>2.7804199999999999</v>
       </c>
       <c r="O32">
-        <v>0.60174300000000003</v>
+        <v>0.58725300000000002</v>
       </c>
       <c r="P32">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
@@ -17387,28 +17387,28 @@
         <v>2.7649900000000001</v>
       </c>
       <c r="G33">
-        <v>0.57323500000000005</v>
+        <v>0.62513099999999999</v>
       </c>
       <c r="H33">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J33">
         <v>2.7649900000000001</v>
       </c>
       <c r="K33">
-        <v>0.61397400000000002</v>
+        <v>0.61099899999999996</v>
       </c>
       <c r="L33">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N33">
         <v>2.7649900000000001</v>
       </c>
       <c r="O33">
-        <v>0.34616400000000003</v>
+        <v>0.61267099999999997</v>
       </c>
       <c r="P33">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -17428,28 +17428,28 @@
         <v>2.7543899999999999</v>
       </c>
       <c r="G34">
-        <v>0.64405999999999997</v>
+        <v>0.64198699999999997</v>
       </c>
       <c r="H34">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J34">
         <v>2.7543899999999999</v>
       </c>
       <c r="K34">
-        <v>0.65432900000000005</v>
+        <v>0.23873900000000001</v>
       </c>
       <c r="L34">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N34">
         <v>2.7543899999999999</v>
       </c>
       <c r="O34">
-        <v>0.23141800000000001</v>
+        <v>0.59838199999999997</v>
       </c>
       <c r="P34">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -17469,28 +17469,28 @@
         <v>2.7400199999999999</v>
       </c>
       <c r="G35">
-        <v>0.67730400000000002</v>
+        <v>0.67637100000000006</v>
       </c>
       <c r="H35">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J35">
         <v>2.7400199999999999</v>
       </c>
       <c r="K35">
-        <v>0.58192699999999997</v>
+        <v>0.67730100000000004</v>
       </c>
       <c r="L35">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N35">
         <v>2.7400199999999999</v>
       </c>
       <c r="O35">
-        <v>0.68388199999999999</v>
+        <v>0.56460200000000005</v>
       </c>
       <c r="P35">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
@@ -17510,28 +17510,28 @@
         <v>2.7309199999999998</v>
       </c>
       <c r="G36">
-        <v>0.69425400000000004</v>
+        <v>0.70996400000000004</v>
       </c>
       <c r="H36">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J36">
         <v>2.7309199999999998</v>
       </c>
       <c r="K36">
-        <v>0.67891900000000005</v>
+        <v>0.71869700000000003</v>
       </c>
       <c r="L36">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N36">
         <v>2.7309199999999998</v>
       </c>
       <c r="O36">
-        <v>0.68677999999999995</v>
+        <v>0.71793499999999999</v>
       </c>
       <c r="P36">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -17551,28 +17551,28 @@
         <v>2.7174999999999998</v>
       </c>
       <c r="G37">
-        <v>0.74762700000000004</v>
+        <v>0.726823</v>
       </c>
       <c r="H37">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J37">
         <v>2.7174999999999998</v>
       </c>
       <c r="K37">
-        <v>0.73206000000000004</v>
+        <v>0.73305600000000004</v>
       </c>
       <c r="L37">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N37">
         <v>2.7174999999999998</v>
       </c>
       <c r="O37">
-        <v>0.74103699999999995</v>
+        <v>0.73040099999999997</v>
       </c>
       <c r="P37">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -17592,28 +17592,28 @@
         <v>2.7075200000000001</v>
       </c>
       <c r="G38">
-        <v>0.28889700000000001</v>
+        <v>0.77148600000000001</v>
       </c>
       <c r="H38">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J38">
         <v>2.7075200000000001</v>
       </c>
       <c r="K38">
-        <v>0.77050099999999999</v>
+        <v>0.768424</v>
       </c>
       <c r="L38">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N38">
         <v>2.7075200000000001</v>
       </c>
       <c r="O38">
-        <v>0.75850899999999999</v>
+        <v>0.74374799999999996</v>
       </c>
       <c r="P38">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
@@ -17633,28 +17633,28 @@
         <v>2.6949999999999998</v>
       </c>
       <c r="G39">
-        <v>0.79751399999999995</v>
+        <v>0.44500400000000001</v>
       </c>
       <c r="H39">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J39">
         <v>2.6949999999999998</v>
       </c>
       <c r="K39">
-        <v>0.80007099999999998</v>
+        <v>0.79252</v>
       </c>
       <c r="L39">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N39">
         <v>2.6949999999999998</v>
       </c>
       <c r="O39">
-        <v>0.82924299999999995</v>
+        <v>0.81123199999999995</v>
       </c>
       <c r="P39">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
@@ -17674,28 +17674,28 @@
         <v>2.6854300000000002</v>
       </c>
       <c r="G40">
-        <v>0.79740200000000006</v>
+        <v>0.82478099999999999</v>
       </c>
       <c r="H40">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J40">
         <v>2.6854300000000002</v>
       </c>
       <c r="K40">
-        <v>0.78533799999999998</v>
+        <v>0.81109900000000001</v>
       </c>
       <c r="L40">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N40">
         <v>2.6854300000000002</v>
       </c>
       <c r="O40">
-        <v>0.87910100000000002</v>
+        <v>0.33155600000000002</v>
       </c>
       <c r="P40">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
@@ -17715,28 +17715,28 @@
         <v>1.9697</v>
       </c>
       <c r="G41">
-        <v>1.8417500000000001E-3</v>
+        <v>2.7341900000000001E-3</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J41">
         <v>1.9697</v>
       </c>
       <c r="K41">
-        <v>2.2984400000000001E-3</v>
+        <v>1.9729499999999998E-3</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N41">
         <v>1.9697</v>
       </c>
       <c r="O41">
-        <v>1.8535699999999999E-3</v>
+        <v>1.5886699999999999E-3</v>
       </c>
       <c r="P41">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
@@ -17756,28 +17756,28 @@
         <v>2.6737299999999999</v>
       </c>
       <c r="G42">
-        <v>0.74144900000000002</v>
+        <v>0.902061</v>
       </c>
       <c r="H42">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J42">
         <v>2.6737299999999999</v>
       </c>
       <c r="K42">
-        <v>0.89481500000000003</v>
+        <v>0.87246400000000002</v>
       </c>
       <c r="L42">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N42">
         <v>2.6737299999999999</v>
       </c>
       <c r="O42">
-        <v>0.87307199999999996</v>
+        <v>0.87295400000000001</v>
       </c>
       <c r="P42">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -17797,28 +17797,28 @@
         <v>2.66452</v>
       </c>
       <c r="G43">
-        <v>0.94194900000000004</v>
+        <v>0.90264</v>
       </c>
       <c r="H43">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J43">
         <v>2.66452</v>
       </c>
       <c r="K43">
-        <v>0.343754</v>
+        <v>0.905169</v>
       </c>
       <c r="L43">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N43">
         <v>2.66452</v>
       </c>
       <c r="O43">
-        <v>0.90040200000000004</v>
+        <v>0.91715999999999998</v>
       </c>
       <c r="P43">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
@@ -17838,28 +17838,28 @@
         <v>2.6535799999999998</v>
       </c>
       <c r="G44">
-        <v>0.949596</v>
+        <v>0.93161400000000005</v>
       </c>
       <c r="H44">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J44">
         <v>2.6535799999999998</v>
       </c>
       <c r="K44">
-        <v>0.97307399999999999</v>
+        <v>0.96989300000000001</v>
       </c>
       <c r="L44">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N44">
         <v>2.6535799999999998</v>
       </c>
       <c r="O44">
-        <v>0.95902399999999999</v>
+        <v>0.96387999999999996</v>
       </c>
       <c r="P44">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
@@ -17879,28 +17879,28 @@
         <v>2.64472</v>
       </c>
       <c r="G45">
-        <v>1.0085500000000001</v>
+        <v>0.82899400000000001</v>
       </c>
       <c r="H45">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J45">
         <v>2.64472</v>
       </c>
       <c r="K45">
-        <v>0.98470400000000002</v>
+        <v>0.97858599999999996</v>
       </c>
       <c r="L45">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N45">
         <v>2.64472</v>
       </c>
       <c r="O45">
-        <v>0.98104100000000005</v>
+        <v>0.98031800000000002</v>
       </c>
       <c r="P45">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
@@ -17920,28 +17920,28 @@
         <v>2.6344699999999999</v>
       </c>
       <c r="G46">
-        <v>1.03294</v>
+        <v>1.01285</v>
       </c>
       <c r="H46">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J46">
         <v>2.6344699999999999</v>
       </c>
       <c r="K46">
-        <v>1.07199</v>
+        <v>0.95108000000000004</v>
       </c>
       <c r="L46">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N46">
         <v>2.6344699999999999</v>
       </c>
       <c r="O46">
-        <v>1.01105</v>
+        <v>1.03142</v>
       </c>
       <c r="P46">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -17961,28 +17961,28 @@
         <v>2.6271</v>
       </c>
       <c r="G47">
-        <v>1.0717000000000001</v>
+        <v>0.410667</v>
       </c>
       <c r="H47">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J47">
         <v>2.6271</v>
       </c>
       <c r="K47">
-        <v>1.0635699999999999</v>
+        <v>1.06165</v>
       </c>
       <c r="L47">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N47">
         <v>2.6271</v>
       </c>
       <c r="O47">
-        <v>1.06477</v>
+        <v>1.0638000000000001</v>
       </c>
       <c r="P47">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
@@ -18002,28 +18002,28 @@
         <v>2.6174599999999999</v>
       </c>
       <c r="G48">
-        <v>1.1505000000000001</v>
+        <v>1.1046100000000001</v>
       </c>
       <c r="H48">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J48">
         <v>2.6174599999999999</v>
       </c>
       <c r="K48">
-        <v>1.0461800000000001</v>
+        <v>1.10808</v>
       </c>
       <c r="L48">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N48">
         <v>2.6174599999999999</v>
       </c>
       <c r="O48">
-        <v>1.1016600000000001</v>
+        <v>1.09968</v>
       </c>
       <c r="P48">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
@@ -18043,28 +18043,28 @@
         <v>2.60921</v>
       </c>
       <c r="G49">
-        <v>1.09629</v>
+        <v>1.0985100000000001</v>
       </c>
       <c r="H49">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J49">
         <v>2.60921</v>
       </c>
       <c r="K49">
-        <v>1.1064799999999999</v>
+        <v>1.03667</v>
       </c>
       <c r="L49">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N49">
         <v>2.60921</v>
       </c>
       <c r="O49">
-        <v>0.99648499999999995</v>
+        <v>1.1367700000000001</v>
       </c>
       <c r="P49">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
@@ -18084,28 +18084,28 @@
         <v>2.6001599999999998</v>
       </c>
       <c r="G50">
-        <v>1.12158</v>
+        <v>1.12879</v>
       </c>
       <c r="H50">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J50">
         <v>2.6001599999999998</v>
       </c>
       <c r="K50">
-        <v>1.1706099999999999</v>
+        <v>1.23264</v>
       </c>
       <c r="L50">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N50">
         <v>2.6001599999999998</v>
       </c>
       <c r="O50">
-        <v>1.20174</v>
+        <v>1.1803300000000001</v>
       </c>
       <c r="P50">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
@@ -18125,28 +18125,28 @@
         <v>2.59219</v>
       </c>
       <c r="G51">
-        <v>1.21696</v>
+        <v>1.03287</v>
       </c>
       <c r="H51">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J51">
         <v>2.59219</v>
       </c>
       <c r="K51">
-        <v>1.21872</v>
+        <v>1.21726</v>
       </c>
       <c r="L51">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N51">
         <v>2.59219</v>
       </c>
       <c r="O51">
-        <v>0.47831200000000001</v>
+        <v>0.66335599999999995</v>
       </c>
       <c r="P51">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
@@ -18166,28 +18166,28 @@
         <v>1.91489</v>
       </c>
       <c r="G52">
-        <v>2.8256800000000001E-3</v>
+        <v>2.8080599999999998E-3</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J52">
         <v>1.91489</v>
       </c>
       <c r="K52">
-        <v>2.4233499999999999E-3</v>
+        <v>1.52108E-3</v>
       </c>
       <c r="L52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N52">
         <v>1.91489</v>
       </c>
       <c r="O52">
-        <v>1.2038299999999999E-3</v>
+        <v>2.6883300000000001E-3</v>
       </c>
       <c r="P52">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
@@ -18207,28 +18207,28 @@
         <v>2.5836899999999998</v>
       </c>
       <c r="G53">
-        <v>1.05454</v>
+        <v>1.2664800000000001</v>
       </c>
       <c r="H53">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J53">
         <v>2.5836899999999998</v>
       </c>
       <c r="K53">
-        <v>1.1786399999999999</v>
+        <v>0.48804399999999998</v>
       </c>
       <c r="L53">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N53">
         <v>2.5836899999999998</v>
       </c>
       <c r="O53">
-        <v>1.27257</v>
+        <v>1.26878</v>
       </c>
       <c r="P53">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
@@ -18248,28 +18248,28 @@
         <v>2.57599</v>
       </c>
       <c r="G54">
-        <v>0.96911400000000003</v>
+        <v>1.27844</v>
       </c>
       <c r="H54">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J54">
         <v>2.57599</v>
       </c>
       <c r="K54">
-        <v>1.3162700000000001</v>
+        <v>1.34185</v>
       </c>
       <c r="L54">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N54">
         <v>2.57599</v>
       </c>
       <c r="O54">
-        <v>1.25789</v>
+        <v>1.2021999999999999</v>
       </c>
       <c r="P54">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
@@ -18289,28 +18289,28 @@
         <v>2.5680000000000001</v>
       </c>
       <c r="G55">
-        <v>1.37565</v>
+        <v>1.27563</v>
       </c>
       <c r="H55">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J55">
         <v>2.5680000000000001</v>
       </c>
       <c r="K55">
-        <v>1.3611599999999999</v>
+        <v>1.38839</v>
       </c>
       <c r="L55">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N55">
         <v>2.5680000000000001</v>
       </c>
       <c r="O55">
-        <v>1.35758</v>
+        <v>1.3527800000000001</v>
       </c>
       <c r="P55">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
@@ -18330,28 +18330,28 @@
         <v>2.5606800000000001</v>
       </c>
       <c r="G56">
-        <v>0.54885099999999998</v>
+        <v>1.39375</v>
       </c>
       <c r="H56">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J56">
         <v>2.5606800000000001</v>
       </c>
       <c r="K56">
-        <v>1.4010199999999999</v>
+        <v>1.3172900000000001</v>
       </c>
       <c r="L56">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N56">
         <v>2.5606800000000001</v>
       </c>
       <c r="O56">
-        <v>1.28833</v>
+        <v>1.04939</v>
       </c>
       <c r="P56">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
@@ -18371,28 +18371,28 @@
         <v>2.5531600000000001</v>
       </c>
       <c r="G57">
-        <v>1.3466100000000001</v>
+        <v>1.3480700000000001</v>
       </c>
       <c r="H57">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J57">
         <v>2.5531600000000001</v>
       </c>
       <c r="K57">
-        <v>1.3694599999999999</v>
+        <v>1.44313</v>
       </c>
       <c r="L57">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N57">
         <v>2.5531600000000001</v>
       </c>
       <c r="O57">
-        <v>1.47726</v>
+        <v>1.4328399999999999</v>
       </c>
       <c r="P57">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
@@ -18412,28 +18412,28 @@
         <v>2.7678799999999999</v>
       </c>
       <c r="G58">
-        <v>1.5864199999999999</v>
+        <v>1.4493100000000001</v>
       </c>
       <c r="H58">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J58">
         <v>2.7678799999999999</v>
       </c>
       <c r="K58">
-        <v>1.69374</v>
+        <v>1.6897800000000001</v>
       </c>
       <c r="L58">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N58">
         <v>2.7678799999999999</v>
       </c>
       <c r="O58">
-        <v>1.6928399999999999</v>
+        <v>0.65479900000000002</v>
       </c>
       <c r="P58">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
@@ -18453,28 +18453,28 @@
         <v>2.3164400000000001</v>
       </c>
       <c r="G59">
-        <v>2.74398E-3</v>
+        <v>2.9387200000000001E-3</v>
       </c>
       <c r="H59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J59">
         <v>2.3371300000000002</v>
       </c>
       <c r="K59">
-        <v>3.0497499999999999E-3</v>
+        <v>3.09625E-3</v>
       </c>
       <c r="L59">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N59">
         <v>2.3164400000000001</v>
       </c>
       <c r="O59">
-        <v>2.3683300000000001E-3</v>
+        <v>1.92987E-3</v>
       </c>
       <c r="P59">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
@@ -18494,28 +18494,28 @@
         <v>2.58013</v>
       </c>
       <c r="G60">
-        <v>3.0722000000000002E-3</v>
+        <v>1.96378E-3</v>
       </c>
       <c r="H60">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J60">
         <v>2.58013</v>
       </c>
       <c r="K60">
-        <v>2.4569000000000001E-3</v>
+        <v>3.2182299999999999E-3</v>
       </c>
       <c r="L60">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N60">
         <v>2.4816500000000001</v>
       </c>
       <c r="O60">
-        <v>2.57786E-3</v>
+        <v>2.5382199999999999E-3</v>
       </c>
       <c r="P60">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
@@ -18535,28 +18535,28 @@
         <v>2.47478</v>
       </c>
       <c r="G61">
-        <v>2.7926700000000001E-3</v>
+        <v>2.7752100000000002E-3</v>
       </c>
       <c r="H61">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J61">
         <v>2.47478</v>
       </c>
       <c r="K61">
-        <v>2.5284299999999999E-3</v>
+        <v>3.1206599999999999E-3</v>
       </c>
       <c r="L61">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N61">
         <v>2.3323399999999999</v>
       </c>
       <c r="O61">
-        <v>3.1181E-3</v>
+        <v>1.9760699999999999E-3</v>
       </c>
       <c r="P61">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
@@ -18576,28 +18576,28 @@
         <v>2.9354800000000001</v>
       </c>
       <c r="G62">
-        <v>1.6619899999999999E-3</v>
+        <v>2.7071700000000001E-3</v>
       </c>
       <c r="H62">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J62">
         <v>2.9354800000000001</v>
       </c>
       <c r="K62">
-        <v>2.7704600000000002E-3</v>
+        <v>3.0513699999999999E-3</v>
       </c>
       <c r="L62">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N62">
         <v>2.9354800000000001</v>
       </c>
       <c r="O62">
-        <v>1.69381E-3</v>
+        <v>2.8016600000000001E-3</v>
       </c>
       <c r="P62">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
@@ -18617,28 +18617,28 @@
         <v>3.7048000000000001</v>
       </c>
       <c r="G63">
-        <v>3.3725500000000002E-3</v>
+        <v>3.4519500000000001E-3</v>
       </c>
       <c r="H63">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J63">
         <v>4.0885600000000002</v>
       </c>
       <c r="K63">
-        <v>2.2627799999999998E-3</v>
+        <v>3.92465E-3</v>
       </c>
       <c r="L63">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N63">
         <v>3.7048000000000001</v>
       </c>
       <c r="O63">
-        <v>2.8915799999999999E-3</v>
+        <v>2.7192399999999999E-3</v>
       </c>
       <c r="P63">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
@@ -18658,28 +18658,28 @@
         <v>4.6675899999999997</v>
       </c>
       <c r="G64">
-        <v>3.60072E-3</v>
+        <v>2.34366E-3</v>
       </c>
       <c r="H64">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J64">
         <v>4.6675899999999997</v>
       </c>
       <c r="K64">
-        <v>2.6971600000000001E-3</v>
+        <v>2.6264299999999999E-3</v>
       </c>
       <c r="L64">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N64">
         <v>4.6675899999999997</v>
       </c>
       <c r="O64">
-        <v>3.5655999999999999E-3</v>
+        <v>1.49767E-3</v>
       </c>
       <c r="P64">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
@@ -18699,28 +18699,28 @@
         <v>5.4554999999999998</v>
       </c>
       <c r="G65">
-        <v>3.23719E-3</v>
+        <v>4.0040299999999996E-3</v>
       </c>
       <c r="H65">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J65">
         <v>5.4554999999999998</v>
       </c>
       <c r="K65">
-        <v>3.5723500000000002E-3</v>
+        <v>3.5772999999999998E-3</v>
       </c>
       <c r="L65">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N65">
         <v>5.4554999999999998</v>
       </c>
       <c r="O65">
-        <v>2.61086E-3</v>
+        <v>3.6877699999999999E-3</v>
       </c>
       <c r="P65">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
@@ -18740,28 +18740,28 @@
         <v>9.7800499999999992</v>
       </c>
       <c r="G66">
-        <v>4.51016E-3</v>
+        <v>3.3549700000000001E-3</v>
       </c>
       <c r="H66">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J66">
         <v>10.027100000000001</v>
       </c>
       <c r="K66">
-        <v>5.9480499999999999E-3</v>
+        <v>4.0109899999999999E-3</v>
       </c>
       <c r="L66">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N66">
         <v>9.7800499999999992</v>
       </c>
       <c r="O66">
-        <v>3.9452100000000002E-3</v>
+        <v>2.5169799999999998E-3</v>
       </c>
       <c r="P66">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
@@ -18781,28 +18781,28 @@
         <v>10.317600000000001</v>
       </c>
       <c r="G67">
-        <v>4.5616700000000003E-3</v>
+        <v>2.8889100000000002E-3</v>
       </c>
       <c r="H67">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J67">
         <v>10.5603</v>
       </c>
       <c r="K67">
-        <v>4.2659899999999999E-3</v>
+        <v>6.4130599999999999E-3</v>
       </c>
       <c r="L67">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N67">
         <v>10.317600000000001</v>
       </c>
       <c r="O67">
-        <v>4.4258300000000004E-3</v>
+        <v>2.72318E-3</v>
       </c>
       <c r="P67">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
@@ -18822,28 +18822,28 @@
         <v>5.0008999999999997</v>
       </c>
       <c r="G68">
-        <v>4.4590899999999998E-3</v>
+        <v>3.8266400000000001E-3</v>
       </c>
       <c r="H68">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J68">
         <v>6.8966099999999999</v>
       </c>
       <c r="K68">
-        <v>4.5639499999999998E-3</v>
+        <v>4.9375299999999999E-3</v>
       </c>
       <c r="L68">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N68">
         <v>5.0008999999999997</v>
       </c>
       <c r="O68">
-        <v>4.3206399999999997E-3</v>
+        <v>3.78569E-3</v>
       </c>
       <c r="P68">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
@@ -18863,28 +18863,28 @@
         <v>4.8319599999999996</v>
       </c>
       <c r="G69">
-        <v>3.3980600000000001E-3</v>
+        <v>2.5364300000000001E-3</v>
       </c>
       <c r="H69">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J69">
         <v>5.7281599999999999</v>
       </c>
       <c r="K69">
-        <v>4.1116599999999996E-3</v>
+        <v>4.4205199999999998E-3</v>
       </c>
       <c r="L69">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N69">
         <v>4.8319599999999996</v>
       </c>
       <c r="O69">
-        <v>3.3119099999999999E-3</v>
+        <v>3.81022E-3</v>
       </c>
       <c r="P69">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
@@ -18904,28 +18904,28 @@
         <v>6.0266099999999998</v>
       </c>
       <c r="G70">
-        <v>6.9636899999999998E-3</v>
+        <v>6.0629000000000004E-3</v>
       </c>
       <c r="H70">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J70">
         <v>6.8248300000000004</v>
       </c>
       <c r="K70">
-        <v>4.1579800000000004E-3</v>
+        <v>6.4739200000000002E-3</v>
       </c>
       <c r="L70">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N70">
         <v>6.0266099999999998</v>
       </c>
       <c r="O70">
-        <v>3.5732699999999999E-3</v>
+        <v>4.3696300000000002E-3</v>
       </c>
       <c r="P70">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
@@ -18945,28 +18945,28 @@
         <v>4.5368199999999996</v>
       </c>
       <c r="G71">
-        <v>4.9490200000000002E-3</v>
+        <v>5.4284099999999998E-3</v>
       </c>
       <c r="H71">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J71">
         <v>6.0530400000000002</v>
       </c>
       <c r="K71">
-        <v>9.1116099999999992E-3</v>
+        <v>9.9581400000000007E-3</v>
       </c>
       <c r="L71">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N71">
         <v>4.3591300000000004</v>
       </c>
       <c r="O71">
-        <v>5.8993800000000001E-3</v>
+        <v>4.2010499999999996E-3</v>
       </c>
       <c r="P71">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
@@ -18986,28 +18986,28 @@
         <v>5.0176999999999996</v>
       </c>
       <c r="G72">
-        <v>7.9354899999999999E-3</v>
+        <v>5.6296499999999999E-3</v>
       </c>
       <c r="H72">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J72">
         <v>5.7307100000000002</v>
       </c>
       <c r="K72">
-        <v>7.18434E-3</v>
+        <v>7.99564E-3</v>
       </c>
       <c r="L72">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N72">
         <v>4.8580699999999997</v>
       </c>
       <c r="O72">
-        <v>4.4906399999999997E-3</v>
+        <v>5.0300700000000002E-3</v>
       </c>
       <c r="P72">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
@@ -19027,28 +19027,28 @@
         <v>4.8921799999999998</v>
       </c>
       <c r="G73">
-        <v>6.3181599999999997E-3</v>
+        <v>6.3838300000000001E-3</v>
       </c>
       <c r="H73">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J73">
         <v>5.6459299999999999</v>
       </c>
       <c r="K73">
-        <v>7.3572300000000002E-3</v>
+        <v>7.9246999999999998E-3</v>
       </c>
       <c r="L73">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N73">
         <v>4.7337499999999997</v>
       </c>
       <c r="O73">
-        <v>6.42999E-3</v>
+        <v>5.36544E-3</v>
       </c>
       <c r="P73">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
@@ -19068,28 +19068,28 @@
         <v>4.7047600000000003</v>
       </c>
       <c r="G74">
-        <v>6.9806699999999996E-3</v>
+        <v>1.04245E-2</v>
       </c>
       <c r="H74">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J74">
         <v>5.31351</v>
       </c>
       <c r="K74">
-        <v>8.9248299999999999E-3</v>
+        <v>6.4121899999999999E-3</v>
       </c>
       <c r="L74">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N74">
         <v>4.7047600000000003</v>
       </c>
       <c r="O74">
-        <v>4.1601199999999998E-3</v>
+        <v>8.6733299999999999E-3</v>
       </c>
       <c r="P74">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
@@ -19109,28 +19109,28 @@
         <v>4.7990199999999996</v>
       </c>
       <c r="G75">
-        <v>1.26126E-2</v>
+        <v>1.56063E-2</v>
       </c>
       <c r="H75">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J75">
         <v>5.2511599999999996</v>
       </c>
       <c r="K75">
-        <v>1.06561E-2</v>
+        <v>1.1081300000000001E-2</v>
       </c>
       <c r="L75">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N75">
         <v>4.6562400000000004</v>
       </c>
       <c r="O75">
-        <v>7.6087000000000004E-3</v>
+        <v>6.5246200000000001E-3</v>
       </c>
       <c r="P75">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
@@ -19150,28 +19150,28 @@
         <v>4.6133699999999997</v>
       </c>
       <c r="G76">
-        <v>1.23625E-2</v>
+        <v>1.65977E-2</v>
       </c>
       <c r="H76">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J76">
         <v>5.0258599999999998</v>
       </c>
       <c r="K76">
-        <v>1.23292E-2</v>
+        <v>1.11556E-2</v>
       </c>
       <c r="L76">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N76">
         <v>4.4831099999999999</v>
       </c>
       <c r="O76">
-        <v>6.7983799999999997E-3</v>
+        <v>6.1486500000000003E-3</v>
       </c>
       <c r="P76">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
@@ -19191,28 +19191,28 @@
         <v>4.5687100000000003</v>
       </c>
       <c r="G77">
-        <v>1.40369E-2</v>
+        <v>1.9661100000000001E-2</v>
       </c>
       <c r="H77">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J77">
         <v>4.9716399999999998</v>
       </c>
       <c r="K77">
-        <v>2.3197599999999999E-2</v>
+        <v>2.0343300000000002E-2</v>
       </c>
       <c r="L77">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N77">
         <v>4.4388399999999999</v>
       </c>
       <c r="O77">
-        <v>1.1277000000000001E-2</v>
+        <v>1.0599900000000001E-2</v>
       </c>
       <c r="P77">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
@@ -19232,28 +19232,28 @@
         <v>4.3662799999999997</v>
       </c>
       <c r="G78">
-        <v>2.0669300000000002E-2</v>
+        <v>2.0536800000000001E-2</v>
       </c>
       <c r="H78">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J78">
         <v>4.7362500000000001</v>
       </c>
       <c r="K78">
-        <v>2.0125400000000002E-2</v>
+        <v>1.9337900000000002E-2</v>
       </c>
       <c r="L78">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N78">
         <v>4.2470299999999996</v>
       </c>
       <c r="O78">
-        <v>1.21523E-2</v>
+        <v>7.7757099999999999E-3</v>
       </c>
       <c r="P78">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
@@ -19273,28 +19273,28 @@
         <v>4.3478300000000001</v>
       </c>
       <c r="G79">
-        <v>1.39138E-2</v>
+        <v>2.2459400000000001E-2</v>
       </c>
       <c r="H79">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J79">
         <v>4.7103799999999998</v>
       </c>
       <c r="K79">
-        <v>2.5620500000000001E-2</v>
+        <v>2.42601E-2</v>
       </c>
       <c r="L79">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N79">
         <v>4.2317</v>
       </c>
       <c r="O79">
-        <v>1.3755E-2</v>
+        <v>8.5936099999999998E-3</v>
       </c>
       <c r="P79">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
@@ -19314,28 +19314,28 @@
         <v>4.5438599999999996</v>
       </c>
       <c r="G80">
-        <v>1.5973000000000001E-2</v>
+        <v>2.8105600000000001E-2</v>
       </c>
       <c r="H80">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J80">
         <v>4.5438599999999996</v>
       </c>
       <c r="K80">
-        <v>2.09985E-2</v>
+        <v>2.3918499999999999E-2</v>
       </c>
       <c r="L80">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N80">
         <v>4.1017700000000001</v>
       </c>
       <c r="O80">
-        <v>2.0412699999999999E-2</v>
+        <v>8.3874099999999997E-3</v>
       </c>
       <c r="P80">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
@@ -19355,28 +19355,28 @@
         <v>4.4762399999999998</v>
       </c>
       <c r="G81">
-        <v>1.9726299999999999E-2</v>
+        <v>2.7286299999999999E-2</v>
       </c>
       <c r="H81">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J81">
         <v>4.4762399999999998</v>
       </c>
       <c r="K81">
-        <v>1.90338E-2</v>
+        <v>3.6533000000000003E-2</v>
       </c>
       <c r="L81">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N81">
         <v>4.0393600000000003</v>
       </c>
       <c r="O81">
-        <v>2.281E-2</v>
+        <v>2.3272399999999999E-2</v>
       </c>
       <c r="P81">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
@@ -19396,28 +19396,28 @@
         <v>4.33385</v>
       </c>
       <c r="G82">
-        <v>1.50583E-2</v>
+        <v>2.6884700000000001E-2</v>
       </c>
       <c r="H82">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J82">
         <v>4.33385</v>
       </c>
       <c r="K82">
-        <v>2.07613E-2</v>
+        <v>3.7421099999999999E-2</v>
       </c>
       <c r="L82">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N82">
         <v>3.9283299999999999</v>
       </c>
       <c r="O82">
-        <v>1.6504100000000001E-2</v>
+        <v>2.1166299999999999E-2</v>
       </c>
       <c r="P82">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
@@ -19437,28 +19437,28 @@
         <v>4.2774900000000002</v>
       </c>
       <c r="G83">
-        <v>4.4165799999999998E-2</v>
+        <v>3.4817899999999999E-2</v>
       </c>
       <c r="H83">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J83">
         <v>4.2774900000000002</v>
       </c>
       <c r="K83">
-        <v>4.1683900000000003E-2</v>
+        <v>4.07847E-2</v>
       </c>
       <c r="L83">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N83">
         <v>3.87588</v>
       </c>
       <c r="O83">
-        <v>1.9627200000000001E-2</v>
+        <v>2.10254E-2</v>
       </c>
       <c r="P83">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
@@ -19478,28 +19478,28 @@
         <v>4.1545899999999998</v>
       </c>
       <c r="G84">
-        <v>3.8247200000000002E-2</v>
+        <v>1.7681100000000002E-2</v>
       </c>
       <c r="H84">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J84">
         <v>4.1545899999999998</v>
       </c>
       <c r="K84">
-        <v>3.9821799999999997E-2</v>
+        <v>2.5942E-2</v>
       </c>
       <c r="L84">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N84">
         <v>3.7801399999999998</v>
       </c>
       <c r="O84">
-        <v>2.4739199999999999E-2</v>
+        <v>1.6020300000000001E-2</v>
       </c>
       <c r="P84">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
@@ -19519,28 +19519,28 @@
         <v>4.1069300000000002</v>
       </c>
       <c r="G85">
-        <v>5.3116900000000002E-2</v>
+        <v>4.8092900000000001E-2</v>
       </c>
       <c r="H85">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J85">
         <v>4.1069300000000002</v>
       </c>
       <c r="K85">
-        <v>4.9406100000000001E-2</v>
+        <v>5.3844200000000002E-2</v>
       </c>
       <c r="L85">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N85">
         <v>3.7354400000000001</v>
       </c>
       <c r="O85">
-        <v>1.7165099999999999E-2</v>
+        <v>3.2960299999999998E-2</v>
       </c>
       <c r="P85">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
@@ -19560,28 +19560,28 @@
         <v>3.9999500000000001</v>
       </c>
       <c r="G86">
-        <v>4.8366699999999999E-2</v>
+        <v>5.8112200000000003E-2</v>
       </c>
       <c r="H86">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J86">
         <v>3.9999500000000001</v>
       </c>
       <c r="K86">
-        <v>5.01114E-2</v>
+        <v>5.7965500000000003E-2</v>
       </c>
       <c r="L86">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N86">
         <v>3.6522100000000002</v>
       </c>
       <c r="O86">
-        <v>2.69965E-2</v>
+        <v>1.9438400000000002E-2</v>
       </c>
       <c r="P86">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
@@ -19601,28 +19601,28 @@
         <v>3.9583300000000001</v>
       </c>
       <c r="G87">
-        <v>2.9429799999999999E-2</v>
+        <v>6.2299300000000002E-2</v>
       </c>
       <c r="H87">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J87">
         <v>3.9583300000000001</v>
       </c>
       <c r="K87">
-        <v>2.3187200000000002E-2</v>
+        <v>2.9235799999999999E-2</v>
       </c>
       <c r="L87">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N87">
         <v>3.6129099999999998</v>
       </c>
       <c r="O87">
-        <v>3.7774000000000002E-2</v>
+        <v>3.57045E-2</v>
       </c>
       <c r="P87">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
@@ -19642,28 +19642,28 @@
         <v>3.8645999999999998</v>
       </c>
       <c r="G88">
-        <v>3.4474999999999999E-2</v>
+        <v>6.8236699999999997E-2</v>
       </c>
       <c r="H88">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J88">
         <v>3.8645999999999998</v>
       </c>
       <c r="K88">
-        <v>6.0381700000000003E-2</v>
+        <v>6.3083200000000006E-2</v>
       </c>
       <c r="L88">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N88">
         <v>3.5400900000000002</v>
       </c>
       <c r="O88">
-        <v>4.2155900000000003E-2</v>
+        <v>2.5497200000000001E-2</v>
       </c>
       <c r="P88">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
@@ -19683,28 +19683,28 @@
         <v>3.8304</v>
       </c>
       <c r="G89">
-        <v>6.8584199999999998E-2</v>
+        <v>7.5319899999999995E-2</v>
       </c>
       <c r="H89">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J89">
         <v>3.8304</v>
       </c>
       <c r="K89">
-        <v>6.3126799999999997E-2</v>
+        <v>7.4740699999999993E-2</v>
       </c>
       <c r="L89">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N89">
         <v>3.5097299999999998</v>
       </c>
       <c r="O89">
-        <v>4.6206299999999999E-2</v>
+        <v>4.5649799999999997E-2</v>
       </c>
       <c r="P89">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
@@ -19724,28 +19724,28 @@
         <v>3.7478199999999999</v>
       </c>
       <c r="G90">
-        <v>8.1472199999999995E-2</v>
+        <v>4.1378900000000003E-2</v>
       </c>
       <c r="H90">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J90">
         <v>3.7478199999999999</v>
       </c>
       <c r="K90">
-        <v>8.0825400000000006E-2</v>
+        <v>7.4952699999999997E-2</v>
       </c>
       <c r="L90">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N90">
         <v>3.4455499999999999</v>
       </c>
       <c r="O90">
-        <v>5.1098900000000003E-2</v>
+        <v>6.00066E-2</v>
       </c>
       <c r="P90">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
@@ -19765,28 +19765,28 @@
         <v>3.71251</v>
       </c>
       <c r="G91">
-        <v>7.5632400000000002E-2</v>
+        <v>8.7747900000000004E-2</v>
       </c>
       <c r="H91">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J91">
         <v>3.71251</v>
       </c>
       <c r="K91">
-        <v>7.9953700000000003E-2</v>
+        <v>4.3656100000000003E-2</v>
       </c>
       <c r="L91">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N91">
         <v>3.4120300000000001</v>
       </c>
       <c r="O91">
-        <v>3.30364E-2</v>
+        <v>6.4272300000000004E-2</v>
       </c>
       <c r="P91">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.3">
@@ -19806,28 +19806,28 @@
         <v>3.63951</v>
       </c>
       <c r="G92">
-        <v>7.6910699999999999E-2</v>
+        <v>9.5545000000000005E-2</v>
       </c>
       <c r="H92">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J92">
         <v>3.63951</v>
       </c>
       <c r="K92">
-        <v>9.4273200000000001E-2</v>
+        <v>3.4467699999999997E-2</v>
       </c>
       <c r="L92">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N92">
         <v>3.3554200000000001</v>
       </c>
       <c r="O92">
-        <v>3.3738400000000002E-2</v>
+        <v>7.1263499999999994E-2</v>
       </c>
       <c r="P92">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
@@ -19847,28 +19847,28 @@
         <v>3.6074600000000001</v>
       </c>
       <c r="G93">
-        <v>6.3582100000000003E-2</v>
+        <v>9.9986400000000003E-2</v>
       </c>
       <c r="H93">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J93">
         <v>3.6074600000000001</v>
       </c>
       <c r="K93">
-        <v>8.0746499999999999E-2</v>
+        <v>9.9650600000000006E-2</v>
       </c>
       <c r="L93">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N93">
         <v>3.3249399999999998</v>
       </c>
       <c r="O93">
-        <v>3.7860199999999997E-2</v>
+        <v>7.3838200000000007E-2</v>
       </c>
       <c r="P93">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.3">
@@ -19888,28 +19888,28 @@
         <v>1.1764699999999999</v>
       </c>
       <c r="G94">
-        <v>1.6126700000000001E-3</v>
+        <v>2.3514400000000002E-3</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94">
         <v>1.1764699999999999</v>
       </c>
       <c r="K94">
-        <v>2.0210200000000001E-3</v>
+        <v>1.9290500000000001E-3</v>
       </c>
       <c r="L94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N94">
         <v>1.1764699999999999</v>
       </c>
       <c r="O94">
-        <v>1.6406999999999999E-3</v>
+        <v>2.3625999999999999E-3</v>
       </c>
       <c r="P94">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
@@ -19929,28 +19929,28 @@
         <v>3.5426099999999998</v>
       </c>
       <c r="G95">
-        <v>9.1906100000000004E-2</v>
+        <v>0.10750899999999999</v>
       </c>
       <c r="H95">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J95">
         <v>3.5426099999999998</v>
       </c>
       <c r="K95">
-        <v>0.106535</v>
+        <v>0.108641</v>
       </c>
       <c r="L95">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N95">
         <v>3.2747700000000002</v>
       </c>
       <c r="O95">
-        <v>2.9310699999999999E-2</v>
+        <v>7.5264499999999998E-2</v>
       </c>
       <c r="P95">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
@@ -19970,28 +19970,28 @@
         <v>3.5133800000000002</v>
       </c>
       <c r="G96">
-        <v>0.107456</v>
+        <v>5.8260800000000001E-2</v>
       </c>
       <c r="H96">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J96">
         <v>3.5133800000000002</v>
       </c>
       <c r="K96">
-        <v>9.5722299999999996E-2</v>
+        <v>0.11783399999999999</v>
       </c>
       <c r="L96">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N96">
         <v>3.2469199999999998</v>
       </c>
       <c r="O96">
-        <v>5.3872999999999997E-2</v>
+        <v>8.6272199999999993E-2</v>
       </c>
       <c r="P96">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
@@ -20011,28 +20011,28 @@
         <v>3.4554999999999998</v>
       </c>
       <c r="G97">
-        <v>0.11741799999999999</v>
+        <v>9.8529900000000004E-2</v>
       </c>
       <c r="H97">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J97">
         <v>3.4554999999999998</v>
       </c>
       <c r="K97">
-        <v>0.10490099999999999</v>
+        <v>0.124283</v>
       </c>
       <c r="L97">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N97">
         <v>3.2022599999999999</v>
       </c>
       <c r="O97">
-        <v>9.0151200000000001E-2</v>
+        <v>3.2992100000000003E-2</v>
       </c>
       <c r="P97">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
@@ -20052,28 +20052,28 @@
         <v>3.4287100000000001</v>
       </c>
       <c r="G98">
-        <v>0.10926900000000001</v>
+        <v>0.119329</v>
       </c>
       <c r="H98">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J98">
         <v>3.4287100000000001</v>
       </c>
       <c r="K98">
-        <v>0.12592600000000001</v>
+        <v>0.10668999999999999</v>
       </c>
       <c r="L98">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N98">
         <v>3.1766899999999998</v>
       </c>
       <c r="O98">
-        <v>5.1253399999999998E-2</v>
+        <v>9.9149699999999993E-2</v>
       </c>
       <c r="P98">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
@@ -20093,28 +20093,28 @@
         <v>3.3768400000000001</v>
       </c>
       <c r="G99">
-        <v>0.142955</v>
+        <v>6.7035800000000006E-2</v>
       </c>
       <c r="H99">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J99">
         <v>3.3768400000000001</v>
       </c>
       <c r="K99">
-        <v>0.142316</v>
+        <v>6.7575499999999997E-2</v>
       </c>
       <c r="L99">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N99">
         <v>3.1367699999999998</v>
       </c>
       <c r="O99">
-        <v>7.3680599999999999E-2</v>
+        <v>0.104757</v>
       </c>
       <c r="P99">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -32168,6 +32168,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="R1:T1"/>
     <mergeCell ref="AX1:AZ1"/>
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AD1:AF1"/>
@@ -32175,12 +32181,6 @@
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="AP1:AR1"/>
     <mergeCell ref="AT1:AV1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="V1:X1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/doc/results/large_w0.xlsx
+++ b/doc/results/large_w0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="exact A2 vs exact A3" sheetId="1" r:id="rId1"/>
@@ -450,7 +450,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,13 +466,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -484,10 +496,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -496,8 +509,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -802,7 +820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -3885,10 +3903,14 @@
   <dimension ref="A1:P99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:P2"/>
+      <selection activeCell="J2" sqref="J1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="8" width="8.88671875" style="5"/>
+    <col min="10" max="12" width="8.88671875" style="5"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
@@ -3897,16 +3919,16 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
       <c r="N1" s="3" t="s">
         <v>107</v>
       </c>
@@ -3926,22 +3948,22 @@
       <c r="D2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="5" t="s">
         <v>102</v>
       </c>
       <c r="N2" s="1" t="s">
@@ -3967,24 +3989,6 @@
       <c r="D3">
         <v>8</v>
       </c>
-      <c r="F3">
-        <v>22.140799999999999</v>
-      </c>
-      <c r="G3">
-        <v>1.0516900000000001E-3</v>
-      </c>
-      <c r="H3">
-        <v>26</v>
-      </c>
-      <c r="J3">
-        <v>18.914999999999999</v>
-      </c>
-      <c r="K3">
-        <v>9.0757100000000003E-4</v>
-      </c>
-      <c r="L3">
-        <v>19</v>
-      </c>
       <c r="N3">
         <v>3.21611</v>
       </c>
@@ -4008,24 +4012,6 @@
       <c r="D4">
         <v>8</v>
       </c>
-      <c r="F4">
-        <v>22.862100000000002</v>
-      </c>
-      <c r="G4">
-        <v>7.9737199999999997E-4</v>
-      </c>
-      <c r="H4">
-        <v>27</v>
-      </c>
-      <c r="J4">
-        <v>19.784500000000001</v>
-      </c>
-      <c r="K4">
-        <v>1.4528099999999999E-3</v>
-      </c>
-      <c r="L4">
-        <v>20</v>
-      </c>
       <c r="N4">
         <v>3.17564</v>
       </c>
@@ -4049,24 +4035,6 @@
       <c r="D5">
         <v>8</v>
       </c>
-      <c r="F5">
-        <v>20.067599999999999</v>
-      </c>
-      <c r="G5">
-        <v>1.6508499999999999E-3</v>
-      </c>
-      <c r="H5">
-        <v>21</v>
-      </c>
-      <c r="J5">
-        <v>20.9465</v>
-      </c>
-      <c r="K5">
-        <v>7.5271699999999997E-4</v>
-      </c>
-      <c r="L5">
-        <v>21</v>
-      </c>
       <c r="N5">
         <v>3.1515200000000001</v>
       </c>
@@ -4090,24 +4058,6 @@
       <c r="D6">
         <v>8</v>
       </c>
-      <c r="F6">
-        <v>23.7182</v>
-      </c>
-      <c r="G6">
-        <v>2.3881499999999999E-3</v>
-      </c>
-      <c r="H6">
-        <v>28</v>
-      </c>
-      <c r="J6">
-        <v>20.643599999999999</v>
-      </c>
-      <c r="K6">
-        <v>2.0763499999999998E-3</v>
-      </c>
-      <c r="L6">
-        <v>21</v>
-      </c>
       <c r="N6">
         <v>3.1151</v>
       </c>
@@ -4131,24 +4081,6 @@
       <c r="D7">
         <v>8</v>
       </c>
-      <c r="F7">
-        <v>23.4146</v>
-      </c>
-      <c r="G7">
-        <v>2.3539899999999998E-3</v>
-      </c>
-      <c r="H7">
-        <v>27</v>
-      </c>
-      <c r="J7">
-        <v>20.9268</v>
-      </c>
-      <c r="K7">
-        <v>1.05883E-3</v>
-      </c>
-      <c r="L7">
-        <v>21</v>
-      </c>
       <c r="N7">
         <v>3.0927799999999999</v>
       </c>
@@ -4172,24 +4104,6 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="F8">
-        <v>2.5862099999999999</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="J8">
-        <v>2.9310299999999998</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
       <c r="N8">
         <v>1.2096800000000001</v>
       </c>
@@ -4213,24 +4127,6 @@
       <c r="D9">
         <v>8</v>
       </c>
-      <c r="F9">
-        <v>24.5745</v>
-      </c>
-      <c r="G9">
-        <v>1.3124899999999999E-3</v>
-      </c>
-      <c r="H9">
-        <v>29</v>
-      </c>
-      <c r="J9">
-        <v>20.625</v>
-      </c>
-      <c r="K9">
-        <v>1.0606299999999999E-3</v>
-      </c>
-      <c r="L9">
-        <v>21</v>
-      </c>
       <c r="N9">
         <v>3.0598999999999998</v>
       </c>
@@ -4253,24 +4149,6 @@
       </c>
       <c r="D10">
         <v>8</v>
-      </c>
-      <c r="F10">
-        <v>24.4178</v>
-      </c>
-      <c r="G10">
-        <v>1.33892E-3</v>
-      </c>
-      <c r="H10">
-        <v>29</v>
-      </c>
-      <c r="J10">
-        <v>20.9086</v>
-      </c>
-      <c r="K10">
-        <v>2.1335299999999998E-3</v>
-      </c>
-      <c r="L10">
-        <v>21</v>
       </c>
       <c r="N10">
         <v>3.0391699999999999</v>
@@ -4295,24 +4173,6 @@
       <c r="D11">
         <v>8</v>
       </c>
-      <c r="F11">
-        <v>25.576899999999998</v>
-      </c>
-      <c r="G11">
-        <v>1.40784E-3</v>
-      </c>
-      <c r="H11">
-        <v>30</v>
-      </c>
-      <c r="J11">
-        <v>21.776900000000001</v>
-      </c>
-      <c r="K11">
-        <v>1.17264E-3</v>
-      </c>
-      <c r="L11">
-        <v>22</v>
-      </c>
       <c r="N11">
         <v>3.0093800000000002</v>
       </c>
@@ -4336,24 +4196,6 @@
       <c r="D12">
         <v>8</v>
       </c>
-      <c r="F12">
-        <v>25.566700000000001</v>
-      </c>
-      <c r="G12">
-        <v>2.5776900000000001E-3</v>
-      </c>
-      <c r="H12">
-        <v>30</v>
-      </c>
-      <c r="J12">
-        <v>21.7683</v>
-      </c>
-      <c r="K12">
-        <v>2.3748100000000002E-3</v>
-      </c>
-      <c r="L12">
-        <v>22</v>
-      </c>
       <c r="N12">
         <v>2.9899100000000001</v>
       </c>
@@ -4376,24 +4218,6 @@
       </c>
       <c r="D13">
         <v>8</v>
-      </c>
-      <c r="F13">
-        <v>26.287099999999999</v>
-      </c>
-      <c r="G13">
-        <v>1.4737400000000001E-3</v>
-      </c>
-      <c r="H13">
-        <v>31</v>
-      </c>
-      <c r="J13">
-        <v>22.636099999999999</v>
-      </c>
-      <c r="K13">
-        <v>1.28291E-3</v>
-      </c>
-      <c r="L13">
-        <v>23</v>
       </c>
       <c r="N13">
         <v>2.9628399999999999</v>
@@ -4418,24 +4242,6 @@
       <c r="D14">
         <v>8</v>
       </c>
-      <c r="F14">
-        <v>23.0657</v>
-      </c>
-      <c r="G14">
-        <v>2.32921E-3</v>
-      </c>
-      <c r="H14">
-        <v>24</v>
-      </c>
-      <c r="J14">
-        <v>22.919699999999999</v>
-      </c>
-      <c r="K14">
-        <v>2.55404E-3</v>
-      </c>
-      <c r="L14">
-        <v>23</v>
-      </c>
       <c r="N14">
         <v>2.9476599999999999</v>
       </c>
@@ -4459,24 +4265,6 @@
       <c r="D15">
         <v>8</v>
       </c>
-      <c r="F15">
-        <v>22.9115</v>
-      </c>
-      <c r="G15">
-        <v>2.3492299999999999E-3</v>
-      </c>
-      <c r="H15">
-        <v>24</v>
-      </c>
-      <c r="J15">
-        <v>22.619599999999998</v>
-      </c>
-      <c r="K15">
-        <v>2.5871000000000002E-3</v>
-      </c>
-      <c r="L15">
-        <v>23</v>
-      </c>
       <c r="N15">
         <v>2.92292</v>
       </c>
@@ -4500,24 +4288,6 @@
       <c r="D16">
         <v>8</v>
       </c>
-      <c r="F16">
-        <v>27.425899999999999</v>
-      </c>
-      <c r="G16">
-        <v>2.9080400000000002E-3</v>
-      </c>
-      <c r="H16">
-        <v>32</v>
-      </c>
-      <c r="J16">
-        <v>22.903500000000001</v>
-      </c>
-      <c r="K16">
-        <v>2.6319300000000002E-3</v>
-      </c>
-      <c r="L16">
-        <v>23</v>
-      </c>
       <c r="N16">
         <v>2.9058999999999999</v>
       </c>
@@ -4541,24 +4311,6 @@
       <c r="D17">
         <v>8</v>
       </c>
-      <c r="F17">
-        <v>28</v>
-      </c>
-      <c r="G17">
-        <v>1.6634499999999999E-3</v>
-      </c>
-      <c r="H17">
-        <v>33</v>
-      </c>
-      <c r="J17">
-        <v>23.770800000000001</v>
-      </c>
-      <c r="K17">
-        <v>1.00216E-3</v>
-      </c>
-      <c r="L17">
-        <v>24</v>
-      </c>
       <c r="N17">
         <v>2.8833000000000002</v>
       </c>
@@ -4582,24 +4334,6 @@
       <c r="D18">
         <v>8</v>
       </c>
-      <c r="F18">
-        <v>27.9909</v>
-      </c>
-      <c r="G18">
-        <v>1.1757499999999999E-3</v>
-      </c>
-      <c r="H18">
-        <v>33</v>
-      </c>
-      <c r="J18">
-        <v>24.929400000000001</v>
-      </c>
-      <c r="K18">
-        <v>1.49222E-3</v>
-      </c>
-      <c r="L18">
-        <v>25</v>
-      </c>
       <c r="N18">
         <v>2.8673000000000002</v>
       </c>
@@ -4623,24 +4357,6 @@
       <c r="D19">
         <v>2</v>
       </c>
-      <c r="F19">
-        <v>2.8333300000000001</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>3</v>
-      </c>
-      <c r="J19">
-        <v>3</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>3</v>
-      </c>
       <c r="N19">
         <v>2.0181800000000001</v>
       </c>
@@ -4664,24 +4380,6 @@
       <c r="D20">
         <v>8</v>
       </c>
-      <c r="F20">
-        <v>29.002199999999998</v>
-      </c>
-      <c r="G20">
-        <v>3.4982799999999999E-3</v>
-      </c>
-      <c r="H20">
-        <v>34</v>
-      </c>
-      <c r="J20">
-        <v>24.63</v>
-      </c>
-      <c r="K20">
-        <v>3.0174500000000001E-3</v>
-      </c>
-      <c r="L20">
-        <v>25</v>
-      </c>
       <c r="N20">
         <v>2.8466100000000001</v>
       </c>
@@ -4705,24 +4403,6 @@
       <c r="D21">
         <v>8</v>
       </c>
-      <c r="F21">
-        <v>25.0596</v>
-      </c>
-      <c r="G21">
-        <v>2.7464E-3</v>
-      </c>
-      <c r="H21">
-        <v>26</v>
-      </c>
-      <c r="J21">
-        <v>24.913900000000002</v>
-      </c>
-      <c r="K21">
-        <v>2.9082000000000001E-3</v>
-      </c>
-      <c r="L21">
-        <v>25</v>
-      </c>
       <c r="N21">
         <v>2.8315199999999998</v>
       </c>
@@ -4746,24 +4426,6 @@
       <c r="D22">
         <v>8</v>
       </c>
-      <c r="F22">
-        <v>24.906500000000001</v>
-      </c>
-      <c r="G22">
-        <v>2.5106799999999999E-3</v>
-      </c>
-      <c r="H22">
-        <v>26</v>
-      </c>
-      <c r="J22">
-        <v>24.615200000000002</v>
-      </c>
-      <c r="K22">
-        <v>2.3292600000000001E-3</v>
-      </c>
-      <c r="L22">
-        <v>25</v>
-      </c>
       <c r="N22">
         <v>2.8125499999999999</v>
       </c>
@@ -4787,24 +4449,6 @@
       <c r="D23">
         <v>8</v>
       </c>
-      <c r="F23">
-        <v>29.704499999999999</v>
-      </c>
-      <c r="G23">
-        <v>3.74866E-3</v>
-      </c>
-      <c r="H23">
-        <v>35</v>
-      </c>
-      <c r="J23">
-        <v>24.8994</v>
-      </c>
-      <c r="K23">
-        <v>1.55685E-3</v>
-      </c>
-      <c r="L23">
-        <v>25</v>
-      </c>
       <c r="N23">
         <v>2.7982900000000002</v>
       </c>
@@ -4828,24 +4472,6 @@
       <c r="D24">
         <v>8</v>
       </c>
-      <c r="F24">
-        <v>25.765799999999999</v>
-      </c>
-      <c r="G24">
-        <v>1.48351E-3</v>
-      </c>
-      <c r="H24">
-        <v>27</v>
-      </c>
-      <c r="J24">
-        <v>25.765799999999999</v>
-      </c>
-      <c r="K24">
-        <v>1.6688300000000001E-3</v>
-      </c>
-      <c r="L24">
-        <v>26</v>
-      </c>
       <c r="N24">
         <v>2.78084</v>
       </c>
@@ -4869,24 +4495,6 @@
       <c r="D25">
         <v>8</v>
       </c>
-      <c r="F25">
-        <v>30.852399999999999</v>
-      </c>
-      <c r="G25">
-        <v>4.0934200000000004E-3</v>
-      </c>
-      <c r="H25">
-        <v>36</v>
-      </c>
-      <c r="J25">
-        <v>26.923100000000002</v>
-      </c>
-      <c r="K25">
-        <v>3.48388E-3</v>
-      </c>
-      <c r="L25">
-        <v>27</v>
-      </c>
       <c r="N25">
         <v>2.7692999999999999</v>
       </c>
@@ -4910,24 +4518,6 @@
       <c r="D26">
         <v>8</v>
       </c>
-      <c r="F26">
-        <v>26.625</v>
-      </c>
-      <c r="G26">
-        <v>1.5788499999999999E-3</v>
-      </c>
-      <c r="H26">
-        <v>28</v>
-      </c>
-      <c r="J26">
-        <v>26.625</v>
-      </c>
-      <c r="K26">
-        <v>3.2784300000000001E-3</v>
-      </c>
-      <c r="L26">
-        <v>27</v>
-      </c>
       <c r="N26">
         <v>2.7531699999999999</v>
       </c>
@@ -4951,24 +4541,6 @@
       <c r="D27">
         <v>8</v>
       </c>
-      <c r="F27">
-        <v>30.836400000000001</v>
-      </c>
-      <c r="G27">
-        <v>2.9244499999999999E-3</v>
-      </c>
-      <c r="H27">
-        <v>36</v>
-      </c>
-      <c r="J27">
-        <v>26.909099999999999</v>
-      </c>
-      <c r="K27">
-        <v>1.8363699999999999E-3</v>
-      </c>
-      <c r="L27">
-        <v>27</v>
-      </c>
       <c r="N27">
         <v>2.7402899999999999</v>
       </c>
@@ -4992,24 +4564,6 @@
       <c r="D28">
         <v>8</v>
       </c>
-      <c r="F28">
-        <v>32.282899999999998</v>
-      </c>
-      <c r="G28">
-        <v>2.33454E-3</v>
-      </c>
-      <c r="H28">
-        <v>38</v>
-      </c>
-      <c r="J28">
-        <v>26.611499999999999</v>
-      </c>
-      <c r="K28">
-        <v>1.84939E-3</v>
-      </c>
-      <c r="L28">
-        <v>27</v>
-      </c>
       <c r="N28">
         <v>2.7254100000000001</v>
       </c>
@@ -5033,24 +4587,6 @@
       <c r="D29">
         <v>8</v>
       </c>
-      <c r="F29">
-        <v>32.565800000000003</v>
-      </c>
-      <c r="G29">
-        <v>4.1046900000000002E-3</v>
-      </c>
-      <c r="H29">
-        <v>38</v>
-      </c>
-      <c r="J29">
-        <v>26.895900000000001</v>
-      </c>
-      <c r="K29">
-        <v>2.8679E-3</v>
-      </c>
-      <c r="L29">
-        <v>27</v>
-      </c>
       <c r="N29">
         <v>2.7131599999999998</v>
       </c>
@@ -5074,24 +4610,6 @@
       <c r="D30">
         <v>2</v>
       </c>
-      <c r="F30">
-        <v>3.4186000000000001</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>4</v>
-      </c>
-      <c r="J30">
-        <v>2.7674400000000001</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>3</v>
-      </c>
       <c r="N30">
         <v>2.10405</v>
       </c>
@@ -5115,24 +4633,6 @@
       <c r="D31">
         <v>8</v>
       </c>
-      <c r="F31">
-        <v>33.139499999999998</v>
-      </c>
-      <c r="G31">
-        <v>2.3419500000000002E-3</v>
-      </c>
-      <c r="H31">
-        <v>39</v>
-      </c>
-      <c r="J31">
-        <v>27.761600000000001</v>
-      </c>
-      <c r="K31">
-        <v>2.7350400000000002E-3</v>
-      </c>
-      <c r="L31">
-        <v>28</v>
-      </c>
       <c r="N31">
         <v>2.6993999999999998</v>
       </c>
@@ -5156,24 +4656,6 @@
       <c r="D32">
         <v>8</v>
       </c>
-      <c r="F32">
-        <v>33.131900000000002</v>
-      </c>
-      <c r="G32">
-        <v>2.3382300000000002E-3</v>
-      </c>
-      <c r="H32">
-        <v>39</v>
-      </c>
-      <c r="J32">
-        <v>27.755299999999998</v>
-      </c>
-      <c r="K32">
-        <v>2.9703300000000002E-3</v>
-      </c>
-      <c r="L32">
-        <v>28</v>
-      </c>
       <c r="N32">
         <v>2.6877399999999998</v>
       </c>
@@ -5197,24 +4679,6 @@
       <c r="D33">
         <v>8</v>
       </c>
-      <c r="F33">
-        <v>28.330200000000001</v>
-      </c>
-      <c r="G33">
-        <v>3.4384799999999998E-3</v>
-      </c>
-      <c r="H33">
-        <v>29</v>
-      </c>
-      <c r="J33">
-        <v>28.620799999999999</v>
-      </c>
-      <c r="K33">
-        <v>3.2284599999999998E-3</v>
-      </c>
-      <c r="L33">
-        <v>29</v>
-      </c>
       <c r="N33">
         <v>2.6749999999999998</v>
       </c>
@@ -5238,24 +4702,6 @@
       <c r="D34">
         <v>8</v>
       </c>
-      <c r="F34">
-        <v>34.279299999999999</v>
-      </c>
-      <c r="G34">
-        <v>3.6271400000000001E-3</v>
-      </c>
-      <c r="H34">
-        <v>40</v>
-      </c>
-      <c r="J34">
-        <v>28.905000000000001</v>
-      </c>
-      <c r="K34">
-        <v>3.8539999999999998E-3</v>
-      </c>
-      <c r="L34">
-        <v>29</v>
-      </c>
       <c r="N34">
         <v>2.6637499999999998</v>
       </c>
@@ -5279,24 +4725,6 @@
       <c r="D35">
         <v>8</v>
       </c>
-      <c r="F35">
-        <v>34.852899999999998</v>
-      </c>
-      <c r="G35">
-        <v>3.1136200000000001E-3</v>
-      </c>
-      <c r="H35">
-        <v>41</v>
-      </c>
-      <c r="J35">
-        <v>28.6084</v>
-      </c>
-      <c r="K35">
-        <v>3.3325300000000002E-3</v>
-      </c>
-      <c r="L35">
-        <v>29</v>
-      </c>
       <c r="N35">
         <v>2.6519400000000002</v>
       </c>
@@ -5320,24 +4748,6 @@
       <c r="D36">
         <v>8</v>
       </c>
-      <c r="F36">
-        <v>34.700499999999998</v>
-      </c>
-      <c r="G36">
-        <v>3.94028E-3</v>
-      </c>
-      <c r="H36">
-        <v>41</v>
-      </c>
-      <c r="J36">
-        <v>28.892900000000001</v>
-      </c>
-      <c r="K36">
-        <v>2.1584400000000002E-3</v>
-      </c>
-      <c r="L36">
-        <v>29</v>
-      </c>
       <c r="N36">
         <v>2.6429</v>
       </c>
@@ -5361,24 +4771,6 @@
       <c r="D37">
         <v>8</v>
       </c>
-      <c r="F37">
-        <v>35.564500000000002</v>
-      </c>
-      <c r="G37">
-        <v>5.3139900000000002E-3</v>
-      </c>
-      <c r="H37">
-        <v>42</v>
-      </c>
-      <c r="J37">
-        <v>29.758099999999999</v>
-      </c>
-      <c r="K37">
-        <v>2.2798800000000002E-3</v>
-      </c>
-      <c r="L37">
-        <v>30</v>
-      </c>
       <c r="N37">
         <v>2.6318999999999999</v>
       </c>
@@ -5402,24 +4794,6 @@
       <c r="D38">
         <v>8</v>
       </c>
-      <c r="F38">
-        <v>35.847799999999999</v>
-      </c>
-      <c r="G38">
-        <v>4.7124999999999997E-3</v>
-      </c>
-      <c r="H38">
-        <v>42</v>
-      </c>
-      <c r="J38">
-        <v>30.9133</v>
-      </c>
-      <c r="K38">
-        <v>4.8118800000000002E-3</v>
-      </c>
-      <c r="L38">
-        <v>31</v>
-      </c>
       <c r="N38">
         <v>2.6216599999999999</v>
       </c>
@@ -5443,24 +4817,6 @@
       <c r="D39">
         <v>8</v>
       </c>
-      <c r="F39">
-        <v>35.695799999999998</v>
-      </c>
-      <c r="G39">
-        <v>2.0116700000000001E-3</v>
-      </c>
-      <c r="H39">
-        <v>41</v>
-      </c>
-      <c r="J39">
-        <v>30.617100000000001</v>
-      </c>
-      <c r="K39">
-        <v>4.4358599999999998E-3</v>
-      </c>
-      <c r="L39">
-        <v>31</v>
-      </c>
       <c r="N39">
         <v>2.6114299999999999</v>
       </c>
@@ -5484,24 +4840,6 @@
       <c r="D40">
         <v>8</v>
       </c>
-      <c r="F40">
-        <v>36.559600000000003</v>
-      </c>
-      <c r="G40">
-        <v>2.8498E-3</v>
-      </c>
-      <c r="H40">
-        <v>43</v>
-      </c>
-      <c r="J40">
-        <v>30.901599999999998</v>
-      </c>
-      <c r="K40">
-        <v>1.72404E-3</v>
-      </c>
-      <c r="L40">
-        <v>31</v>
-      </c>
       <c r="N40">
         <v>2.60162</v>
       </c>
@@ -5525,24 +4863,6 @@
       <c r="D41">
         <v>2</v>
       </c>
-      <c r="F41">
-        <v>3.36</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>4</v>
-      </c>
-      <c r="J41">
-        <v>3.04</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>3</v>
-      </c>
       <c r="N41">
         <v>1.9697</v>
       </c>
@@ -5566,24 +4886,6 @@
       <c r="D42">
         <v>8</v>
       </c>
-      <c r="F42">
-        <v>37.278199999999998</v>
-      </c>
-      <c r="G42">
-        <v>5.8065299999999999E-3</v>
-      </c>
-      <c r="H42">
-        <v>44</v>
-      </c>
-      <c r="J42">
-        <v>30.605799999999999</v>
-      </c>
-      <c r="K42">
-        <v>4.20886E-3</v>
-      </c>
-      <c r="L42">
-        <v>31</v>
-      </c>
       <c r="N42">
         <v>2.5920999999999998</v>
       </c>
@@ -5607,24 +4909,6 @@
       <c r="D43">
         <v>8</v>
       </c>
-      <c r="F43">
-        <v>37.706600000000002</v>
-      </c>
-      <c r="G43">
-        <v>6.0604099999999996E-3</v>
-      </c>
-      <c r="H43">
-        <v>44</v>
-      </c>
-      <c r="J43">
-        <v>30.8904</v>
-      </c>
-      <c r="K43">
-        <v>2.6003599999999999E-3</v>
-      </c>
-      <c r="L43">
-        <v>31</v>
-      </c>
       <c r="N43">
         <v>2.5826799999999999</v>
       </c>
@@ -5648,24 +4932,6 @@
       <c r="D44">
         <v>8</v>
       </c>
-      <c r="F44">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="G44">
-        <v>5.6127599999999996E-3</v>
-      </c>
-      <c r="H44">
-        <v>44</v>
-      </c>
-      <c r="J44">
-        <v>31.754999999999999</v>
-      </c>
-      <c r="K44">
-        <v>4.76138E-3</v>
-      </c>
-      <c r="L44">
-        <v>32</v>
-      </c>
       <c r="N44">
         <v>2.5738099999999999</v>
       </c>
@@ -5689,24 +4955,6 @@
       <c r="D45">
         <v>8</v>
       </c>
-      <c r="F45">
-        <v>38.273499999999999</v>
-      </c>
-      <c r="G45">
-        <v>3.1361599999999998E-3</v>
-      </c>
-      <c r="H45">
-        <v>45</v>
-      </c>
-      <c r="J45">
-        <v>32.909399999999998</v>
-      </c>
-      <c r="K45">
-        <v>2.87601E-3</v>
-      </c>
-      <c r="L45">
-        <v>33</v>
-      </c>
       <c r="N45">
         <v>2.5647600000000002</v>
       </c>
@@ -5730,24 +4978,6 @@
       <c r="D46">
         <v>8</v>
       </c>
-      <c r="F46">
-        <v>39.136800000000001</v>
-      </c>
-      <c r="G46">
-        <v>6.5000700000000002E-3</v>
-      </c>
-      <c r="H46">
-        <v>46</v>
-      </c>
-      <c r="J46">
-        <v>32.613999999999997</v>
-      </c>
-      <c r="K46">
-        <v>2.9645100000000001E-3</v>
-      </c>
-      <c r="L46">
-        <v>33</v>
-      </c>
       <c r="N46">
         <v>2.5564800000000001</v>
       </c>
@@ -5771,24 +5001,6 @@
       <c r="D47">
         <v>8</v>
       </c>
-      <c r="F47">
-        <v>39.420299999999997</v>
-      </c>
-      <c r="G47">
-        <v>3.8347699999999999E-3</v>
-      </c>
-      <c r="H47">
-        <v>46</v>
-      </c>
-      <c r="J47">
-        <v>32.898600000000002</v>
-      </c>
-      <c r="K47">
-        <v>3.1726599999999999E-3</v>
-      </c>
-      <c r="L47">
-        <v>33</v>
-      </c>
       <c r="N47">
         <v>2.5489299999999999</v>
       </c>
@@ -5812,24 +5024,6 @@
       <c r="D48">
         <v>8</v>
       </c>
-      <c r="F48">
-        <v>39.993600000000001</v>
-      </c>
-      <c r="G48">
-        <v>3.9754500000000002E-3</v>
-      </c>
-      <c r="H48">
-        <v>47</v>
-      </c>
-      <c r="J48">
-        <v>32.603499999999997</v>
-      </c>
-      <c r="K48">
-        <v>3.1824499999999999E-3</v>
-      </c>
-      <c r="L48">
-        <v>33</v>
-      </c>
       <c r="N48">
         <v>2.5411899999999998</v>
       </c>
@@ -5853,24 +5047,6 @@
       <c r="D49">
         <v>8</v>
       </c>
-      <c r="F49">
-        <v>39.987400000000001</v>
-      </c>
-      <c r="G49">
-        <v>4.0384799999999997E-3</v>
-      </c>
-      <c r="H49">
-        <v>47</v>
-      </c>
-      <c r="J49">
-        <v>32.888199999999998</v>
-      </c>
-      <c r="K49">
-        <v>2.0107300000000001E-3</v>
-      </c>
-      <c r="L49">
-        <v>33</v>
-      </c>
       <c r="N49">
         <v>2.5327500000000001</v>
       </c>
@@ -5894,24 +5070,6 @@
       <c r="D50">
         <v>8</v>
       </c>
-      <c r="F50">
-        <v>40.705599999999997</v>
-      </c>
-      <c r="G50">
-        <v>2.5138199999999999E-3</v>
-      </c>
-      <c r="H50">
-        <v>48</v>
-      </c>
-      <c r="J50">
-        <v>33.752299999999998</v>
-      </c>
-      <c r="K50">
-        <v>2.9666699999999998E-3</v>
-      </c>
-      <c r="L50">
-        <v>34</v>
-      </c>
       <c r="N50">
         <v>2.5255200000000002</v>
       </c>
@@ -5935,24 +5093,6 @@
       <c r="D51">
         <v>8</v>
       </c>
-      <c r="F51">
-        <v>41.134099999999997</v>
-      </c>
-      <c r="G51">
-        <v>3.4546199999999998E-3</v>
-      </c>
-      <c r="H51">
-        <v>48</v>
-      </c>
-      <c r="J51">
-        <v>34.905999999999999</v>
-      </c>
-      <c r="K51">
-        <v>3.5216700000000002E-3</v>
-      </c>
-      <c r="L51">
-        <v>35</v>
-      </c>
       <c r="N51">
         <v>2.5173800000000002</v>
       </c>
@@ -5976,24 +5116,6 @@
       <c r="D52">
         <v>2</v>
       </c>
-      <c r="F52">
-        <v>3.4736799999999999</v>
-      </c>
-      <c r="G52">
-        <v>1.40345E-4</v>
-      </c>
-      <c r="H52">
-        <v>4</v>
-      </c>
-      <c r="J52">
-        <v>3.9473699999999998</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>4</v>
-      </c>
       <c r="N52">
         <v>1.91489</v>
       </c>
@@ -6017,24 +5139,6 @@
       <c r="D53">
         <v>8</v>
       </c>
-      <c r="F53">
-        <v>41.5625</v>
-      </c>
-      <c r="G53">
-        <v>3.5471399999999998E-3</v>
-      </c>
-      <c r="H53">
-        <v>49</v>
-      </c>
-      <c r="J53">
-        <v>34.6113</v>
-      </c>
-      <c r="K53">
-        <v>3.1515699999999998E-3</v>
-      </c>
-      <c r="L53">
-        <v>35</v>
-      </c>
       <c r="N53">
         <v>2.5106099999999998</v>
       </c>
@@ -6058,24 +5162,6 @@
       <c r="D54">
         <v>8</v>
       </c>
-      <c r="F54">
-        <v>41.7014</v>
-      </c>
-      <c r="G54">
-        <v>3.72544E-3</v>
-      </c>
-      <c r="H54">
-        <v>49</v>
-      </c>
-      <c r="J54">
-        <v>34.895899999999997</v>
-      </c>
-      <c r="K54">
-        <v>4.1632500000000003E-3</v>
-      </c>
-      <c r="L54">
-        <v>35</v>
-      </c>
       <c r="N54">
         <v>2.5027499999999998</v>
       </c>
@@ -6099,24 +5185,6 @@
       <c r="D55">
         <v>8</v>
       </c>
-      <c r="F55">
-        <v>42.5642</v>
-      </c>
-      <c r="G55">
-        <v>3.8939500000000002E-3</v>
-      </c>
-      <c r="H55">
-        <v>50</v>
-      </c>
-      <c r="J55">
-        <v>34.601500000000001</v>
-      </c>
-      <c r="K55">
-        <v>5.9331999999999996E-3</v>
-      </c>
-      <c r="L55">
-        <v>35</v>
-      </c>
       <c r="N55">
         <v>2.4964200000000001</v>
       </c>
@@ -6140,24 +5208,6 @@
       <c r="D56">
         <v>8</v>
       </c>
-      <c r="F56">
-        <v>42.703099999999999</v>
-      </c>
-      <c r="G56">
-        <v>4.5454199999999997E-3</v>
-      </c>
-      <c r="H56">
-        <v>50</v>
-      </c>
-      <c r="J56">
-        <v>34.886299999999999</v>
-      </c>
-      <c r="K56">
-        <v>5.1174799999999998E-3</v>
-      </c>
-      <c r="L56">
-        <v>35</v>
-      </c>
       <c r="N56">
         <v>2.48875</v>
       </c>
@@ -6181,24 +5231,6 @@
       <c r="D57">
         <v>8</v>
       </c>
-      <c r="F57">
-        <v>43.420999999999999</v>
-      </c>
-      <c r="G57">
-        <v>5.6533099999999999E-3</v>
-      </c>
-      <c r="H57">
-        <v>51</v>
-      </c>
-      <c r="J57">
-        <v>35.75</v>
-      </c>
-      <c r="K57">
-        <v>3.4178400000000001E-3</v>
-      </c>
-      <c r="L57">
-        <v>36</v>
-      </c>
       <c r="N57">
         <v>2.4828199999999998</v>
       </c>
@@ -6222,24 +5254,6 @@
       <c r="D58">
         <v>9</v>
       </c>
-      <c r="F58">
-        <v>44.234999999999999</v>
-      </c>
-      <c r="G58">
-        <v>7.5892299999999998E-3</v>
-      </c>
-      <c r="H58">
-        <v>52</v>
-      </c>
-      <c r="J58">
-        <v>36.693300000000001</v>
-      </c>
-      <c r="K58">
-        <v>3.6221299999999999E-3</v>
-      </c>
-      <c r="L58">
-        <v>37</v>
-      </c>
       <c r="N58">
         <v>2.6781299999999999</v>
       </c>
@@ -6263,24 +5277,6 @@
       <c r="D59">
         <v>3</v>
       </c>
-      <c r="F59">
-        <v>5.0406500000000003</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>6</v>
-      </c>
-      <c r="J59">
-        <v>4.87805</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>5</v>
-      </c>
       <c r="N59">
         <v>2.3164400000000001</v>
       </c>
@@ -6304,24 +5300,6 @@
       <c r="D60">
         <v>3</v>
       </c>
-      <c r="F60">
-        <v>5.8235299999999999</v>
-      </c>
-      <c r="G60">
-        <v>1.4012200000000001E-4</v>
-      </c>
-      <c r="H60">
-        <v>7</v>
-      </c>
-      <c r="J60">
-        <v>5.6617699999999997</v>
-      </c>
-      <c r="K60">
-        <v>1.10449E-4</v>
-      </c>
-      <c r="L60">
-        <v>6</v>
-      </c>
       <c r="N60">
         <v>2.4816500000000001</v>
       </c>
@@ -6345,24 +5323,6 @@
       <c r="D61">
         <v>3</v>
       </c>
-      <c r="F61">
-        <v>5.6</v>
-      </c>
-      <c r="G61">
-        <v>1.9851299999999999E-4</v>
-      </c>
-      <c r="H61">
-        <v>7</v>
-      </c>
-      <c r="J61">
-        <v>7.2</v>
-      </c>
-      <c r="K61">
-        <v>1.2705099999999999E-4</v>
-      </c>
-      <c r="L61">
-        <v>7</v>
-      </c>
       <c r="N61">
         <v>3.22255</v>
       </c>
@@ -6386,24 +5346,6 @@
       <c r="D62">
         <v>3</v>
       </c>
-      <c r="F62">
-        <v>6.6585400000000003</v>
-      </c>
-      <c r="G62">
-        <v>2.04787E-4</v>
-      </c>
-      <c r="H62">
-        <v>8</v>
-      </c>
-      <c r="J62">
-        <v>6.8170700000000002</v>
-      </c>
-      <c r="K62">
-        <v>2.6303900000000001E-4</v>
-      </c>
-      <c r="L62">
-        <v>7</v>
-      </c>
       <c r="N62">
         <v>2.9354800000000001</v>
       </c>
@@ -6427,24 +5369,6 @@
       <c r="D63">
         <v>4</v>
       </c>
-      <c r="F63">
-        <v>6.9213500000000003</v>
-      </c>
-      <c r="G63">
-        <v>1.3256699999999999E-4</v>
-      </c>
-      <c r="H63">
-        <v>8</v>
-      </c>
-      <c r="J63">
-        <v>7.0786499999999997</v>
-      </c>
-      <c r="K63">
-        <v>1.5391600000000001E-4</v>
-      </c>
-      <c r="L63">
-        <v>7</v>
-      </c>
       <c r="N63">
         <v>4.0885600000000002</v>
       </c>
@@ -6468,24 +5392,6 @@
       <c r="D64">
         <v>4</v>
       </c>
-      <c r="F64">
-        <v>7.5</v>
-      </c>
-      <c r="G64">
-        <v>1.7594099999999999E-4</v>
-      </c>
-      <c r="H64">
-        <v>9</v>
-      </c>
-      <c r="J64">
-        <v>7.96875</v>
-      </c>
-      <c r="K64">
-        <v>1.1276400000000001E-4</v>
-      </c>
-      <c r="L64">
-        <v>8</v>
-      </c>
       <c r="N64">
         <v>4.6675899999999997</v>
       </c>
@@ -6509,24 +5415,6 @@
       <c r="D65">
         <v>5</v>
       </c>
-      <c r="F65">
-        <v>7.4563100000000002</v>
-      </c>
-      <c r="G65">
-        <v>1.7526600000000001E-4</v>
-      </c>
-      <c r="H65">
-        <v>9</v>
-      </c>
-      <c r="J65">
-        <v>9.1650500000000008</v>
-      </c>
-      <c r="K65">
-        <v>2.0150300000000001E-4</v>
-      </c>
-      <c r="L65">
-        <v>9</v>
-      </c>
       <c r="N65">
         <v>6.0803599999999998</v>
       </c>
@@ -6550,24 +5438,6 @@
       <c r="D66">
         <v>11</v>
       </c>
-      <c r="F66">
-        <v>7.4181800000000004</v>
-      </c>
-      <c r="G66">
-        <v>1.8281300000000001E-4</v>
-      </c>
-      <c r="H66">
-        <v>8</v>
-      </c>
-      <c r="J66">
-        <v>8.8090899999999994</v>
-      </c>
-      <c r="K66">
-        <v>2.1692900000000001E-4</v>
-      </c>
-      <c r="L66">
-        <v>9</v>
-      </c>
       <c r="N66">
         <v>10.6334</v>
       </c>
@@ -6591,24 +5461,6 @@
       <c r="D67">
         <v>11</v>
       </c>
-      <c r="F67">
-        <v>8.6153899999999997</v>
-      </c>
-      <c r="G67">
-        <v>2.0167300000000001E-4</v>
-      </c>
-      <c r="H67">
-        <v>10</v>
-      </c>
-      <c r="J67">
-        <v>9.0769199999999994</v>
-      </c>
-      <c r="K67">
-        <v>2.0204399999999999E-4</v>
-      </c>
-      <c r="L67">
-        <v>9</v>
-      </c>
       <c r="N67">
         <v>12.22</v>
       </c>
@@ -6632,24 +5484,6 @@
       <c r="D68">
         <v>7</v>
       </c>
-      <c r="F68">
-        <v>8.5806400000000007</v>
-      </c>
-      <c r="G68">
-        <v>4.2064000000000001E-4</v>
-      </c>
-      <c r="H68">
-        <v>10</v>
-      </c>
-      <c r="J68">
-        <v>8.7338699999999996</v>
-      </c>
-      <c r="K68">
-        <v>4.2511300000000002E-4</v>
-      </c>
-      <c r="L68">
-        <v>9</v>
-      </c>
       <c r="N68">
         <v>7.1110600000000002</v>
       </c>
@@ -6673,24 +5507,6 @@
       <c r="D69">
         <v>7</v>
       </c>
-      <c r="F69">
-        <v>8.2442700000000002</v>
-      </c>
-      <c r="G69">
-        <v>4.1343100000000002E-4</v>
-      </c>
-      <c r="H69">
-        <v>9</v>
-      </c>
-      <c r="J69">
-        <v>9.0076300000000007</v>
-      </c>
-      <c r="K69">
-        <v>4.32032E-4</v>
-      </c>
-      <c r="L69">
-        <v>9</v>
-      </c>
       <c r="N69">
         <v>6.8857299999999997</v>
       </c>
@@ -6714,24 +5530,6 @@
       <c r="D70">
         <v>7</v>
       </c>
-      <c r="F70">
-        <v>9.7391299999999994</v>
-      </c>
-      <c r="G70">
-        <v>2.4732699999999999E-4</v>
-      </c>
-      <c r="H70">
-        <v>11</v>
-      </c>
-      <c r="J70">
-        <v>9.8913100000000007</v>
-      </c>
-      <c r="K70">
-        <v>2.4704799999999998E-4</v>
-      </c>
-      <c r="L70">
-        <v>10</v>
-      </c>
       <c r="N70">
         <v>6.3924599999999998</v>
       </c>
@@ -6755,24 +5553,6 @@
       <c r="D71">
         <v>7</v>
       </c>
-      <c r="F71">
-        <v>10.1655</v>
-      </c>
-      <c r="G71">
-        <v>2.5309900000000001E-4</v>
-      </c>
-      <c r="H71">
-        <v>11</v>
-      </c>
-      <c r="J71">
-        <v>11.075900000000001</v>
-      </c>
-      <c r="K71">
-        <v>5.4110599999999997E-4</v>
-      </c>
-      <c r="L71">
-        <v>11</v>
-      </c>
       <c r="N71">
         <v>5.8516599999999999</v>
       </c>
@@ -6796,24 +5576,6 @@
       <c r="D72">
         <v>8</v>
       </c>
-      <c r="F72">
-        <v>10.8947</v>
-      </c>
-      <c r="G72">
-        <v>5.9589699999999996E-4</v>
-      </c>
-      <c r="H72">
-        <v>13</v>
-      </c>
-      <c r="J72">
-        <v>10.743399999999999</v>
-      </c>
-      <c r="K72">
-        <v>2.8566699999999997E-4</v>
-      </c>
-      <c r="L72">
-        <v>11</v>
-      </c>
       <c r="N72">
         <v>5.8264899999999997</v>
       </c>
@@ -6837,24 +5599,6 @@
       <c r="D73">
         <v>8</v>
       </c>
-      <c r="F73">
-        <v>10.867900000000001</v>
-      </c>
-      <c r="G73">
-        <v>6.2648200000000004E-4</v>
-      </c>
-      <c r="H73">
-        <v>13</v>
-      </c>
-      <c r="J73">
-        <v>11.0189</v>
-      </c>
-      <c r="K73">
-        <v>3.0199300000000002E-4</v>
-      </c>
-      <c r="L73">
-        <v>11</v>
-      </c>
       <c r="N73">
         <v>5.4010800000000003</v>
       </c>
@@ -6878,24 +5622,6 @@
       <c r="D74">
         <v>8</v>
       </c>
-      <c r="F74">
-        <v>11.596399999999999</v>
-      </c>
-      <c r="G74">
-        <v>3.4517700000000001E-4</v>
-      </c>
-      <c r="H74">
-        <v>14</v>
-      </c>
-      <c r="J74">
-        <v>10.6928</v>
-      </c>
-      <c r="K74">
-        <v>3.0464000000000001E-4</v>
-      </c>
-      <c r="L74">
-        <v>11</v>
-      </c>
       <c r="N74">
         <v>5.1482700000000001</v>
       </c>
@@ -6919,24 +5645,6 @@
       <c r="D75">
         <v>8</v>
       </c>
-      <c r="F75">
-        <v>12.023099999999999</v>
-      </c>
-      <c r="G75">
-        <v>3.5528399999999998E-4</v>
-      </c>
-      <c r="H75">
-        <v>14</v>
-      </c>
-      <c r="J75">
-        <v>10.9711</v>
-      </c>
-      <c r="K75">
-        <v>3.1389200000000002E-4</v>
-      </c>
-      <c r="L75">
-        <v>11</v>
-      </c>
       <c r="N75">
         <v>5.0330300000000001</v>
       </c>
@@ -6960,24 +5668,6 @@
       <c r="D76">
         <v>8</v>
       </c>
-      <c r="F76">
-        <v>12.6</v>
-      </c>
-      <c r="G76">
-        <v>3.9130700000000003E-4</v>
-      </c>
-      <c r="H76">
-        <v>15</v>
-      </c>
-      <c r="J76">
-        <v>11.85</v>
-      </c>
-      <c r="K76">
-        <v>6.9714400000000002E-4</v>
-      </c>
-      <c r="L76">
-        <v>12</v>
-      </c>
       <c r="N76">
         <v>4.8232400000000002</v>
       </c>
@@ -7001,24 +5691,6 @@
       <c r="D77">
         <v>8</v>
       </c>
-      <c r="F77">
-        <v>12.4278</v>
-      </c>
-      <c r="G77">
-        <v>8.0323299999999999E-4</v>
-      </c>
-      <c r="H77">
-        <v>15</v>
-      </c>
-      <c r="J77">
-        <v>11.828900000000001</v>
-      </c>
-      <c r="K77">
-        <v>3.9145100000000002E-4</v>
-      </c>
-      <c r="L77">
-        <v>12</v>
-      </c>
       <c r="N77">
         <v>4.7285500000000003</v>
       </c>
@@ -7042,24 +5714,6 @@
       <c r="D78">
         <v>8</v>
       </c>
-      <c r="F78">
-        <v>13.3041</v>
-      </c>
-      <c r="G78">
-        <v>4.3666700000000001E-4</v>
-      </c>
-      <c r="H78">
-        <v>16</v>
-      </c>
-      <c r="J78">
-        <v>12.706200000000001</v>
-      </c>
-      <c r="K78">
-        <v>7.8760099999999997E-4</v>
-      </c>
-      <c r="L78">
-        <v>13</v>
-      </c>
       <c r="N78">
         <v>4.5528000000000004</v>
       </c>
@@ -7083,24 +5737,6 @@
       <c r="D79">
         <v>8</v>
       </c>
-      <c r="F79">
-        <v>13.582100000000001</v>
-      </c>
-      <c r="G79">
-        <v>4.3495799999999999E-4</v>
-      </c>
-      <c r="H79">
-        <v>16</v>
-      </c>
-      <c r="J79">
-        <v>12.985099999999999</v>
-      </c>
-      <c r="K79">
-        <v>2.8806399999999998E-4</v>
-      </c>
-      <c r="L79">
-        <v>13</v>
-      </c>
       <c r="N79">
         <v>4.4837800000000003</v>
       </c>
@@ -7124,24 +5760,6 @@
       <c r="D80">
         <v>8</v>
       </c>
-      <c r="F80">
-        <v>14.307700000000001</v>
-      </c>
-      <c r="G80">
-        <v>3.9191200000000001E-4</v>
-      </c>
-      <c r="H80">
-        <v>17</v>
-      </c>
-      <c r="J80">
-        <v>12.6683</v>
-      </c>
-      <c r="K80">
-        <v>6.8761400000000002E-4</v>
-      </c>
-      <c r="L80">
-        <v>13</v>
-      </c>
       <c r="N80">
         <v>4.3345799999999999</v>
       </c>
@@ -7165,24 +5783,6 @@
       <c r="D81">
         <v>8</v>
       </c>
-      <c r="F81">
-        <v>14.288399999999999</v>
-      </c>
-      <c r="G81">
-        <v>4.8998100000000001E-4</v>
-      </c>
-      <c r="H81">
-        <v>17</v>
-      </c>
-      <c r="J81">
-        <v>12.9488</v>
-      </c>
-      <c r="K81">
-        <v>4.45456E-4</v>
-      </c>
-      <c r="L81">
-        <v>13</v>
-      </c>
       <c r="N81">
         <v>4.2663399999999996</v>
       </c>
@@ -7206,24 +5806,6 @@
       <c r="D82">
         <v>8</v>
       </c>
-      <c r="F82">
-        <v>15.1622</v>
-      </c>
-      <c r="G82">
-        <v>1.0515500000000001E-3</v>
-      </c>
-      <c r="H82">
-        <v>18</v>
-      </c>
-      <c r="J82">
-        <v>13.824299999999999</v>
-      </c>
-      <c r="K82">
-        <v>4.9282299999999998E-4</v>
-      </c>
-      <c r="L82">
-        <v>14</v>
-      </c>
       <c r="N82">
         <v>4.1390200000000004</v>
       </c>
@@ -7247,24 +5829,6 @@
       <c r="D83">
         <v>8</v>
       </c>
-      <c r="F83">
-        <v>14.847200000000001</v>
-      </c>
-      <c r="G83">
-        <v>9.2164899999999997E-4</v>
-      </c>
-      <c r="H83">
-        <v>17</v>
-      </c>
-      <c r="J83">
-        <v>14.9956</v>
-      </c>
-      <c r="K83">
-        <v>5.15782E-4</v>
-      </c>
-      <c r="L83">
-        <v>15</v>
-      </c>
       <c r="N83">
         <v>4.0798699999999997</v>
       </c>
@@ -7288,24 +5852,6 @@
       <c r="D84">
         <v>8</v>
       </c>
-      <c r="F84">
-        <v>15.4237</v>
-      </c>
-      <c r="G84">
-        <v>1.04441E-3</v>
-      </c>
-      <c r="H84">
-        <v>18</v>
-      </c>
-      <c r="J84">
-        <v>14.6822</v>
-      </c>
-      <c r="K84">
-        <v>5.3412499999999999E-4</v>
-      </c>
-      <c r="L84">
-        <v>15</v>
-      </c>
       <c r="N84">
         <v>3.9703400000000002</v>
       </c>
@@ -7329,24 +5875,6 @@
       <c r="D85">
         <v>8</v>
       </c>
-      <c r="F85">
-        <v>16</v>
-      </c>
-      <c r="G85">
-        <v>1.0197400000000001E-3</v>
-      </c>
-      <c r="H85">
-        <v>19</v>
-      </c>
-      <c r="J85">
-        <v>14.962999999999999</v>
-      </c>
-      <c r="K85">
-        <v>9.3440099999999996E-4</v>
-      </c>
-      <c r="L85">
-        <v>15</v>
-      </c>
       <c r="N85">
         <v>3.91838</v>
       </c>
@@ -7370,24 +5898,6 @@
       <c r="D86">
         <v>8</v>
       </c>
-      <c r="F86">
-        <v>16.872</v>
-      </c>
-      <c r="G86">
-        <v>1.2708299999999999E-3</v>
-      </c>
-      <c r="H86">
-        <v>20</v>
-      </c>
-      <c r="J86">
-        <v>14.651999999999999</v>
-      </c>
-      <c r="K86">
-        <v>1.0853E-3</v>
-      </c>
-      <c r="L86">
-        <v>15</v>
-      </c>
       <c r="N86">
         <v>3.8234599999999999</v>
       </c>
@@ -7411,24 +5921,6 @@
       <c r="D87">
         <v>8</v>
       </c>
-      <c r="F87">
-        <v>17.151700000000002</v>
-      </c>
-      <c r="G87">
-        <v>1.2112E-3</v>
-      </c>
-      <c r="H87">
-        <v>20</v>
-      </c>
-      <c r="J87">
-        <v>14.9339</v>
-      </c>
-      <c r="K87">
-        <v>7.9065099999999996E-4</v>
-      </c>
-      <c r="L87">
-        <v>15</v>
-      </c>
       <c r="N87">
         <v>3.7765300000000002</v>
       </c>
@@ -7452,24 +5944,6 @@
       <c r="D88">
         <v>8</v>
       </c>
-      <c r="F88">
-        <v>17.7273</v>
-      </c>
-      <c r="G88">
-        <v>7.0152599999999995E-4</v>
-      </c>
-      <c r="H88">
-        <v>21</v>
-      </c>
-      <c r="J88">
-        <v>15.806800000000001</v>
-      </c>
-      <c r="K88">
-        <v>6.2219499999999997E-4</v>
-      </c>
-      <c r="L88">
-        <v>16</v>
-      </c>
       <c r="N88">
         <v>3.69381</v>
       </c>
@@ -7493,24 +5967,6 @@
       <c r="D89">
         <v>8</v>
       </c>
-      <c r="F89">
-        <v>17.712199999999999</v>
-      </c>
-      <c r="G89">
-        <v>9.4269299999999998E-4</v>
-      </c>
-      <c r="H89">
-        <v>21</v>
-      </c>
-      <c r="J89">
-        <v>16.9742</v>
-      </c>
-      <c r="K89">
-        <v>6.7296100000000002E-4</v>
-      </c>
-      <c r="L89">
-        <v>17</v>
-      </c>
       <c r="N89">
         <v>3.65829</v>
       </c>
@@ -7534,24 +5990,6 @@
       <c r="D90">
         <v>8</v>
       </c>
-      <c r="F90">
-        <v>18.287800000000001</v>
-      </c>
-      <c r="G90">
-        <v>8.5843599999999996E-4</v>
-      </c>
-      <c r="H90">
-        <v>21</v>
-      </c>
-      <c r="J90">
-        <v>16.665500000000002</v>
-      </c>
-      <c r="K90">
-        <v>7.7266599999999998E-4</v>
-      </c>
-      <c r="L90">
-        <v>17</v>
-      </c>
       <c r="N90">
         <v>3.5855899999999998</v>
       </c>
@@ -7575,24 +6013,6 @@
       <c r="D91">
         <v>8</v>
       </c>
-      <c r="F91">
-        <v>18.863199999999999</v>
-      </c>
-      <c r="G91">
-        <v>1.43739E-3</v>
-      </c>
-      <c r="H91">
-        <v>22</v>
-      </c>
-      <c r="J91">
-        <v>16.947399999999998</v>
-      </c>
-      <c r="K91">
-        <v>6.8633400000000003E-4</v>
-      </c>
-      <c r="L91">
-        <v>17</v>
-      </c>
       <c r="N91">
         <v>3.5477699999999999</v>
       </c>
@@ -7616,24 +6036,6 @@
       <c r="D92">
         <v>8</v>
       </c>
-      <c r="F92">
-        <v>19.2911</v>
-      </c>
-      <c r="G92">
-        <v>1.60618E-3</v>
-      </c>
-      <c r="H92">
-        <v>23</v>
-      </c>
-      <c r="J92">
-        <v>16.6404</v>
-      </c>
-      <c r="K92">
-        <v>1.4014400000000001E-3</v>
-      </c>
-      <c r="L92">
-        <v>17</v>
-      </c>
       <c r="N92">
         <v>3.4837600000000002</v>
       </c>
@@ -7657,24 +6059,6 @@
       <c r="D93">
         <v>8</v>
       </c>
-      <c r="F93">
-        <v>19.424700000000001</v>
-      </c>
-      <c r="G93">
-        <v>1.5460999999999999E-3</v>
-      </c>
-      <c r="H93">
-        <v>23</v>
-      </c>
-      <c r="J93">
-        <v>16.923100000000002</v>
-      </c>
-      <c r="K93">
-        <v>7.1496400000000001E-4</v>
-      </c>
-      <c r="L93">
-        <v>17</v>
-      </c>
       <c r="N93">
         <v>3.4495800000000001</v>
       </c>
@@ -7698,24 +6082,6 @@
       <c r="D94">
         <v>1</v>
       </c>
-      <c r="F94">
-        <v>2</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>2</v>
-      </c>
-      <c r="J94">
-        <v>2.1818200000000001</v>
-      </c>
-      <c r="K94">
-        <v>0</v>
-      </c>
-      <c r="L94">
-        <v>2</v>
-      </c>
       <c r="N94">
         <v>1.1764699999999999</v>
       </c>
@@ -7739,24 +6105,6 @@
       <c r="D95">
         <v>8</v>
       </c>
-      <c r="F95">
-        <v>20.2941</v>
-      </c>
-      <c r="G95">
-        <v>1.5259500000000001E-3</v>
-      </c>
-      <c r="H95">
-        <v>24</v>
-      </c>
-      <c r="J95">
-        <v>17.7941</v>
-      </c>
-      <c r="K95">
-        <v>1.5485900000000001E-3</v>
-      </c>
-      <c r="L95">
-        <v>18</v>
-      </c>
       <c r="N95">
         <v>3.3929399999999998</v>
       </c>
@@ -7780,24 +6128,6 @@
       <c r="D96">
         <v>8</v>
       </c>
-      <c r="F96">
-        <v>17.782699999999998</v>
-      </c>
-      <c r="G96">
-        <v>7.3459600000000001E-4</v>
-      </c>
-      <c r="H96">
-        <v>19</v>
-      </c>
-      <c r="J96">
-        <v>18.958500000000001</v>
-      </c>
-      <c r="K96">
-        <v>1.6672200000000001E-3</v>
-      </c>
-      <c r="L96">
-        <v>19</v>
-      </c>
       <c r="N96">
         <v>3.3618800000000002</v>
       </c>
@@ -7821,24 +6151,6 @@
       <c r="D97">
         <v>8</v>
       </c>
-      <c r="F97">
-        <v>20.856300000000001</v>
-      </c>
-      <c r="G97">
-        <v>1.86784E-3</v>
-      </c>
-      <c r="H97">
-        <v>24</v>
-      </c>
-      <c r="J97">
-        <v>18.653099999999998</v>
-      </c>
-      <c r="K97">
-        <v>8.6889699999999999E-4</v>
-      </c>
-      <c r="L97">
-        <v>19</v>
-      </c>
       <c r="N97">
         <v>3.3115199999999998</v>
       </c>
@@ -7862,24 +6174,6 @@
       <c r="D98">
         <v>8</v>
       </c>
-      <c r="F98">
-        <v>21.137599999999999</v>
-      </c>
-      <c r="G98">
-        <v>9.7144899999999999E-4</v>
-      </c>
-      <c r="H98">
-        <v>25</v>
-      </c>
-      <c r="J98">
-        <v>18.9358</v>
-      </c>
-      <c r="K98">
-        <v>1.7064999999999999E-3</v>
-      </c>
-      <c r="L98">
-        <v>19</v>
-      </c>
       <c r="N98">
         <v>3.2831600000000001</v>
       </c>
@@ -7902,24 +6196,6 @@
       </c>
       <c r="D99">
         <v>8</v>
-      </c>
-      <c r="F99">
-        <v>22.152699999999999</v>
-      </c>
-      <c r="G99">
-        <v>1.06387E-3</v>
-      </c>
-      <c r="H99">
-        <v>26</v>
-      </c>
-      <c r="J99">
-        <v>18.631699999999999</v>
-      </c>
-      <c r="K99">
-        <v>1.64073E-3</v>
-      </c>
-      <c r="L99">
-        <v>19</v>
       </c>
       <c r="N99">
         <v>3.2381899999999999</v>
@@ -7947,7 +6223,7 @@
   <dimension ref="A1:P99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:H99"/>
+      <selection activeCell="J99" sqref="J99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12008,8 +10284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:P99"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16070,8 +14346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:P99"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20133,7 +18409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="AX3" sqref="AX3:AZ99"/>
     </sheetView>
   </sheetViews>
@@ -32168,12 +30444,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="R1:T1"/>
     <mergeCell ref="AX1:AZ1"/>
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AD1:AF1"/>
@@ -32181,6 +30451,12 @@
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="AP1:AR1"/>
     <mergeCell ref="AT1:AV1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="R1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -32191,7 +30467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="Z3" sqref="Z3:AB99"/>
     </sheetView>
   </sheetViews>
@@ -38918,7 +37194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB99"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Z2" sqref="Z2:AB2"/>
     </sheetView>
   </sheetViews>
